--- a/data/procon/threshold_100/group distribution statistic information.xlsx
+++ b/data/procon/threshold_100/group distribution statistic information.xlsx
@@ -568,25 +568,25 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>0.1039701257861635</v>
+        <v>0.2408256880733946</v>
       </c>
       <c r="C2">
-        <v>0.1893671383647799</v>
+        <v>0.4401376146788991</v>
       </c>
       <c r="D2">
-        <v>0.2146717767295598</v>
+        <v>0.4991972477064221</v>
       </c>
       <c r="E2">
-        <v>0.1721409198113208</v>
+        <v>0.3999325688073395</v>
       </c>
       <c r="F2">
-        <v>0.1118317610062893</v>
+        <v>0.2591743119266055</v>
       </c>
       <c r="G2">
-        <v>19.39611371330514</v>
+        <v>19.39611371330515</v>
       </c>
       <c r="H2">
-        <v>2.239394812106148E-71</v>
+        <v>2.239394812105893E-71</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -603,25 +603,25 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>0.1453878406708596</v>
+        <v>0.3374923547400612</v>
       </c>
       <c r="C3">
-        <v>0.1697851153039832</v>
+        <v>0.394434250764526</v>
       </c>
       <c r="D3">
-        <v>0.1938220649895178</v>
+        <v>0.4505351681957186</v>
       </c>
       <c r="E3">
-        <v>0.1703924004192872</v>
+        <v>0.395851620795107</v>
       </c>
       <c r="F3">
-        <v>0.1817872117400419</v>
+        <v>0.4224464831804282</v>
       </c>
       <c r="G3">
-        <v>-10.38172722710164</v>
+        <v>-10.3817272271017</v>
       </c>
       <c r="H3">
-        <v>4.766141429779141E-24</v>
+        <v>4.766141429776576E-24</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -638,25 +638,25 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>0.1426304449103191</v>
+        <v>0.3310567448182127</v>
       </c>
       <c r="C4">
-        <v>0.1683554623806196</v>
+        <v>0.3910975195378865</v>
       </c>
       <c r="D4">
-        <v>0.1932579198695551</v>
+        <v>0.4492184845395855</v>
       </c>
       <c r="E4">
-        <v>0.1693001106452364</v>
+        <v>0.3933022765885151</v>
       </c>
       <c r="F4">
-        <v>0.2116818075937573</v>
+        <v>0.4922188243289161</v>
       </c>
       <c r="G4">
         <v>-36.76739701976854</v>
       </c>
       <c r="H4">
-        <v>7.564453151575331E-188</v>
+        <v>7.564453151577052E-188</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -673,19 +673,19 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.01179245283018868</v>
+        <v>0.02568807339449542</v>
       </c>
       <c r="C5">
-        <v>0.2012578616352201</v>
+        <v>0.4678899082568807</v>
       </c>
       <c r="D5">
-        <v>0.2138364779874214</v>
+        <v>0.4972477064220183</v>
       </c>
       <c r="E5">
-        <v>0.1732417452830189</v>
+        <v>0.4025018348623853</v>
       </c>
       <c r="F5">
-        <v>0.01690251572327044</v>
+        <v>0.03761467889908257</v>
       </c>
       <c r="G5">
         <v>35.79696991171522</v>
@@ -708,19 +708,19 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.01179245283018868</v>
+        <v>0.02568807339449542</v>
       </c>
       <c r="C6">
-        <v>0.2012578616352201</v>
+        <v>0.4678899082568807</v>
       </c>
       <c r="D6">
-        <v>0.2138364779874214</v>
+        <v>0.4972477064220183</v>
       </c>
       <c r="E6">
-        <v>0.1732417452830189</v>
+        <v>0.4025018348623853</v>
       </c>
       <c r="F6">
-        <v>0.01690251572327044</v>
+        <v>0.03761467889908257</v>
       </c>
       <c r="G6">
         <v>35.79696991171522</v>
@@ -743,25 +743,25 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>0.1426304449103191</v>
+        <v>0.3310567448182127</v>
       </c>
       <c r="C7">
-        <v>0.1683554623806196</v>
+        <v>0.3910975195378865</v>
       </c>
       <c r="D7">
-        <v>0.1932579198695551</v>
+        <v>0.4492184845395855</v>
       </c>
       <c r="E7">
-        <v>0.1693001106452364</v>
+        <v>0.3933022765885151</v>
       </c>
       <c r="F7">
-        <v>0.205272911051213</v>
+        <v>0.4772608125819136</v>
       </c>
       <c r="G7">
-        <v>-31.20748647808898</v>
+        <v>-31.20748647808897</v>
       </c>
       <c r="H7">
-        <v>8.552316072941096E-150</v>
+        <v>8.552316072942067E-150</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -778,25 +778,25 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.1283411949685535</v>
+        <v>0.2977064220183486</v>
       </c>
       <c r="C8">
-        <v>0.1429507337526205</v>
+        <v>0.3318042813455657</v>
       </c>
       <c r="D8">
-        <v>0.2678197064989518</v>
+        <v>0.6232415902140673</v>
       </c>
       <c r="E8">
-        <v>0.1712966457023061</v>
+        <v>0.3979620795107033</v>
       </c>
       <c r="F8">
-        <v>0.1409853249475891</v>
+        <v>0.3272171253822631</v>
       </c>
       <c r="G8">
-        <v>8.73063116972313</v>
+        <v>8.730631169723125</v>
       </c>
       <c r="H8">
-        <v>1.048317840614269E-17</v>
+        <v>1.0483178406143E-17</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -813,25 +813,25 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>0.1039701257861635</v>
+        <v>0.2408256880733946</v>
       </c>
       <c r="C9">
-        <v>0.1893671383647799</v>
+        <v>0.4401376146788991</v>
       </c>
       <c r="D9">
-        <v>0.2146717767295598</v>
+        <v>0.4991972477064221</v>
       </c>
       <c r="E9">
-        <v>0.1721409198113208</v>
+        <v>0.3999325688073395</v>
       </c>
       <c r="F9">
-        <v>0.1061320754716981</v>
+        <v>0.2458715596330275</v>
       </c>
       <c r="G9">
         <v>21.22919762542544</v>
       </c>
       <c r="H9">
-        <v>7.62944696984367E-83</v>
+        <v>7.629446969843019E-83</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -848,25 +848,25 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.01179245283018868</v>
+        <v>0.02568807339449542</v>
       </c>
       <c r="C10">
-        <v>0.2012578616352201</v>
+        <v>0.4678899082568807</v>
       </c>
       <c r="D10">
-        <v>0.2138364779874214</v>
+        <v>0.4972477064220183</v>
       </c>
       <c r="E10">
-        <v>0.1732417452830189</v>
+        <v>0.4025018348623853</v>
       </c>
       <c r="F10">
-        <v>0.2220911949685535</v>
+        <v>0.51651376146789</v>
       </c>
       <c r="G10">
         <v>-11.18505115780067</v>
       </c>
       <c r="H10">
-        <v>1.906644798107401E-27</v>
+        <v>1.906644798107347E-27</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -883,25 +883,25 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.1283411949685535</v>
+        <v>0.2977064220183486</v>
       </c>
       <c r="C11">
-        <v>0.1429507337526205</v>
+        <v>0.3318042813455657</v>
       </c>
       <c r="D11">
-        <v>0.2678197064989518</v>
+        <v>0.6232415902140673</v>
       </c>
       <c r="E11">
-        <v>0.1712966457023061</v>
+        <v>0.3979620795107033</v>
       </c>
       <c r="F11">
-        <v>0.1383647798742138</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="G11">
-        <v>9.485432080063346</v>
+        <v>9.48543208006334</v>
       </c>
       <c r="H11">
-        <v>1.704666090731926E-20</v>
+        <v>1.704666090731987E-20</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -918,25 +918,25 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>0.1039701257861635</v>
+        <v>0.2408256880733946</v>
       </c>
       <c r="C12">
-        <v>0.1893671383647799</v>
+        <v>0.4401376146788991</v>
       </c>
       <c r="D12">
-        <v>0.2146717767295598</v>
+        <v>0.4991972477064221</v>
       </c>
       <c r="E12">
-        <v>0.1721409198113208</v>
+        <v>0.3999325688073395</v>
       </c>
       <c r="F12">
-        <v>0.1061320754716981</v>
+        <v>0.2458715596330275</v>
       </c>
       <c r="G12">
         <v>21.22919762542544</v>
       </c>
       <c r="H12">
-        <v>7.62944696984367E-83</v>
+        <v>7.629446969843019E-83</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -953,25 +953,25 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>0.1039701257861635</v>
+        <v>0.2408256880733946</v>
       </c>
       <c r="C13">
-        <v>0.1893671383647799</v>
+        <v>0.4401376146788991</v>
       </c>
       <c r="D13">
-        <v>0.2146717767295598</v>
+        <v>0.4991972477064221</v>
       </c>
       <c r="E13">
-        <v>0.1721409198113208</v>
+        <v>0.3999325688073395</v>
       </c>
       <c r="F13">
-        <v>0.1118317610062893</v>
+        <v>0.2591743119266055</v>
       </c>
       <c r="G13">
-        <v>19.39611371330514</v>
+        <v>19.39611371330515</v>
       </c>
       <c r="H13">
-        <v>2.239394812106148E-71</v>
+        <v>2.239394812105893E-71</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -988,19 +988,19 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>0.1039701257861635</v>
+        <v>0.2408256880733946</v>
       </c>
       <c r="C14">
-        <v>0.1893671383647799</v>
+        <v>0.4401376146788991</v>
       </c>
       <c r="D14">
-        <v>0.2146717767295598</v>
+        <v>0.4991972477064221</v>
       </c>
       <c r="E14">
-        <v>0.1721409198113208</v>
+        <v>0.3999325688073395</v>
       </c>
       <c r="F14">
-        <v>0.1041666666666667</v>
+        <v>0.2412844036697248</v>
       </c>
       <c r="G14">
         <v>21.86129552615657</v>
@@ -1023,25 +1023,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.1039701257861635</v>
+        <v>0.2408256880733946</v>
       </c>
       <c r="C15">
-        <v>0.1893671383647799</v>
+        <v>0.4401376146788991</v>
       </c>
       <c r="D15">
-        <v>0.2146717767295598</v>
+        <v>0.4991972477064221</v>
       </c>
       <c r="E15">
-        <v>0.1721409198113208</v>
+        <v>0.3999325688073395</v>
       </c>
       <c r="F15">
-        <v>0.1118317610062893</v>
+        <v>0.2591743119266055</v>
       </c>
       <c r="G15">
-        <v>19.39611371330514</v>
+        <v>19.39611371330515</v>
       </c>
       <c r="H15">
-        <v>2.239394812106148E-71</v>
+        <v>2.239394812105893E-71</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1058,25 +1058,25 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>0.1283411949685535</v>
+        <v>0.2977064220183486</v>
       </c>
       <c r="C16">
-        <v>0.1429507337526205</v>
+        <v>0.3318042813455657</v>
       </c>
       <c r="D16">
-        <v>0.2678197064989518</v>
+        <v>0.6232415902140673</v>
       </c>
       <c r="E16">
-        <v>0.1712966457023061</v>
+        <v>0.3979620795107033</v>
       </c>
       <c r="F16">
-        <v>0.2767295597484277</v>
+        <v>0.6440366972477064</v>
       </c>
       <c r="G16">
-        <v>-30.36805598589973</v>
+        <v>-30.36805598589972</v>
       </c>
       <c r="H16">
-        <v>4.980632441292438E-144</v>
+        <v>4.980632441292721E-144</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -1093,19 +1093,19 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.1039701257861635</v>
+        <v>0.2408256880733946</v>
       </c>
       <c r="C17">
-        <v>0.1893671383647799</v>
+        <v>0.4401376146788991</v>
       </c>
       <c r="D17">
-        <v>0.2146717767295598</v>
+        <v>0.4991972477064221</v>
       </c>
       <c r="E17">
-        <v>0.1721409198113208</v>
+        <v>0.3999325688073395</v>
       </c>
       <c r="F17">
-        <v>0.1200864779874214</v>
+        <v>0.2784403669724771</v>
       </c>
       <c r="G17">
         <v>16.74130253023436</v>
@@ -1128,25 +1128,25 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>0.1283411949685535</v>
+        <v>0.2977064220183486</v>
       </c>
       <c r="C18">
-        <v>0.1429507337526205</v>
+        <v>0.3318042813455657</v>
       </c>
       <c r="D18">
-        <v>0.2678197064989518</v>
+        <v>0.6232415902140673</v>
       </c>
       <c r="E18">
-        <v>0.1712966457023061</v>
+        <v>0.3979620795107033</v>
       </c>
       <c r="F18">
-        <v>0.1391509433962264</v>
+        <v>0.3229357798165138</v>
       </c>
       <c r="G18">
-        <v>9.258991806961275</v>
+        <v>9.258991806961271</v>
       </c>
       <c r="H18">
-        <v>1.225291398341199E-19</v>
+        <v>1.225291398341244E-19</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1163,25 +1163,25 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>0.01179245283018868</v>
+        <v>0.02568807339449542</v>
       </c>
       <c r="C19">
-        <v>0.2012578616352201</v>
+        <v>0.4678899082568807</v>
       </c>
       <c r="D19">
-        <v>0.2138364779874214</v>
+        <v>0.4972477064220183</v>
       </c>
       <c r="E19">
-        <v>0.1732417452830189</v>
+        <v>0.4025018348623853</v>
       </c>
       <c r="F19">
-        <v>0.2220911949685535</v>
+        <v>0.51651376146789</v>
       </c>
       <c r="G19">
         <v>-11.18505115780067</v>
       </c>
       <c r="H19">
-        <v>1.906644798107401E-27</v>
+        <v>1.906644798107347E-27</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1198,25 +1198,25 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>0.1140919811320755</v>
+        <v>0.2644495412844037</v>
       </c>
       <c r="C20">
-        <v>0.1539570230607967</v>
+        <v>0.3574923547400612</v>
       </c>
       <c r="D20">
-        <v>0.2100366876310272</v>
+        <v>0.4883792048929663</v>
       </c>
       <c r="E20">
-        <v>0.166043107966457</v>
+        <v>0.3857006116207951</v>
       </c>
       <c r="F20">
-        <v>0.142688679245283</v>
+        <v>0.3311926605504588</v>
       </c>
       <c r="G20">
-        <v>9.357940003667393</v>
+        <v>9.357940003667379</v>
       </c>
       <c r="H20">
-        <v>5.200064459314388E-20</v>
+        <v>5.2000644593151E-20</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -1233,25 +1233,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.1140919811320755</v>
+        <v>0.2644495412844037</v>
       </c>
       <c r="C21">
-        <v>0.1539570230607967</v>
+        <v>0.3574923547400612</v>
       </c>
       <c r="D21">
-        <v>0.2100366876310272</v>
+        <v>0.4883792048929663</v>
       </c>
       <c r="E21">
-        <v>0.166043107966457</v>
+        <v>0.3857006116207951</v>
       </c>
       <c r="F21">
-        <v>0.2085953878406709</v>
+        <v>0.4850152905198777</v>
       </c>
       <c r="G21">
-        <v>-17.05037133796946</v>
+        <v>-17.05037133796947</v>
       </c>
       <c r="H21">
-        <v>2.067229819727076E-57</v>
+        <v>2.067229819726722E-57</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -1268,25 +1268,25 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>0.1039701257861635</v>
+        <v>0.2408256880733946</v>
       </c>
       <c r="C22">
-        <v>0.1893671383647799</v>
+        <v>0.4401376146788991</v>
       </c>
       <c r="D22">
-        <v>0.2146717767295598</v>
+        <v>0.4991972477064221</v>
       </c>
       <c r="E22">
-        <v>0.1721409198113208</v>
+        <v>0.3999325688073395</v>
       </c>
       <c r="F22">
-        <v>0.1137971698113208</v>
+        <v>0.2637614678899083</v>
       </c>
       <c r="G22">
-        <v>18.764015812574</v>
+        <v>18.76401581257401</v>
       </c>
       <c r="H22">
-        <v>1.582270163964535E-67</v>
+        <v>1.58227016396449E-67</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1303,25 +1303,25 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.1039701257861635</v>
+        <v>0.2408256880733946</v>
       </c>
       <c r="C23">
-        <v>0.1893671383647799</v>
+        <v>0.4401376146788991</v>
       </c>
       <c r="D23">
-        <v>0.2146717767295598</v>
+        <v>0.4991972477064221</v>
       </c>
       <c r="E23">
-        <v>0.1721409198113208</v>
+        <v>0.3999325688073395</v>
       </c>
       <c r="F23">
-        <v>0.1061320754716981</v>
+        <v>0.2458715596330275</v>
       </c>
       <c r="G23">
         <v>21.22919762542544</v>
       </c>
       <c r="H23">
-        <v>7.62944696984367E-83</v>
+        <v>7.629446969843019E-83</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1338,25 +1338,25 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>0.1283411949685535</v>
+        <v>0.2977064220183486</v>
       </c>
       <c r="C24">
-        <v>0.1429507337526205</v>
+        <v>0.3318042813455657</v>
       </c>
       <c r="D24">
-        <v>0.2678197064989518</v>
+        <v>0.6232415902140673</v>
       </c>
       <c r="E24">
-        <v>0.1712966457023061</v>
+        <v>0.3979620795107033</v>
       </c>
       <c r="F24">
-        <v>0.2712264150943396</v>
+        <v>0.6311926605504588</v>
       </c>
       <c r="G24">
-        <v>-28.78297407418528</v>
+        <v>-28.78297407418529</v>
       </c>
       <c r="H24">
-        <v>3.65854641436617E-133</v>
+        <v>3.658546414365544E-133</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1373,25 +1373,25 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>0.01179245283018868</v>
+        <v>0.02568807339449542</v>
       </c>
       <c r="C25">
-        <v>0.2012578616352201</v>
+        <v>0.4678899082568807</v>
       </c>
       <c r="D25">
-        <v>0.2138364779874214</v>
+        <v>0.4972477064220183</v>
       </c>
       <c r="E25">
-        <v>0.1732417452830189</v>
+        <v>0.4025018348623853</v>
       </c>
       <c r="F25">
-        <v>0.2220911949685535</v>
+        <v>0.51651376146789</v>
       </c>
       <c r="G25">
         <v>-11.18505115780067</v>
       </c>
       <c r="H25">
-        <v>1.906644798107401E-27</v>
+        <v>1.906644798107347E-27</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -1408,25 +1408,25 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>0.01179245283018868</v>
+        <v>0.02568807339449542</v>
       </c>
       <c r="C26">
-        <v>0.2012578616352201</v>
+        <v>0.4678899082568807</v>
       </c>
       <c r="D26">
-        <v>0.2138364779874214</v>
+        <v>0.4972477064220183</v>
       </c>
       <c r="E26">
-        <v>0.1732417452830189</v>
+        <v>0.4025018348623853</v>
       </c>
       <c r="F26">
-        <v>0.2067610062893082</v>
+        <v>0.4807339449541285</v>
       </c>
       <c r="G26">
-        <v>-7.674900158354075</v>
+        <v>-7.674900158354078</v>
       </c>
       <c r="H26">
-        <v>3.927937411315241E-14</v>
+        <v>3.927937411315128E-14</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1443,25 +1443,25 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>0.01179245283018868</v>
+        <v>0.02568807339449542</v>
       </c>
       <c r="C27">
-        <v>0.2012578616352201</v>
+        <v>0.4678899082568807</v>
       </c>
       <c r="D27">
-        <v>0.2138364779874214</v>
+        <v>0.4972477064220183</v>
       </c>
       <c r="E27">
-        <v>0.1732417452830189</v>
+        <v>0.4025018348623853</v>
       </c>
       <c r="F27">
-        <v>0.2067610062893082</v>
+        <v>0.4807339449541285</v>
       </c>
       <c r="G27">
-        <v>-7.674900158354075</v>
+        <v>-7.674900158354078</v>
       </c>
       <c r="H27">
-        <v>3.927937411315241E-14</v>
+        <v>3.927937411315128E-14</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1478,25 +1478,25 @@
         <v>16</v>
       </c>
       <c r="B28">
-        <v>0.1039701257861635</v>
+        <v>0.2408256880733946</v>
       </c>
       <c r="C28">
-        <v>0.1893671383647799</v>
+        <v>0.4401376146788991</v>
       </c>
       <c r="D28">
-        <v>0.2146717767295598</v>
+        <v>0.4991972477064221</v>
       </c>
       <c r="E28">
-        <v>0.1721409198113208</v>
+        <v>0.3999325688073395</v>
       </c>
       <c r="F28">
-        <v>0.2036163522012579</v>
+        <v>0.4733944954128441</v>
       </c>
       <c r="G28">
-        <v>-10.12285825083893</v>
+        <v>-10.12285825083892</v>
       </c>
       <c r="H28">
-        <v>5.379810050339652E-23</v>
+        <v>5.379810050339999E-23</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1513,25 +1513,25 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>0.1283411949685535</v>
+        <v>0.2977064220183486</v>
       </c>
       <c r="C29">
-        <v>0.1429507337526205</v>
+        <v>0.3318042813455657</v>
       </c>
       <c r="D29">
-        <v>0.2678197064989518</v>
+        <v>0.6232415902140673</v>
       </c>
       <c r="E29">
-        <v>0.1712966457023061</v>
+        <v>0.3979620795107033</v>
       </c>
       <c r="F29">
-        <v>0.1383647798742138</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="G29">
-        <v>9.485432080063346</v>
+        <v>9.48543208006334</v>
       </c>
       <c r="H29">
-        <v>1.704666090731926E-20</v>
+        <v>1.704666090731987E-20</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1548,25 +1548,25 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>0.1283411949685535</v>
+        <v>0.2977064220183486</v>
       </c>
       <c r="C30">
-        <v>0.1429507337526205</v>
+        <v>0.3318042813455657</v>
       </c>
       <c r="D30">
-        <v>0.2678197064989518</v>
+        <v>0.6232415902140673</v>
       </c>
       <c r="E30">
-        <v>0.1712966457023061</v>
+        <v>0.3979620795107033</v>
       </c>
       <c r="F30">
-        <v>0.1485849056603774</v>
+        <v>0.344954128440367</v>
       </c>
       <c r="G30">
-        <v>6.54170852973652</v>
+        <v>6.541708529736523</v>
       </c>
       <c r="H30">
-        <v>9.695890289470491E-11</v>
+        <v>9.695890289470423E-11</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -1583,25 +1583,25 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0.09261006289308177</v>
+        <v>0.2143119266055046</v>
       </c>
       <c r="C31">
-        <v>0.1661949685534592</v>
+        <v>0.3860550458715596</v>
       </c>
       <c r="D31">
-        <v>0.2437106918238994</v>
+        <v>0.5669724770642202</v>
       </c>
       <c r="E31">
-        <v>0.1754350628930818</v>
+        <v>0.4076209174311928</v>
       </c>
       <c r="F31">
-        <v>0.165251572327044</v>
+        <v>0.3838532110091743</v>
       </c>
       <c r="G31">
-        <v>3.675167698924454</v>
+        <v>3.675167698924474</v>
       </c>
       <c r="H31">
-        <v>0.0002503320821879386</v>
+        <v>0.000250332082187919</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -1618,25 +1618,25 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>0.1283411949685535</v>
+        <v>0.2977064220183486</v>
       </c>
       <c r="C32">
-        <v>0.1429507337526205</v>
+        <v>0.3318042813455657</v>
       </c>
       <c r="D32">
-        <v>0.2678197064989518</v>
+        <v>0.6232415902140673</v>
       </c>
       <c r="E32">
-        <v>0.1712966457023061</v>
+        <v>0.3979620795107033</v>
       </c>
       <c r="F32">
-        <v>0.1485849056603774</v>
+        <v>0.344954128440367</v>
       </c>
       <c r="G32">
-        <v>6.54170852973652</v>
+        <v>6.541708529736523</v>
       </c>
       <c r="H32">
-        <v>9.695890289470491E-11</v>
+        <v>9.695890289470423E-11</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -1653,25 +1653,25 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>0.1140919811320755</v>
+        <v>0.2644495412844037</v>
       </c>
       <c r="C33">
-        <v>0.1539570230607967</v>
+        <v>0.3574923547400612</v>
       </c>
       <c r="D33">
-        <v>0.2100366876310272</v>
+        <v>0.4883792048929663</v>
       </c>
       <c r="E33">
-        <v>0.166043107966457</v>
+        <v>0.3857006116207951</v>
       </c>
       <c r="F33">
-        <v>0.1559224318658281</v>
+        <v>0.3620795107033639</v>
       </c>
       <c r="G33">
-        <v>4.055277090137924</v>
+        <v>4.055277090137918</v>
       </c>
       <c r="H33">
-        <v>5.397187208053223E-05</v>
+        <v>5.397187208053355E-05</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -1688,25 +1688,25 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>0.1283411949685535</v>
+        <v>0.2977064220183486</v>
       </c>
       <c r="C34">
-        <v>0.1429507337526205</v>
+        <v>0.3318042813455657</v>
       </c>
       <c r="D34">
-        <v>0.2678197064989518</v>
+        <v>0.6232415902140673</v>
       </c>
       <c r="E34">
-        <v>0.1712966457023061</v>
+        <v>0.3979620795107033</v>
       </c>
       <c r="F34">
-        <v>0.1383647798742138</v>
+        <v>0.3211009174311927</v>
       </c>
       <c r="G34">
-        <v>9.485432080063346</v>
+        <v>9.48543208006334</v>
       </c>
       <c r="H34">
-        <v>1.704666090731926E-20</v>
+        <v>1.704666090731987E-20</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
@@ -1723,25 +1723,25 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>0.1140919811320755</v>
+        <v>0.2644495412844037</v>
       </c>
       <c r="C35">
-        <v>0.1539570230607967</v>
+        <v>0.3574923547400612</v>
       </c>
       <c r="D35">
-        <v>0.2100366876310272</v>
+        <v>0.4883792048929663</v>
       </c>
       <c r="E35">
-        <v>0.166043107966457</v>
+        <v>0.3857006116207951</v>
       </c>
       <c r="F35">
-        <v>0.1387578616352202</v>
+        <v>0.3220183486238533</v>
       </c>
       <c r="G35">
         <v>10.93298839382465</v>
       </c>
       <c r="H35">
-        <v>2.33078006652418E-26</v>
+        <v>2.33078006652428E-26</v>
       </c>
       <c r="I35" t="s">
         <v>10</v>
@@ -1758,25 +1758,25 @@
         <v>27</v>
       </c>
       <c r="B36">
-        <v>0.09261006289308177</v>
+        <v>0.2143119266055046</v>
       </c>
       <c r="C36">
-        <v>0.1661949685534592</v>
+        <v>0.3860550458715596</v>
       </c>
       <c r="D36">
-        <v>0.2437106918238994</v>
+        <v>0.5669724770642202</v>
       </c>
       <c r="E36">
-        <v>0.1754350628930818</v>
+        <v>0.4076209174311928</v>
       </c>
       <c r="F36">
-        <v>0.165566037735849</v>
+        <v>0.3845871559633028</v>
       </c>
       <c r="G36">
-        <v>3.561678801834142</v>
+        <v>3.561678801834145</v>
       </c>
       <c r="H36">
-        <v>0.0003858730520797223</v>
+        <v>0.000385873052079718</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
@@ -1793,25 +1793,25 @@
         <v>26</v>
       </c>
       <c r="B37">
-        <v>0.09261006289308177</v>
+        <v>0.2143119266055046</v>
       </c>
       <c r="C37">
-        <v>0.1661949685534592</v>
+        <v>0.3860550458715596</v>
       </c>
       <c r="D37">
-        <v>0.2437106918238994</v>
+        <v>0.5669724770642202</v>
       </c>
       <c r="E37">
-        <v>0.1754350628930818</v>
+        <v>0.4076209174311928</v>
       </c>
       <c r="F37">
-        <v>0.1668238993710692</v>
+        <v>0.3875229357798166</v>
       </c>
       <c r="G37">
-        <v>3.107723213472843</v>
+        <v>3.107723213472846</v>
       </c>
       <c r="H37">
-        <v>0.001938632129323187</v>
+        <v>0.001938632129323167</v>
       </c>
       <c r="I37" t="s">
         <v>10</v>
@@ -1873,25 +1873,25 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0.0008879905635635784</v>
+        <v>0.03321514506501318</v>
       </c>
       <c r="C2">
-        <v>0.001575419740807268</v>
+        <v>0.05892832353893851</v>
       </c>
       <c r="D2">
-        <v>0.002501991696727679</v>
+        <v>0.09358659941696358</v>
       </c>
       <c r="E2">
-        <v>0.001893919289067358</v>
+        <v>0.07084174822235591</v>
       </c>
       <c r="F2">
-        <v>0.001253470005789528</v>
+        <v>0.04688584517144047</v>
       </c>
       <c r="G2">
-        <v>14.14439512586685</v>
+        <v>14.14439512586686</v>
       </c>
       <c r="H2">
-        <v>1.548679017809771E-41</v>
+        <v>1.548679017809594E-41</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -1908,25 +1908,25 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>0.001385749801655047</v>
+        <v>0.05183374978791665</v>
       </c>
       <c r="C3">
-        <v>0.001676499380635925</v>
+        <v>0.06270919130689619</v>
       </c>
       <c r="D3">
-        <v>0.00199562359351023</v>
+        <v>0.07464598147034175</v>
       </c>
       <c r="E3">
-        <v>0.00172831640528568</v>
+        <v>0.06464739882981402</v>
       </c>
       <c r="F3">
-        <v>0.002177516259337883</v>
+        <v>0.08144964755602858</v>
       </c>
       <c r="G3">
-        <v>-30.10407636403519</v>
+        <v>-30.10407636403523</v>
       </c>
       <c r="H3">
-        <v>3.230418423467646E-142</v>
+        <v>3.230418423465808E-142</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -1943,22 +1943,22 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>0.00140344002724872</v>
+        <v>0.0524954498480712</v>
       </c>
       <c r="C4">
-        <v>0.001709115877254668</v>
+        <v>0.06392920614844634</v>
       </c>
       <c r="D4">
-        <v>0.00205780598500514</v>
+        <v>0.07697190388296771</v>
       </c>
       <c r="E4">
-        <v>0.001756380794728689</v>
+        <v>0.06569714283021165</v>
       </c>
       <c r="F4">
-        <v>0.003123589386634381</v>
+        <v>0.1168373616316793</v>
       </c>
       <c r="G4">
-        <v>-87.62177214734682</v>
+        <v>-87.62177214734683</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1978,25 +1978,25 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.0004937490412639976</v>
+        <v>0.01846860395169127</v>
       </c>
       <c r="C5">
-        <v>0.001259964669031961</v>
+        <v>0.047128777011707</v>
       </c>
       <c r="D5">
-        <v>0.002410293237138093</v>
+        <v>0.09015663319605757</v>
       </c>
       <c r="E5">
-        <v>0.001767059160815284</v>
+        <v>0.06609656540650595</v>
       </c>
       <c r="F5">
-        <v>0.004277818189015731</v>
+        <v>0.1600111054555551</v>
       </c>
       <c r="G5">
-        <v>-44.53717756719271</v>
+        <v>-44.53717756719269</v>
       </c>
       <c r="H5">
-        <v>1.644561889407235E-239</v>
+        <v>1.644561889407609E-239</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -2013,25 +2013,25 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.0004937490412639976</v>
+        <v>0.01846860395169127</v>
       </c>
       <c r="C6">
-        <v>0.001259964669031961</v>
+        <v>0.047128777011707</v>
       </c>
       <c r="D6">
-        <v>0.002410293237138093</v>
+        <v>0.09015663319605757</v>
       </c>
       <c r="E6">
-        <v>0.001767059160815284</v>
+        <v>0.06609656540650595</v>
       </c>
       <c r="F6">
-        <v>0.004277818189015731</v>
+        <v>0.1600111054555551</v>
       </c>
       <c r="G6">
-        <v>-44.53717756719271</v>
+        <v>-44.53717756719269</v>
       </c>
       <c r="H6">
-        <v>1.644561889407235E-239</v>
+        <v>1.644561889407609E-239</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -2048,22 +2048,22 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>0.00140344002724872</v>
+        <v>0.0524954498480712</v>
       </c>
       <c r="C7">
-        <v>0.001709115877254668</v>
+        <v>0.06392920614844634</v>
       </c>
       <c r="D7">
-        <v>0.00205780598500514</v>
+        <v>0.07697190388296771</v>
       </c>
       <c r="E7">
-        <v>0.001756380794728689</v>
+        <v>0.06569714283021165</v>
       </c>
       <c r="F7">
-        <v>0.003045477929455409</v>
+        <v>0.1139156150637572</v>
       </c>
       <c r="G7">
-        <v>-82.61575891457947</v>
+        <v>-82.61575891457949</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.000652765200810864</v>
+        <v>0.02441657797726467</v>
       </c>
       <c r="C8">
-        <v>0.001421403441058148</v>
+        <v>0.05316736846976077</v>
       </c>
       <c r="D8">
-        <v>0.00253147540605047</v>
+        <v>0.09468943285055451</v>
       </c>
       <c r="E8">
-        <v>0.001805548133083278</v>
+        <v>0.06753623926087024</v>
       </c>
       <c r="F8">
-        <v>0.0002742191146804955</v>
+        <v>0.01025712214458686</v>
       </c>
       <c r="G8">
-        <v>30.3605976732418</v>
+        <v>30.36059767324181</v>
       </c>
       <c r="H8">
         <v>5.603865581648518E-144</v>
@@ -2118,25 +2118,25 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.0008879905635635784</v>
+        <v>0.03321514506501318</v>
       </c>
       <c r="C9">
-        <v>0.001575419740807268</v>
+        <v>0.05892832353893851</v>
       </c>
       <c r="D9">
-        <v>0.002501991696727679</v>
+        <v>0.09358659941696358</v>
       </c>
       <c r="E9">
-        <v>0.001893919289067358</v>
+        <v>0.07084174822235591</v>
       </c>
       <c r="F9">
-        <v>0.001332333773733355</v>
+        <v>0.04983573180324835</v>
       </c>
       <c r="G9">
-        <v>12.40267985810495</v>
+        <v>12.40267985810496</v>
       </c>
       <c r="H9">
-        <v>5.868343783773201E-33</v>
+        <v>5.868343783772865E-33</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -2153,19 +2153,19 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0.0004937490412639976</v>
+        <v>0.01846860395169127</v>
       </c>
       <c r="C10">
-        <v>0.001259964669031961</v>
+        <v>0.047128777011707</v>
       </c>
       <c r="D10">
-        <v>0.002410293237138093</v>
+        <v>0.09015663319605757</v>
       </c>
       <c r="E10">
-        <v>0.001767059160815284</v>
+        <v>0.06609656540650595</v>
       </c>
       <c r="F10">
-        <v>0.0006754449772130101</v>
+        <v>0.02526491138771922</v>
       </c>
       <c r="G10">
         <v>19.36363234539735</v>
@@ -2188,22 +2188,22 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.000652765200810864</v>
+        <v>0.02441657797726467</v>
       </c>
       <c r="C11">
-        <v>0.001421403441058148</v>
+        <v>0.05316736846976077</v>
       </c>
       <c r="D11">
-        <v>0.00253147540605047</v>
+        <v>0.09468943285055451</v>
       </c>
       <c r="E11">
-        <v>0.001805548133083278</v>
+        <v>0.06753623926087024</v>
       </c>
       <c r="F11">
-        <v>0.00309970689481697</v>
+        <v>0.1159440408433977</v>
       </c>
       <c r="G11">
-        <v>-25.65838759542311</v>
+        <v>-25.65838759542312</v>
       </c>
       <c r="H11">
         <v>6.124201844833276E-112</v>
@@ -2223,25 +2223,25 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>0.0008879905635635784</v>
+        <v>0.03321514506501318</v>
       </c>
       <c r="C12">
-        <v>0.001575419740807268</v>
+        <v>0.05892832353893851</v>
       </c>
       <c r="D12">
-        <v>0.002501991696727679</v>
+        <v>0.09358659941696358</v>
       </c>
       <c r="E12">
-        <v>0.001893919289067358</v>
+        <v>0.07084174822235591</v>
       </c>
       <c r="F12">
-        <v>0.001332333773733355</v>
+        <v>0.04983573180324835</v>
       </c>
       <c r="G12">
-        <v>12.40267985810495</v>
+        <v>12.40267985810496</v>
       </c>
       <c r="H12">
-        <v>5.868343783773201E-33</v>
+        <v>5.868343783772865E-33</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -2258,25 +2258,25 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0008879905635635784</v>
+        <v>0.03321514506501318</v>
       </c>
       <c r="C13">
-        <v>0.001575419740807268</v>
+        <v>0.05892832353893851</v>
       </c>
       <c r="D13">
-        <v>0.002501991696727679</v>
+        <v>0.09358659941696358</v>
       </c>
       <c r="E13">
-        <v>0.001893919289067358</v>
+        <v>0.07084174822235591</v>
       </c>
       <c r="F13">
-        <v>0.001548513278802904</v>
+        <v>0.05792189162926288</v>
       </c>
       <c r="G13">
-        <v>7.628330947651769</v>
+        <v>7.628330947651773</v>
       </c>
       <c r="H13">
-        <v>5.5304800080683E-14</v>
+        <v>5.53048000806808E-14</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -2293,25 +2293,25 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.0008879905635635784</v>
+        <v>0.03321514506501318</v>
       </c>
       <c r="C14">
-        <v>0.001575419740807268</v>
+        <v>0.05892832353893851</v>
       </c>
       <c r="D14">
-        <v>0.002501991696727679</v>
+        <v>0.09358659941696358</v>
       </c>
       <c r="E14">
-        <v>0.001893919289067358</v>
+        <v>0.07084174822235591</v>
       </c>
       <c r="F14">
-        <v>0.002535083552296266</v>
+        <v>0.09482439498403593</v>
       </c>
       <c r="G14">
-        <v>-14.1601855392519</v>
+        <v>-14.16018553925191</v>
       </c>
       <c r="H14">
-        <v>1.284454365388741E-41</v>
+        <v>1.284454365388649E-41</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -2328,25 +2328,25 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0008879905635635784</v>
+        <v>0.03321514506501318</v>
       </c>
       <c r="C15">
-        <v>0.001575419740807268</v>
+        <v>0.05892832353893851</v>
       </c>
       <c r="D15">
-        <v>0.002501991696727679</v>
+        <v>0.09358659941696358</v>
       </c>
       <c r="E15">
-        <v>0.001893919289067358</v>
+        <v>0.07084174822235591</v>
       </c>
       <c r="F15">
-        <v>0.001548513278802904</v>
+        <v>0.05792189162926288</v>
       </c>
       <c r="G15">
-        <v>7.628330947651769</v>
+        <v>7.628330947651773</v>
       </c>
       <c r="H15">
-        <v>5.5304800080683E-14</v>
+        <v>5.53048000806808E-14</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -2363,25 +2363,25 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>0.000652765200810864</v>
+        <v>0.02441657797726467</v>
       </c>
       <c r="C16">
-        <v>0.001421403441058148</v>
+        <v>0.05316736846976077</v>
       </c>
       <c r="D16">
-        <v>0.00253147540605047</v>
+        <v>0.09468943285055451</v>
       </c>
       <c r="E16">
-        <v>0.001805548133083278</v>
+        <v>0.06753623926087024</v>
       </c>
       <c r="F16">
-        <v>0.003249805778642084</v>
+        <v>0.1215584655962242</v>
       </c>
       <c r="G16">
-        <v>-28.63429399323312</v>
+        <v>-28.63429399323311</v>
       </c>
       <c r="H16">
-        <v>3.804330600412729E-132</v>
+        <v>3.804330600413378E-132</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -2398,22 +2398,22 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.0008879905635635784</v>
+        <v>0.03321514506501318</v>
       </c>
       <c r="C17">
-        <v>0.001575419740807268</v>
+        <v>0.05892832353893851</v>
       </c>
       <c r="D17">
-        <v>0.002501991696727679</v>
+        <v>0.09358659941696358</v>
       </c>
       <c r="E17">
-        <v>0.001893919289067358</v>
+        <v>0.07084174822235591</v>
       </c>
       <c r="F17">
-        <v>0.0005192637897164121</v>
+        <v>0.01942297903845264</v>
       </c>
       <c r="G17">
-        <v>30.35942275593246</v>
+        <v>30.35942275593247</v>
       </c>
       <c r="H17">
         <v>5.708917572137755E-144</v>
@@ -2433,25 +2433,25 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>0.000652765200810864</v>
+        <v>0.02441657797726467</v>
       </c>
       <c r="C18">
-        <v>0.001421403441058148</v>
+        <v>0.05316736846976077</v>
       </c>
       <c r="D18">
-        <v>0.00253147540605047</v>
+        <v>0.09468943285055451</v>
       </c>
       <c r="E18">
-        <v>0.001805548133083278</v>
+        <v>0.06753623926087024</v>
       </c>
       <c r="F18">
-        <v>0.001803660763327049</v>
+        <v>0.0674656424968766</v>
       </c>
       <c r="G18">
-        <v>0.03741957028234233</v>
+        <v>0.03741957028234886</v>
       </c>
       <c r="H18">
-        <v>0.9701579446523717</v>
+        <v>0.9701579446523665</v>
       </c>
       <c r="I18" t="s">
         <v>48</v>
@@ -2468,19 +2468,19 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>0.0004937490412639976</v>
+        <v>0.01846860395169127</v>
       </c>
       <c r="C19">
-        <v>0.001259964669031961</v>
+        <v>0.047128777011707</v>
       </c>
       <c r="D19">
-        <v>0.002410293237138093</v>
+        <v>0.09015663319605757</v>
       </c>
       <c r="E19">
-        <v>0.001767059160815284</v>
+        <v>0.06609656540650595</v>
       </c>
       <c r="F19">
-        <v>0.0006754449772130101</v>
+        <v>0.02526491138771922</v>
       </c>
       <c r="G19">
         <v>19.36363234539735</v>
@@ -2503,25 +2503,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.001011827297213934</v>
+        <v>0.03784723828914287</v>
       </c>
       <c r="C20">
-        <v>0.001598460331833994</v>
+        <v>0.0597901531627412</v>
       </c>
       <c r="D20">
-        <v>0.002359444147545554</v>
+        <v>0.08825463112920889</v>
       </c>
       <c r="E20">
-        <v>0.001800439324450558</v>
+        <v>0.06734514509072026</v>
       </c>
       <c r="F20">
-        <v>0.000982446677783881</v>
+        <v>0.03674826091650858</v>
       </c>
       <c r="G20">
-        <v>24.11131735914581</v>
+        <v>24.1113173591458</v>
       </c>
       <c r="H20">
-        <v>1.328581661990146E-101</v>
+        <v>1.32858166199026E-101</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -2538,25 +2538,25 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>0.001011827297213934</v>
+        <v>0.03784723828914287</v>
       </c>
       <c r="C21">
-        <v>0.001598460331833994</v>
+        <v>0.0597901531627412</v>
       </c>
       <c r="D21">
-        <v>0.002359444147545554</v>
+        <v>0.08825463112920889</v>
       </c>
       <c r="E21">
-        <v>0.001800439324450558</v>
+        <v>0.06734514509072026</v>
       </c>
       <c r="F21">
-        <v>0.001008012971182664</v>
+        <v>0.03770456403374825</v>
       </c>
       <c r="G21">
-        <v>23.35772010329385</v>
+        <v>23.35772010329384</v>
       </c>
       <c r="H21">
-        <v>1.255920834598538E-96</v>
+        <v>1.255920834598681E-96</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -2573,25 +2573,25 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.0008879905635635784</v>
+        <v>0.03321514506501318</v>
       </c>
       <c r="C22">
-        <v>0.001575419740807268</v>
+        <v>0.05892832353893851</v>
       </c>
       <c r="D22">
-        <v>0.002501991696727679</v>
+        <v>0.09358659941696358</v>
       </c>
       <c r="E22">
-        <v>0.001893919289067358</v>
+        <v>0.07084174822235591</v>
       </c>
       <c r="F22">
-        <v>0.0004397814824161632</v>
+        <v>0.0164499560409051</v>
       </c>
       <c r="G22">
         <v>32.11479853559837</v>
       </c>
       <c r="H22">
-        <v>4.999237644894489E-156</v>
+        <v>4.99923764489392E-156</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -2608,25 +2608,25 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.0008879905635635784</v>
+        <v>0.03321514506501318</v>
       </c>
       <c r="C23">
-        <v>0.001575419740807268</v>
+        <v>0.05892832353893851</v>
       </c>
       <c r="D23">
-        <v>0.002501991696727679</v>
+        <v>0.09358659941696358</v>
       </c>
       <c r="E23">
-        <v>0.001893919289067358</v>
+        <v>0.07084174822235591</v>
       </c>
       <c r="F23">
-        <v>0.0004394722127379521</v>
+        <v>0.01643838785803526</v>
       </c>
       <c r="G23">
-        <v>32.12162879155038</v>
+        <v>32.12162879155039</v>
       </c>
       <c r="H23">
-        <v>4.487309458199859E-156</v>
+        <v>4.487309458199604E-156</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -2643,25 +2643,25 @@
         <v>13</v>
       </c>
       <c r="B24">
-        <v>0.000652765200810864</v>
+        <v>0.02441657797726467</v>
       </c>
       <c r="C24">
-        <v>0.001421403441058148</v>
+        <v>0.05316736846976077</v>
       </c>
       <c r="D24">
-        <v>0.00253147540605047</v>
+        <v>0.09468943285055451</v>
       </c>
       <c r="E24">
-        <v>0.001805548133083278</v>
+        <v>0.06753623926087024</v>
       </c>
       <c r="F24">
-        <v>0.001728611321414493</v>
+        <v>0.06465843012046335</v>
       </c>
       <c r="G24">
-        <v>1.525372769187336</v>
+        <v>1.525372769187345</v>
       </c>
       <c r="H24">
-        <v>0.1274826527941033</v>
+        <v>0.1274826527941011</v>
       </c>
       <c r="I24" t="s">
         <v>48</v>
@@ -2678,19 +2678,19 @@
         <v>6</v>
       </c>
       <c r="B25">
-        <v>0.0004937490412639976</v>
+        <v>0.01846860395169127</v>
       </c>
       <c r="C25">
-        <v>0.001259964669031961</v>
+        <v>0.047128777011707</v>
       </c>
       <c r="D25">
-        <v>0.002410293237138093</v>
+        <v>0.09015663319605757</v>
       </c>
       <c r="E25">
-        <v>0.001767059160815284</v>
+        <v>0.06609656540650595</v>
       </c>
       <c r="F25">
-        <v>0.0006754449772130101</v>
+        <v>0.02526491138771922</v>
       </c>
       <c r="G25">
         <v>19.36363234539735</v>
@@ -2713,25 +2713,25 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>0.0004937490412639976</v>
+        <v>0.01846860395169127</v>
       </c>
       <c r="C26">
-        <v>0.001259964669031961</v>
+        <v>0.047128777011707</v>
       </c>
       <c r="D26">
-        <v>0.002410293237138093</v>
+        <v>0.09015663319605757</v>
       </c>
       <c r="E26">
-        <v>0.001767059160815284</v>
+        <v>0.06609656540650595</v>
       </c>
       <c r="F26">
-        <v>0.002460549559847394</v>
+        <v>0.09203646291240573</v>
       </c>
       <c r="G26">
-        <v>-12.30150113807362</v>
+        <v>-12.30150113807361</v>
       </c>
       <c r="H26">
-        <v>1.747475428809368E-32</v>
+        <v>1.747475428809468E-32</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -2748,25 +2748,25 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>0.0004937490412639976</v>
+        <v>0.01846860395169127</v>
       </c>
       <c r="C27">
-        <v>0.001259964669031961</v>
+        <v>0.047128777011707</v>
       </c>
       <c r="D27">
-        <v>0.002410293237138093</v>
+        <v>0.09015663319605757</v>
       </c>
       <c r="E27">
-        <v>0.001767059160815284</v>
+        <v>0.06609656540650595</v>
       </c>
       <c r="F27">
-        <v>0.001870463013820643</v>
+        <v>0.06996436999676091</v>
       </c>
       <c r="G27">
-        <v>-1.83423248137531</v>
+        <v>-1.834232481375308</v>
       </c>
       <c r="H27">
-        <v>0.06691678495953123</v>
+        <v>0.0669167849595315</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
@@ -2783,25 +2783,25 @@
         <v>19</v>
       </c>
       <c r="B28">
-        <v>0.0008879905635635784</v>
+        <v>0.03321514506501318</v>
       </c>
       <c r="C28">
-        <v>0.001575419740807268</v>
+        <v>0.05892832353893851</v>
       </c>
       <c r="D28">
-        <v>0.002501991696727679</v>
+        <v>0.09358659941696358</v>
       </c>
       <c r="E28">
-        <v>0.001893919289067358</v>
+        <v>0.07084174822235591</v>
       </c>
       <c r="F28">
-        <v>0.001427279564944159</v>
+        <v>0.05338716394428764</v>
       </c>
       <c r="G28">
-        <v>10.30579128083867</v>
+        <v>10.30579128083868</v>
       </c>
       <c r="H28">
-        <v>9.752406686918199E-24</v>
+        <v>9.75240668691757E-24</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -2818,25 +2818,25 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>0.000652765200810864</v>
+        <v>0.02441657797726467</v>
       </c>
       <c r="C29">
-        <v>0.001421403441058148</v>
+        <v>0.05316736846976077</v>
       </c>
       <c r="D29">
-        <v>0.00253147540605047</v>
+        <v>0.09468943285055451</v>
       </c>
       <c r="E29">
-        <v>0.001805548133083278</v>
+        <v>0.06753623926087024</v>
       </c>
       <c r="F29">
-        <v>0.002060560776027724</v>
+        <v>0.07707494640075271</v>
       </c>
       <c r="G29">
-        <v>-5.055958687507831</v>
+        <v>-5.055958687507821</v>
       </c>
       <c r="H29">
-        <v>5.092314670651445E-07</v>
+        <v>5.09231467065171E-07</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -2853,25 +2853,25 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <v>0.000652765200810864</v>
+        <v>0.02441657797726467</v>
       </c>
       <c r="C30">
-        <v>0.001421403441058148</v>
+        <v>0.05316736846976077</v>
       </c>
       <c r="D30">
-        <v>0.00253147540605047</v>
+        <v>0.09468943285055451</v>
       </c>
       <c r="E30">
-        <v>0.001805548133083278</v>
+        <v>0.06753623926087024</v>
       </c>
       <c r="F30">
-        <v>0.001909637173060714</v>
+        <v>0.07142967316027332</v>
       </c>
       <c r="G30">
-        <v>-2.063701155643932</v>
+        <v>-2.063701155643929</v>
       </c>
       <c r="H30">
-        <v>0.03930388719255973</v>
+        <v>0.03930388719255995</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -2888,25 +2888,25 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0.0009220566186185296</v>
+        <v>0.03448938040812549</v>
       </c>
       <c r="C31">
-        <v>0.001547338054025702</v>
+        <v>0.05787793253435751</v>
       </c>
       <c r="D31">
-        <v>0.002339887994893339</v>
+        <v>0.08752313636573966</v>
       </c>
       <c r="E31">
-        <v>0.001748723149206538</v>
+        <v>0.0654107098237009</v>
       </c>
       <c r="F31">
-        <v>0.001532740525214139</v>
+        <v>0.05733191430290131</v>
       </c>
       <c r="G31">
         <v>6.047537453079014</v>
       </c>
       <c r="H31">
-        <v>2.075763581669139E-09</v>
+        <v>2.075763581669162E-09</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -2923,25 +2923,25 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>0.000652765200810864</v>
+        <v>0.02441657797726467</v>
       </c>
       <c r="C32">
-        <v>0.001421403441058148</v>
+        <v>0.05316736846976077</v>
       </c>
       <c r="D32">
-        <v>0.00253147540605047</v>
+        <v>0.09468943285055451</v>
       </c>
       <c r="E32">
-        <v>0.001805548133083278</v>
+        <v>0.06753623926087024</v>
       </c>
       <c r="F32">
-        <v>0.001709642781150879</v>
+        <v>0.0639489149044468</v>
       </c>
       <c r="G32">
-        <v>1.901448852427063</v>
+        <v>1.901448852427074</v>
       </c>
       <c r="H32">
-        <v>0.05753074417208704</v>
+        <v>0.05753074417208562</v>
       </c>
       <c r="I32" t="s">
         <v>48</v>
@@ -2958,25 +2958,25 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>0.001011827297213934</v>
+        <v>0.03784723828914287</v>
       </c>
       <c r="C33">
-        <v>0.001598460331833994</v>
+        <v>0.0597901531627412</v>
       </c>
       <c r="D33">
-        <v>0.002359444147545554</v>
+        <v>0.08825463112920889</v>
       </c>
       <c r="E33">
-        <v>0.001800439324450558</v>
+        <v>0.06734514509072026</v>
       </c>
       <c r="F33">
-        <v>0.001279345568866523</v>
+        <v>0.04785371647154998</v>
       </c>
       <c r="G33">
         <v>15.35986535570366</v>
       </c>
       <c r="H33">
-        <v>5.862357988454622E-48</v>
+        <v>5.862357988455038E-48</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -2993,25 +2993,25 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>0.000652765200810864</v>
+        <v>0.02441657797726467</v>
       </c>
       <c r="C34">
-        <v>0.001421403441058148</v>
+        <v>0.05316736846976077</v>
       </c>
       <c r="D34">
-        <v>0.00253147540605047</v>
+        <v>0.09468943285055451</v>
       </c>
       <c r="E34">
-        <v>0.001805548133083278</v>
+        <v>0.06753623926087024</v>
       </c>
       <c r="F34">
-        <v>0.001752528176529483</v>
+        <v>0.06555303626239724</v>
       </c>
       <c r="G34">
-        <v>1.051189881624204</v>
+        <v>1.051189881624217</v>
       </c>
       <c r="H34">
-        <v>0.2934255967293039</v>
+        <v>0.2934255967292979</v>
       </c>
       <c r="I34" t="s">
         <v>48</v>
@@ -3028,25 +3028,25 @@
         <v>29</v>
       </c>
       <c r="B35">
-        <v>0.001011827297213934</v>
+        <v>0.03784723828914287</v>
       </c>
       <c r="C35">
-        <v>0.001598460331833994</v>
+        <v>0.0597901531627412</v>
       </c>
       <c r="D35">
-        <v>0.002359444147545554</v>
+        <v>0.08825463112920889</v>
       </c>
       <c r="E35">
-        <v>0.001800439324450558</v>
+        <v>0.06734514509072026</v>
       </c>
       <c r="F35">
-        <v>0.001446557374885983</v>
+        <v>0.05410824734317401</v>
       </c>
       <c r="G35">
-        <v>10.43109620654284</v>
+        <v>10.43109620654283</v>
       </c>
       <c r="H35">
-        <v>2.985693588789251E-24</v>
+        <v>2.985693588789401E-24</v>
       </c>
       <c r="I35" t="s">
         <v>10</v>
@@ -3063,25 +3063,25 @@
         <v>28</v>
       </c>
       <c r="B36">
-        <v>0.0009220566186185296</v>
+        <v>0.03448938040812549</v>
       </c>
       <c r="C36">
-        <v>0.001547338054025702</v>
+        <v>0.05787793253435751</v>
       </c>
       <c r="D36">
-        <v>0.002339887994893339</v>
+        <v>0.08752313636573966</v>
       </c>
       <c r="E36">
-        <v>0.001748723149206538</v>
+        <v>0.0654107098237009</v>
       </c>
       <c r="F36">
-        <v>0.001100010391461188</v>
+        <v>0.04114571283142844</v>
       </c>
       <c r="G36">
         <v>18.1640292456732</v>
       </c>
       <c r="H36">
-        <v>6.260713944832319E-64</v>
+        <v>6.260713944831961E-64</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
@@ -3098,25 +3098,25 @@
         <v>27</v>
       </c>
       <c r="B37">
-        <v>0.0009220566186185296</v>
+        <v>0.03448938040812549</v>
       </c>
       <c r="C37">
-        <v>0.001547338054025702</v>
+        <v>0.05787793253435751</v>
       </c>
       <c r="D37">
-        <v>0.002339887994893339</v>
+        <v>0.08752313636573966</v>
       </c>
       <c r="E37">
-        <v>0.001748723149206538</v>
+        <v>0.0654107098237009</v>
       </c>
       <c r="F37">
-        <v>0.001213574217300298</v>
+        <v>0.04539354958123178</v>
       </c>
       <c r="G37">
         <v>14.98422951279685</v>
       </c>
       <c r="H37">
-        <v>6.141538544189255E-46</v>
+        <v>6.141538544189256E-46</v>
       </c>
       <c r="I37" t="s">
         <v>10</v>
@@ -3178,25 +3178,25 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1.050711119656221</v>
+        <v>0.5285364004232432</v>
       </c>
       <c r="C2">
-        <v>1.143398381727288</v>
+        <v>0.5997182237923853</v>
       </c>
       <c r="D2">
-        <v>1.230056074896937</v>
+        <v>0.6662694679541736</v>
       </c>
       <c r="E2">
-        <v>1.135176636363454</v>
+        <v>0.5934041002203051</v>
       </c>
       <c r="F2">
-        <v>0.9250920821017796</v>
+        <v>0.4320636819158621</v>
       </c>
       <c r="G2">
-        <v>49.12741983205547</v>
+        <v>49.12741983205542</v>
       </c>
       <c r="H2">
-        <v>9.773152528171832E-269</v>
+        <v>9.773152528178502E-269</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -3213,25 +3213,25 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>1.098544008530107</v>
+        <v>0.565271030090544</v>
       </c>
       <c r="C3">
-        <v>1.130672161497708</v>
+        <v>0.5899447604243102</v>
       </c>
       <c r="D3">
-        <v>1.161242130975683</v>
+        <v>0.613421839357905</v>
       </c>
       <c r="E3">
-        <v>1.128932079800913</v>
+        <v>0.5886084151140537</v>
       </c>
       <c r="F3">
-        <v>1.085041529065849</v>
+        <v>0.5549014163292346</v>
       </c>
       <c r="G3">
-        <v>28.59368484671135</v>
+        <v>28.59368484671132</v>
       </c>
       <c r="H3">
-        <v>7.210366411728097E-132</v>
+        <v>7.210366411731791E-132</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -3248,25 +3248,25 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>1.095522438631142</v>
+        <v>0.5629505294085768</v>
       </c>
       <c r="C4">
-        <v>1.129573061720417</v>
+        <v>0.5891006754393394</v>
       </c>
       <c r="D4">
-        <v>1.159278439469251</v>
+        <v>0.611913766524174</v>
       </c>
       <c r="E4">
-        <v>1.127459156732966</v>
+        <v>0.587477241883599</v>
       </c>
       <c r="F4">
-        <v>1.146650313799134</v>
+        <v>0.6022156376675422</v>
       </c>
       <c r="G4">
-        <v>-12.49780059359656</v>
+        <v>-12.49780059359627</v>
       </c>
       <c r="H4">
-        <v>2.091441701943906E-33</v>
+        <v>2.091441701950729E-33</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -3283,25 +3283,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.00878115516657</v>
+        <v>0.4963350896984932</v>
       </c>
       <c r="C5">
-        <v>1.161045519324933</v>
+        <v>0.6132708458396666</v>
       </c>
       <c r="D5">
-        <v>1.283849710831658</v>
+        <v>0.7075818231357661</v>
       </c>
       <c r="E5">
-        <v>1.134744512420013</v>
+        <v>0.5930722383276534</v>
       </c>
       <c r="F5">
-        <v>1.129019600900823</v>
+        <v>0.5886756294360188</v>
       </c>
       <c r="G5">
-        <v>0.9348719670591081</v>
+        <v>0.9348719670590847</v>
       </c>
       <c r="H5">
-        <v>0.3500802008776067</v>
+        <v>0.3500802008776186</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -3318,25 +3318,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.00878115516657</v>
+        <v>0.4963350896984932</v>
       </c>
       <c r="C6">
-        <v>1.161045519324933</v>
+        <v>0.6132708458396666</v>
       </c>
       <c r="D6">
-        <v>1.283849710831658</v>
+        <v>0.7075818231357661</v>
       </c>
       <c r="E6">
-        <v>1.134744512420013</v>
+        <v>0.5930722383276534</v>
       </c>
       <c r="F6">
-        <v>1.129019600900823</v>
+        <v>0.5886756294360188</v>
       </c>
       <c r="G6">
-        <v>0.9348719670591081</v>
+        <v>0.9348719670590847</v>
       </c>
       <c r="H6">
-        <v>0.3500802008776067</v>
+        <v>0.3500802008776186</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
@@ -3353,25 +3353,25 @@
         <v>33</v>
       </c>
       <c r="B7">
-        <v>1.095522438631142</v>
+        <v>0.5629505294085768</v>
       </c>
       <c r="C7">
-        <v>1.129573061720417</v>
+        <v>0.5891006754393394</v>
       </c>
       <c r="D7">
-        <v>1.159278439469251</v>
+        <v>0.611913766524174</v>
       </c>
       <c r="E7">
-        <v>1.127459156732966</v>
+        <v>0.587477241883599</v>
       </c>
       <c r="F7">
-        <v>1.149879770225735</v>
+        <v>0.6046957907306499</v>
       </c>
       <c r="G7">
-        <v>-14.60090997393258</v>
+        <v>-14.60090997393244</v>
       </c>
       <c r="H7">
-        <v>6.568334453363485E-44</v>
+        <v>6.568334453375023E-44</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -3388,25 +3388,25 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1.028411322073942</v>
+        <v>0.5114106355964392</v>
       </c>
       <c r="C8">
-        <v>1.142310260665833</v>
+        <v>0.5988825702250014</v>
       </c>
       <c r="D8">
-        <v>1.241841730712048</v>
+        <v>0.6753205980854914</v>
       </c>
       <c r="E8">
-        <v>1.131851797509701</v>
+        <v>0.5908506955050244</v>
       </c>
       <c r="F8">
-        <v>1.021974214516299</v>
+        <v>0.5064670754681341</v>
       </c>
       <c r="G8">
-        <v>22.36273411364714</v>
+        <v>22.36273411364717</v>
       </c>
       <c r="H8">
-        <v>3.947530367892377E-90</v>
+        <v>3.947530367890689E-90</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -3423,25 +3423,25 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>1.050711119656221</v>
+        <v>0.5285364004232432</v>
       </c>
       <c r="C9">
-        <v>1.143398381727288</v>
+        <v>0.5997182237923853</v>
       </c>
       <c r="D9">
-        <v>1.230056074896937</v>
+        <v>0.6662694679541736</v>
       </c>
       <c r="E9">
-        <v>1.135176636363454</v>
+        <v>0.5934041002203051</v>
       </c>
       <c r="F9">
-        <v>0.9320363649882127</v>
+        <v>0.4373967417862511</v>
       </c>
       <c r="G9">
-        <v>47.50352748074331</v>
+        <v>47.50352748074327</v>
       </c>
       <c r="H9">
-        <v>1.607658194113721E-258</v>
+        <v>1.607658194114818E-258</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -3458,25 +3458,25 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.00878115516657</v>
+        <v>0.4963350896984932</v>
       </c>
       <c r="C10">
-        <v>1.161045519324933</v>
+        <v>0.6132708458396666</v>
       </c>
       <c r="D10">
-        <v>1.283849710831658</v>
+        <v>0.7075818231357661</v>
       </c>
       <c r="E10">
-        <v>1.134744512420013</v>
+        <v>0.5930722383276534</v>
       </c>
       <c r="F10">
-        <v>1.279795353742848</v>
+        <v>0.704468164109461</v>
       </c>
       <c r="G10">
-        <v>-23.68664823840803</v>
+        <v>-23.68664823840801</v>
       </c>
       <c r="H10">
-        <v>8.562530759422849E-99</v>
+        <v>8.562530759425288E-99</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -3493,25 +3493,25 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1.028411322073942</v>
+        <v>0.5114106355964392</v>
       </c>
       <c r="C11">
-        <v>1.142310260665833</v>
+        <v>0.5988825702250014</v>
       </c>
       <c r="D11">
-        <v>1.241841730712048</v>
+        <v>0.6753205980854914</v>
       </c>
       <c r="E11">
-        <v>1.131851797509701</v>
+        <v>0.5908506955050244</v>
       </c>
       <c r="F11">
-        <v>0.9240642058916584</v>
+        <v>0.4312742950983068</v>
       </c>
       <c r="G11">
-        <v>42.289778650741</v>
+        <v>42.28977865074098</v>
       </c>
       <c r="H11">
-        <v>7.981985444577995E-225</v>
+        <v>7.981985444581627E-225</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -3528,25 +3528,25 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>1.050711119656221</v>
+        <v>0.5285364004232432</v>
       </c>
       <c r="C12">
-        <v>1.143398381727288</v>
+        <v>0.5997182237923853</v>
       </c>
       <c r="D12">
-        <v>1.230056074896937</v>
+        <v>0.6662694679541736</v>
       </c>
       <c r="E12">
-        <v>1.135176636363454</v>
+        <v>0.5934041002203051</v>
       </c>
       <c r="F12">
-        <v>0.9320363649882127</v>
+        <v>0.4373967417862511</v>
       </c>
       <c r="G12">
-        <v>47.50352748074331</v>
+        <v>47.50352748074327</v>
       </c>
       <c r="H12">
-        <v>1.607658194113721E-258</v>
+        <v>1.607658194114818E-258</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -3563,25 +3563,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>1.050711119656221</v>
+        <v>0.5285364004232432</v>
       </c>
       <c r="C13">
-        <v>1.143398381727288</v>
+        <v>0.5997182237923853</v>
       </c>
       <c r="D13">
-        <v>1.230056074896937</v>
+        <v>0.6662694679541736</v>
       </c>
       <c r="E13">
-        <v>1.135176636363454</v>
+        <v>0.5934041002203051</v>
       </c>
       <c r="F13">
-        <v>0.9419144055027117</v>
+        <v>0.4449828644035874</v>
       </c>
       <c r="G13">
-        <v>45.19358782249795</v>
+        <v>45.1935878224979</v>
       </c>
       <c r="H13">
-        <v>9.369613101060589E-244</v>
+        <v>9.369613101069116E-244</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -3598,22 +3598,22 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>1.050711119656221</v>
+        <v>0.5285364004232432</v>
       </c>
       <c r="C14">
-        <v>1.143398381727288</v>
+        <v>0.5997182237923853</v>
       </c>
       <c r="D14">
-        <v>1.230056074896937</v>
+        <v>0.6662694679541736</v>
       </c>
       <c r="E14">
-        <v>1.135176636363454</v>
+        <v>0.5934041002203051</v>
       </c>
       <c r="F14">
-        <v>0.8092541370310898</v>
+        <v>0.3431026320237631</v>
       </c>
       <c r="G14">
-        <v>76.21565285313731</v>
+        <v>76.21565285313729</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3633,25 +3633,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>1.050711119656221</v>
+        <v>0.5285364004232432</v>
       </c>
       <c r="C15">
-        <v>1.143398381727288</v>
+        <v>0.5997182237923853</v>
       </c>
       <c r="D15">
-        <v>1.230056074896937</v>
+        <v>0.6662694679541736</v>
       </c>
       <c r="E15">
-        <v>1.135176636363454</v>
+        <v>0.5934041002203051</v>
       </c>
       <c r="F15">
-        <v>0.9419144055027117</v>
+        <v>0.4449828644035874</v>
       </c>
       <c r="G15">
-        <v>45.19358782249795</v>
+        <v>45.1935878224979</v>
       </c>
       <c r="H15">
-        <v>9.369613101060589E-244</v>
+        <v>9.369613101069116E-244</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -3668,25 +3668,25 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>1.028411322073942</v>
+        <v>0.5114106355964392</v>
       </c>
       <c r="C16">
-        <v>1.142310260665833</v>
+        <v>0.5988825702250014</v>
       </c>
       <c r="D16">
-        <v>1.241841730712048</v>
+        <v>0.6753205980854914</v>
       </c>
       <c r="E16">
-        <v>1.131851797509701</v>
+        <v>0.5908506955050244</v>
       </c>
       <c r="F16">
-        <v>1.100392635649269</v>
+        <v>0.5666907359501336</v>
       </c>
       <c r="G16">
-        <v>6.402697010228946</v>
+        <v>6.402697010228936</v>
       </c>
       <c r="H16">
-        <v>2.34506077735279E-10</v>
+        <v>2.345060777352927E-10</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -3703,25 +3703,25 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.050711119656221</v>
+        <v>0.5285364004232432</v>
       </c>
       <c r="C17">
-        <v>1.143398381727288</v>
+        <v>0.5997182237923853</v>
       </c>
       <c r="D17">
-        <v>1.230056074896937</v>
+        <v>0.6662694679541736</v>
       </c>
       <c r="E17">
-        <v>1.135176636363454</v>
+        <v>0.5934041002203051</v>
       </c>
       <c r="F17">
-        <v>1.225319850299814</v>
+        <v>0.6626321493499143</v>
       </c>
       <c r="G17">
-        <v>-21.07962449512756</v>
+        <v>-21.0796244951276</v>
       </c>
       <c r="H17">
-        <v>6.817656106883208E-82</v>
+        <v>6.817656106878936E-82</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -3738,25 +3738,25 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>1.028411322073942</v>
+        <v>0.5114106355964392</v>
       </c>
       <c r="C18">
-        <v>1.142310260665833</v>
+        <v>0.5988825702250014</v>
       </c>
       <c r="D18">
-        <v>1.241841730712048</v>
+        <v>0.6753205980854914</v>
       </c>
       <c r="E18">
-        <v>1.131851797509701</v>
+        <v>0.5908506955050244</v>
       </c>
       <c r="F18">
-        <v>1.070023902526128</v>
+        <v>0.5433682022080258</v>
       </c>
       <c r="G18">
-        <v>12.58346551368155</v>
+        <v>12.58346551368151</v>
       </c>
       <c r="H18">
-        <v>8.218991870113411E-34</v>
+        <v>8.21899187011694E-34</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -3773,25 +3773,25 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>1.00878115516657</v>
+        <v>0.4963350896984932</v>
       </c>
       <c r="C19">
-        <v>1.161045519324933</v>
+        <v>0.6132708458396666</v>
       </c>
       <c r="D19">
-        <v>1.283849710831658</v>
+        <v>0.7075818231357661</v>
       </c>
       <c r="E19">
-        <v>1.134744512420013</v>
+        <v>0.5930722383276534</v>
       </c>
       <c r="F19">
-        <v>1.279795353742848</v>
+        <v>0.704468164109461</v>
       </c>
       <c r="G19">
-        <v>-23.68664823840803</v>
+        <v>-23.68664823840801</v>
       </c>
       <c r="H19">
-        <v>8.562530759422849E-99</v>
+        <v>8.562530759425288E-99</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -3808,25 +3808,25 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>1.056448615259834</v>
+        <v>0.5329426736210042</v>
       </c>
       <c r="C20">
-        <v>1.123428752889902</v>
+        <v>0.5843819784347409</v>
       </c>
       <c r="D20">
-        <v>1.19753663688725</v>
+        <v>0.641295239125465</v>
       </c>
       <c r="E20">
-        <v>1.125698378853136</v>
+        <v>0.5861250023499911</v>
       </c>
       <c r="F20">
-        <v>1.12610668033156</v>
+        <v>0.5864385691019824</v>
       </c>
       <c r="G20">
-        <v>-0.1227612034121041</v>
+        <v>-0.1227612034120933</v>
       </c>
       <c r="H20">
-        <v>0.9023208883351981</v>
+        <v>0.9023208883352066</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
@@ -3843,25 +3843,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>1.056448615259834</v>
+        <v>0.5329426736210042</v>
       </c>
       <c r="C21">
-        <v>1.123428752889902</v>
+        <v>0.5843819784347409</v>
       </c>
       <c r="D21">
-        <v>1.19753663688725</v>
+        <v>0.641295239125465</v>
       </c>
       <c r="E21">
-        <v>1.125698378853136</v>
+        <v>0.5861250023499911</v>
       </c>
       <c r="F21">
-        <v>1.141060503243611</v>
+        <v>0.597922783409693</v>
       </c>
       <c r="G21">
-        <v>-4.618824512751122</v>
+        <v>-4.618824512751197</v>
       </c>
       <c r="H21">
-        <v>4.362922173419484E-06</v>
+        <v>4.36292217341794E-06</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -3878,25 +3878,25 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>1.050711119656221</v>
+        <v>0.5285364004232432</v>
       </c>
       <c r="C22">
-        <v>1.143398381727288</v>
+        <v>0.5997182237923853</v>
       </c>
       <c r="D22">
-        <v>1.230056074896937</v>
+        <v>0.6662694679541736</v>
       </c>
       <c r="E22">
-        <v>1.135176636363454</v>
+        <v>0.5934041002203051</v>
       </c>
       <c r="F22">
-        <v>1.075749434323212</v>
+        <v>0.5477652874597397</v>
       </c>
       <c r="G22">
         <v>13.89680985513547</v>
       </c>
       <c r="H22">
-        <v>2.857399602753629E-40</v>
+        <v>2.857399602753834E-40</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -3913,25 +3913,25 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1.050711119656221</v>
+        <v>0.5285364004232432</v>
       </c>
       <c r="C23">
-        <v>1.143398381727288</v>
+        <v>0.5997182237923853</v>
       </c>
       <c r="D23">
-        <v>1.230056074896937</v>
+        <v>0.6662694679541736</v>
       </c>
       <c r="E23">
-        <v>1.135176636363454</v>
+        <v>0.5934041002203051</v>
       </c>
       <c r="F23">
-        <v>0.9130717852976149</v>
+        <v>0.4228323525525816</v>
       </c>
       <c r="G23">
-        <v>51.93831742364411</v>
+        <v>51.93831742364406</v>
       </c>
       <c r="H23">
-        <v>4.331019008983057E-286</v>
+        <v>4.331019008986012E-286</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -3948,25 +3948,25 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <v>1.028411322073942</v>
+        <v>0.5114106355964392</v>
       </c>
       <c r="C24">
-        <v>1.142310260665833</v>
+        <v>0.5988825702250014</v>
       </c>
       <c r="D24">
-        <v>1.241841730712048</v>
+        <v>0.6753205980854914</v>
       </c>
       <c r="E24">
-        <v>1.131851797509701</v>
+        <v>0.5908506955050244</v>
       </c>
       <c r="F24">
-        <v>1.127071284645314</v>
+        <v>0.5871793644642412</v>
       </c>
       <c r="G24">
-        <v>0.9729494879732208</v>
+        <v>0.9729494879731634</v>
       </c>
       <c r="H24">
-        <v>0.3308139251114013</v>
+        <v>0.33081392511143</v>
       </c>
       <c r="I24" t="s">
         <v>48</v>
@@ -3983,25 +3983,25 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>1.00878115516657</v>
+        <v>0.4963350896984932</v>
       </c>
       <c r="C25">
-        <v>1.161045519324933</v>
+        <v>0.6132708458396666</v>
       </c>
       <c r="D25">
-        <v>1.283849710831658</v>
+        <v>0.7075818231357661</v>
       </c>
       <c r="E25">
-        <v>1.134744512420013</v>
+        <v>0.5930722383276534</v>
       </c>
       <c r="F25">
-        <v>1.279795353742848</v>
+        <v>0.704468164109461</v>
       </c>
       <c r="G25">
-        <v>-23.68664823840803</v>
+        <v>-23.68664823840801</v>
       </c>
       <c r="H25">
-        <v>8.562530759422849E-99</v>
+        <v>8.562530759425288E-99</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -4018,25 +4018,25 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>1.00878115516657</v>
+        <v>0.4963350896984932</v>
       </c>
       <c r="C26">
-        <v>1.161045519324933</v>
+        <v>0.6132708458396666</v>
       </c>
       <c r="D26">
-        <v>1.283849710831658</v>
+        <v>0.7075818231357661</v>
       </c>
       <c r="E26">
-        <v>1.134744512420013</v>
+        <v>0.5930722383276534</v>
       </c>
       <c r="F26">
-        <v>0.9923692150728507</v>
+        <v>0.4837310727624838</v>
       </c>
       <c r="G26">
-        <v>23.24973475055651</v>
+        <v>23.2497347505565</v>
       </c>
       <c r="H26">
-        <v>6.430803517449863E-96</v>
+        <v>6.430803517450963E-96</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -4053,19 +4053,19 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>1.00878115516657</v>
+        <v>0.4963350896984932</v>
       </c>
       <c r="C27">
-        <v>1.161045519324933</v>
+        <v>0.6132708458396666</v>
       </c>
       <c r="D27">
-        <v>1.283849710831658</v>
+        <v>0.7075818231357661</v>
       </c>
       <c r="E27">
-        <v>1.134744512420013</v>
+        <v>0.5930722383276534</v>
       </c>
       <c r="F27">
-        <v>0.9587245682709865</v>
+        <v>0.4578927077870331</v>
       </c>
       <c r="G27">
         <v>28.74386981818797</v>
@@ -4088,25 +4088,25 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>1.050711119656221</v>
+        <v>0.5285364004232432</v>
       </c>
       <c r="C28">
-        <v>1.143398381727288</v>
+        <v>0.5997182237923853</v>
       </c>
       <c r="D28">
-        <v>1.230056074896937</v>
+        <v>0.6662694679541736</v>
       </c>
       <c r="E28">
-        <v>1.135176636363454</v>
+        <v>0.5934041002203051</v>
       </c>
       <c r="F28">
-        <v>1.005948496788833</v>
+        <v>0.494159669000937</v>
       </c>
       <c r="G28">
-        <v>30.21947562641955</v>
+        <v>30.21947562641951</v>
       </c>
       <c r="H28">
-        <v>5.214740430832171E-143</v>
+        <v>5.214740430835435E-143</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -4123,22 +4123,22 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>1.028411322073942</v>
+        <v>0.5114106355964392</v>
       </c>
       <c r="C29">
-        <v>1.142310260665833</v>
+        <v>0.5988825702250014</v>
       </c>
       <c r="D29">
-        <v>1.241841730712048</v>
+        <v>0.6753205980854914</v>
       </c>
       <c r="E29">
-        <v>1.131851797509701</v>
+        <v>0.5908506955050244</v>
       </c>
       <c r="F29">
-        <v>0.8466215134508911</v>
+        <v>0.3717999732619056</v>
       </c>
       <c r="G29">
-        <v>58.05123146866318</v>
+        <v>58.05123146866315</v>
       </c>
       <c r="H29">
         <v>2.371515100037983E-322</v>
@@ -4158,25 +4158,25 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>1.028411322073942</v>
+        <v>0.5114106355964392</v>
       </c>
       <c r="C30">
-        <v>1.142310260665833</v>
+        <v>0.5988825702250014</v>
       </c>
       <c r="D30">
-        <v>1.241841730712048</v>
+        <v>0.6753205980854914</v>
       </c>
       <c r="E30">
-        <v>1.131851797509701</v>
+        <v>0.5908506955050244</v>
       </c>
       <c r="F30">
-        <v>1.115681631671657</v>
+        <v>0.5784323559962915</v>
       </c>
       <c r="G30">
-        <v>3.291018143632424</v>
+        <v>3.29101814363247</v>
       </c>
       <c r="H30">
-        <v>0.001033189247650474</v>
+        <v>0.001033189247650309</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -4193,25 +4193,25 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>1.056513844799572</v>
+        <v>0.5329927685042959</v>
       </c>
       <c r="C31">
-        <v>1.135022758908416</v>
+        <v>0.5932859256450689</v>
       </c>
       <c r="D31">
-        <v>1.217863909969194</v>
+        <v>0.6569061475692362</v>
       </c>
       <c r="E31">
-        <v>1.132388983943748</v>
+        <v>0.5912632431303422</v>
       </c>
       <c r="F31">
-        <v>1.017446385388263</v>
+        <v>0.5029898001011001</v>
       </c>
       <c r="G31">
-        <v>30.62629669979941</v>
+        <v>30.62629669979939</v>
       </c>
       <c r="H31">
-        <v>8.397012769037819E-146</v>
+        <v>8.397012769040211E-146</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -4228,25 +4228,25 @@
         <v>8</v>
       </c>
       <c r="B32">
-        <v>1.028411322073942</v>
+        <v>0.5114106355964392</v>
       </c>
       <c r="C32">
-        <v>1.142310260665833</v>
+        <v>0.5988825702250014</v>
       </c>
       <c r="D32">
-        <v>1.241841730712048</v>
+        <v>0.6753205980854914</v>
       </c>
       <c r="E32">
-        <v>1.131851797509701</v>
+        <v>0.5908506955050244</v>
       </c>
       <c r="F32">
-        <v>1.115694819209312</v>
+        <v>0.5784424837415184</v>
       </c>
       <c r="G32">
-        <v>3.288334162149092</v>
+        <v>3.288334162149084</v>
       </c>
       <c r="H32">
-        <v>0.001042982994739592</v>
+        <v>0.001042982994739621</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -4263,25 +4263,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.056448615259834</v>
+        <v>0.5329426736210042</v>
       </c>
       <c r="C33">
-        <v>1.123428752889902</v>
+        <v>0.5843819784347409</v>
       </c>
       <c r="D33">
-        <v>1.19753663688725</v>
+        <v>0.641295239125465</v>
       </c>
       <c r="E33">
-        <v>1.125698378853136</v>
+        <v>0.5861250023499911</v>
       </c>
       <c r="F33">
-        <v>1.065641431936541</v>
+        <v>0.540002559071548</v>
       </c>
       <c r="G33">
-        <v>18.05691006846278</v>
+        <v>18.05691006846273</v>
       </c>
       <c r="H33">
-        <v>2.709062331992189E-63</v>
+        <v>2.709062331993967E-63</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -4298,22 +4298,22 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>1.028411322073942</v>
+        <v>0.5114106355964392</v>
       </c>
       <c r="C34">
-        <v>1.142310260665833</v>
+        <v>0.5988825702250014</v>
       </c>
       <c r="D34">
-        <v>1.241841730712048</v>
+        <v>0.6753205980854914</v>
       </c>
       <c r="E34">
-        <v>1.131851797509701</v>
+        <v>0.5908506955050244</v>
       </c>
       <c r="F34">
-        <v>0.8435275094222994</v>
+        <v>0.3694238447265976</v>
       </c>
       <c r="G34">
-        <v>58.68093579554216</v>
+        <v>58.68093579554213</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4333,19 +4333,19 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>1.056448615259834</v>
+        <v>0.5329426736210042</v>
       </c>
       <c r="C35">
-        <v>1.123428752889902</v>
+        <v>0.5843819784347409</v>
       </c>
       <c r="D35">
-        <v>1.19753663688725</v>
+        <v>0.641295239125465</v>
       </c>
       <c r="E35">
-        <v>1.125698378853136</v>
+        <v>0.5861250023499911</v>
       </c>
       <c r="F35">
-        <v>0.9788818025889813</v>
+        <v>0.4733730301179892</v>
       </c>
       <c r="G35">
         <v>44.14233240732585</v>
@@ -4368,25 +4368,25 @@
         <v>26</v>
       </c>
       <c r="B36">
-        <v>1.056513844799572</v>
+        <v>0.5329927685042959</v>
       </c>
       <c r="C36">
-        <v>1.135022758908416</v>
+        <v>0.5932859256450689</v>
       </c>
       <c r="D36">
-        <v>1.217863909969194</v>
+        <v>0.6569061475692362</v>
       </c>
       <c r="E36">
-        <v>1.132388983943748</v>
+        <v>0.5912632431303422</v>
       </c>
       <c r="F36">
-        <v>1.104833201438513</v>
+        <v>0.5701009949501965</v>
       </c>
       <c r="G36">
-        <v>7.342200206071438</v>
+        <v>7.342200206071373</v>
       </c>
       <c r="H36">
-        <v>4.351935122294391E-13</v>
+        <v>4.351935122296374E-13</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
@@ -4403,25 +4403,25 @@
         <v>27</v>
       </c>
       <c r="B37">
-        <v>1.056513844799572</v>
+        <v>0.5329927685042959</v>
       </c>
       <c r="C37">
-        <v>1.135022758908416</v>
+        <v>0.5932859256450689</v>
       </c>
       <c r="D37">
-        <v>1.217863909969194</v>
+        <v>0.6569061475692362</v>
       </c>
       <c r="E37">
-        <v>1.132388983943748</v>
+        <v>0.5912632431303422</v>
       </c>
       <c r="F37">
-        <v>1.09559530857816</v>
+        <v>0.563006491960298</v>
       </c>
       <c r="G37">
-        <v>9.803624005234528</v>
+        <v>9.8036240052345</v>
       </c>
       <c r="H37">
-        <v>9.990881167767933E-22</v>
+        <v>9.990881167770442E-22</v>
       </c>
       <c r="I37" t="s">
         <v>10</v>
@@ -5788,25 +5788,25 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005966183132231435</v>
+        <v>0.2721083054139899</v>
       </c>
       <c r="C2">
-        <v>0.0007936764492816286</v>
+        <v>0.384607501205065</v>
       </c>
       <c r="D2">
-        <v>0.0009742163730193912</v>
+        <v>0.4876765580576696</v>
       </c>
       <c r="E2">
-        <v>0.000794832155750356</v>
+        <v>0.3852672864385139</v>
       </c>
       <c r="F2">
-        <v>0.000908125042297309</v>
+        <v>0.4499454513715214</v>
       </c>
       <c r="G2">
-        <v>-13.71107680046232</v>
+        <v>-13.71107680046233</v>
       </c>
       <c r="H2">
-        <v>2.488384169484607E-39</v>
+        <v>2.488384169484358E-39</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -5823,25 +5823,25 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>0.0007273884957346743</v>
+        <v>0.3467641438394233</v>
       </c>
       <c r="C3">
-        <v>0.0007837175936010369</v>
+        <v>0.3789220558970192</v>
       </c>
       <c r="D3">
-        <v>0.0008435985491967398</v>
+        <v>0.413107700207175</v>
       </c>
       <c r="E3">
-        <v>0.00078628783120006</v>
+        <v>0.3803893876635</v>
       </c>
       <c r="F3">
-        <v>0.0008320194468869902</v>
+        <v>0.406497266738735</v>
       </c>
       <c r="G3">
-        <v>-15.68761125906333</v>
+        <v>-15.68761125906329</v>
       </c>
       <c r="H3">
-        <v>9.563073866947151E-50</v>
+        <v>9.563073866953295E-50</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -5858,25 +5858,25 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>0.0007183016193755949</v>
+        <v>0.3415765057997234</v>
       </c>
       <c r="C4">
-        <v>0.0007871354800121082</v>
+        <v>0.3808733048037715</v>
       </c>
       <c r="D4">
-        <v>0.0008457123544128637</v>
+        <v>0.414314457723659</v>
       </c>
       <c r="E4">
-        <v>0.0007832802860110555</v>
+        <v>0.3786723998657066</v>
       </c>
       <c r="F4">
-        <v>0.0008830870163957084</v>
+        <v>0.4356514068095136</v>
       </c>
       <c r="G4">
-        <v>-31.86181371382196</v>
+        <v>-31.86181371382194</v>
       </c>
       <c r="H4">
-        <v>2.733956387395159E-154</v>
+        <v>2.733956387396093E-154</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -5893,19 +5893,19 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.0004912550621246119</v>
+        <v>0.2119571172844119</v>
       </c>
       <c r="C5">
-        <v>0.0007898867865659188</v>
+        <v>0.3824440076474569</v>
       </c>
       <c r="D5">
-        <v>0.00103497965705876</v>
+        <v>0.522365917882046</v>
       </c>
       <c r="E5">
-        <v>0.0007965479072772337</v>
+        <v>0.3862467977178339</v>
       </c>
       <c r="F5">
-        <v>0.0005470091645170475</v>
+        <v>0.2437867682019498</v>
       </c>
       <c r="G5">
         <v>21.56550651960714</v>
@@ -5928,19 +5928,19 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.0004912550621246119</v>
+        <v>0.2119571172844119</v>
       </c>
       <c r="C6">
-        <v>0.0007898867865659188</v>
+        <v>0.3824440076474569</v>
       </c>
       <c r="D6">
-        <v>0.00103497965705876</v>
+        <v>0.522365917882046</v>
       </c>
       <c r="E6">
-        <v>0.0007965479072772337</v>
+        <v>0.3862467977178339</v>
       </c>
       <c r="F6">
-        <v>0.0005470091645170475</v>
+        <v>0.2437867682019498</v>
       </c>
       <c r="G6">
         <v>21.56550651960714</v>
@@ -5963,25 +5963,25 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>0.0007183016193755949</v>
+        <v>0.3415765057997234</v>
       </c>
       <c r="C7">
-        <v>0.0007871354800121082</v>
+        <v>0.3808733048037715</v>
       </c>
       <c r="D7">
-        <v>0.0008457123544128637</v>
+        <v>0.414314457723659</v>
       </c>
       <c r="E7">
-        <v>0.0007832802860110555</v>
+        <v>0.3786723998657066</v>
       </c>
       <c r="F7">
-        <v>0.0008780859863761161</v>
+        <v>0.4327963516131924</v>
       </c>
       <c r="G7">
-        <v>-30.26530928724289</v>
+        <v>-30.26530928724286</v>
       </c>
       <c r="H7">
-        <v>2.527106389339301E-143</v>
+        <v>2.527106389340595E-143</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -5998,25 +5998,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0005827853878849292</v>
+        <v>0.2642111791795003</v>
       </c>
       <c r="C8">
-        <v>0.0007656920170550179</v>
+        <v>0.3686313726212181</v>
       </c>
       <c r="D8">
-        <v>0.001016070182418084</v>
+        <v>0.5115706229885812</v>
       </c>
       <c r="E8">
-        <v>0.0007871325192296277</v>
+        <v>0.380871614512497</v>
       </c>
       <c r="F8">
-        <v>0.0008145433321504261</v>
+        <v>0.3965202676016251</v>
       </c>
       <c r="G8">
-        <v>-2.896745253227472</v>
+        <v>-2.896745253227466</v>
       </c>
       <c r="H8">
-        <v>0.003852820905808475</v>
+        <v>0.003852820905808552</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -6033,25 +6033,25 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>0.0005966183132231435</v>
+        <v>0.2721083054139899</v>
       </c>
       <c r="C9">
-        <v>0.0007936764492816286</v>
+        <v>0.384607501205065</v>
       </c>
       <c r="D9">
-        <v>0.0009742163730193912</v>
+        <v>0.4876765580576696</v>
       </c>
       <c r="E9">
-        <v>0.000794832155750356</v>
+        <v>0.3852672864385139</v>
       </c>
       <c r="F9">
-        <v>0.0007739403319920374</v>
+        <v>0.3733402814519136</v>
       </c>
       <c r="G9">
-        <v>2.5283970493003</v>
+        <v>2.528397049300299</v>
       </c>
       <c r="H9">
-        <v>0.01161154959918138</v>
+        <v>0.01161154959918144</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -6068,25 +6068,25 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.0004912550621246119</v>
+        <v>0.2119571172844119</v>
       </c>
       <c r="C10">
-        <v>0.0007898867865659188</v>
+        <v>0.3824440076474569</v>
       </c>
       <c r="D10">
-        <v>0.00103497965705876</v>
+        <v>0.522365917882046</v>
       </c>
       <c r="E10">
-        <v>0.0007965479072772337</v>
+        <v>0.3862467977178339</v>
       </c>
       <c r="F10">
-        <v>0.001137245310298049</v>
+        <v>0.580748707735769</v>
       </c>
       <c r="G10">
         <v>-29.44357250817596</v>
       </c>
       <c r="H10">
-        <v>1.095075230409309E-137</v>
+        <v>1.095075230409433E-137</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -6103,25 +6103,25 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.0005827853878849292</v>
+        <v>0.2642111791795003</v>
       </c>
       <c r="C11">
-        <v>0.0007656920170550179</v>
+        <v>0.3686313726212181</v>
       </c>
       <c r="D11">
-        <v>0.001016070182418084</v>
+        <v>0.5115706229885812</v>
       </c>
       <c r="E11">
-        <v>0.0007871325192296277</v>
+        <v>0.380871614512497</v>
       </c>
       <c r="F11">
-        <v>0.0009085742845370192</v>
+        <v>0.4502019208159891</v>
       </c>
       <c r="G11">
-        <v>-12.83383525378144</v>
+        <v>-12.83383525378142</v>
       </c>
       <c r="H11">
-        <v>5.224202577214979E-35</v>
+        <v>5.224202577216474E-35</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -6138,25 +6138,25 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>0.0005966183132231435</v>
+        <v>0.2721083054139899</v>
       </c>
       <c r="C12">
-        <v>0.0007936764492816286</v>
+        <v>0.384607501205065</v>
       </c>
       <c r="D12">
-        <v>0.0009742163730193912</v>
+        <v>0.4876765580576696</v>
       </c>
       <c r="E12">
-        <v>0.000794832155750356</v>
+        <v>0.3852672864385139</v>
       </c>
       <c r="F12">
-        <v>0.0007739403319920374</v>
+        <v>0.3733402814519136</v>
       </c>
       <c r="G12">
-        <v>2.5283970493003</v>
+        <v>2.528397049300299</v>
       </c>
       <c r="H12">
-        <v>0.01161154959918138</v>
+        <v>0.01161154959918144</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -6173,25 +6173,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0005966183132231435</v>
+        <v>0.2721083054139899</v>
       </c>
       <c r="C13">
-        <v>0.0007936764492816286</v>
+        <v>0.384607501205065</v>
       </c>
       <c r="D13">
-        <v>0.0009742163730193912</v>
+        <v>0.4876765580576696</v>
       </c>
       <c r="E13">
-        <v>0.000794832155750356</v>
+        <v>0.3852672864385139</v>
       </c>
       <c r="F13">
-        <v>0.0009058035048714254</v>
+        <v>0.4486201009006671</v>
       </c>
       <c r="G13">
         <v>-13.43011672510715</v>
       </c>
       <c r="H13">
-        <v>6.331876756301398E-38</v>
+        <v>6.331876756300853E-38</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -6208,25 +6208,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0005966183132231435</v>
+        <v>0.2721083054139899</v>
       </c>
       <c r="C14">
-        <v>0.0007936764492816286</v>
+        <v>0.384607501205065</v>
       </c>
       <c r="D14">
-        <v>0.0009742163730193912</v>
+        <v>0.4876765580576696</v>
       </c>
       <c r="E14">
-        <v>0.000794832155750356</v>
+        <v>0.3852672864385139</v>
       </c>
       <c r="F14">
-        <v>0.0008606693974071136</v>
+        <v>0.4228533353458764</v>
       </c>
       <c r="G14">
         <v>-7.967838972063682</v>
       </c>
       <c r="H14">
-        <v>4.382411104958847E-15</v>
+        <v>4.382411104958769E-15</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -6243,25 +6243,25 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>0.0005966183132231435</v>
+        <v>0.2721083054139899</v>
       </c>
       <c r="C15">
-        <v>0.0007936764492816286</v>
+        <v>0.384607501205065</v>
       </c>
       <c r="D15">
-        <v>0.0009742163730193912</v>
+        <v>0.4876765580576696</v>
       </c>
       <c r="E15">
-        <v>0.000794832155750356</v>
+        <v>0.3852672864385139</v>
       </c>
       <c r="F15">
-        <v>0.0009058035048714254</v>
+        <v>0.4486201009006671</v>
       </c>
       <c r="G15">
         <v>-13.43011672510715</v>
       </c>
       <c r="H15">
-        <v>6.331876756301398E-38</v>
+        <v>6.331876756300853E-38</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -6278,25 +6278,25 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>0.0005827853878849292</v>
+        <v>0.2642111791795003</v>
       </c>
       <c r="C16">
-        <v>0.0007656920170550179</v>
+        <v>0.3686313726212181</v>
       </c>
       <c r="D16">
-        <v>0.001016070182418084</v>
+        <v>0.5115706229885812</v>
       </c>
       <c r="E16">
-        <v>0.0007871325192296277</v>
+        <v>0.380871614512497</v>
       </c>
       <c r="F16">
-        <v>0.001246151001259023</v>
+        <v>0.6429222515195422</v>
       </c>
       <c r="G16">
-        <v>-48.50857990984381</v>
+        <v>-48.50857990984378</v>
       </c>
       <c r="H16">
-        <v>7.361801186323524E-265</v>
+        <v>7.361801186326873E-265</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -6313,25 +6313,25 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.0005966183132231435</v>
+        <v>0.2721083054139899</v>
       </c>
       <c r="C17">
-        <v>0.0007936764492816286</v>
+        <v>0.384607501205065</v>
       </c>
       <c r="D17">
-        <v>0.0009742163730193912</v>
+        <v>0.4876765580576696</v>
       </c>
       <c r="E17">
-        <v>0.000794832155750356</v>
+        <v>0.3852672864385139</v>
       </c>
       <c r="F17">
-        <v>0.0007983306957154547</v>
+        <v>0.3872645799296071</v>
       </c>
       <c r="G17">
-        <v>-0.4234047839453366</v>
+        <v>-0.4234047839453433</v>
       </c>
       <c r="H17">
-        <v>0.6720910916844043</v>
+        <v>0.6720910916843993</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
@@ -6348,25 +6348,25 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.0005827853878849292</v>
+        <v>0.2642111791795003</v>
       </c>
       <c r="C18">
-        <v>0.0007656920170550179</v>
+        <v>0.3686313726212181</v>
       </c>
       <c r="D18">
-        <v>0.001016070182418084</v>
+        <v>0.5115706229885812</v>
       </c>
       <c r="E18">
-        <v>0.0007871325192296277</v>
+        <v>0.380871614512497</v>
       </c>
       <c r="F18">
-        <v>0.0007542006406881652</v>
+        <v>0.3620710213174799</v>
       </c>
       <c r="G18">
-        <v>3.480205534964716</v>
+        <v>3.480205534964739</v>
       </c>
       <c r="H18">
-        <v>0.0005226747289122939</v>
+        <v>0.0005226747289122484</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -6383,25 +6383,25 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>0.0004912550621246119</v>
+        <v>0.2119571172844119</v>
       </c>
       <c r="C19">
-        <v>0.0007898867865659188</v>
+        <v>0.3824440076474569</v>
       </c>
       <c r="D19">
-        <v>0.00103497965705876</v>
+        <v>0.522365917882046</v>
       </c>
       <c r="E19">
-        <v>0.0007965479072772337</v>
+        <v>0.3862467977178339</v>
       </c>
       <c r="F19">
-        <v>0.001137245310298049</v>
+        <v>0.580748707735769</v>
       </c>
       <c r="G19">
         <v>-29.44357250817596</v>
       </c>
       <c r="H19">
-        <v>1.095075230409309E-137</v>
+        <v>1.095075230409433E-137</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -6418,25 +6418,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.0006341934369242262</v>
+        <v>0.2935596967783504</v>
       </c>
       <c r="C20">
-        <v>0.0007825718985488934</v>
+        <v>0.3782679861155528</v>
       </c>
       <c r="D20">
-        <v>0.0009225726728805694</v>
+        <v>0.4581935087936262</v>
       </c>
       <c r="E20">
-        <v>0.00078173715802704</v>
+        <v>0.3777914382333844</v>
       </c>
       <c r="F20">
-        <v>0.0007554024877406978</v>
+        <v>0.3627571479072173</v>
       </c>
       <c r="G20">
-        <v>3.889607210119642</v>
+        <v>3.889607210119622</v>
       </c>
       <c r="H20">
-        <v>0.0001070492706424185</v>
+        <v>0.0001070492706424274</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -6453,25 +6453,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.0006341934369242262</v>
+        <v>0.2935596967783504</v>
       </c>
       <c r="C21">
-        <v>0.0007825718985488934</v>
+        <v>0.3782679861155528</v>
       </c>
       <c r="D21">
-        <v>0.0009225726728805694</v>
+        <v>0.4581935087936262</v>
       </c>
       <c r="E21">
-        <v>0.00078173715802704</v>
+        <v>0.3777914382333844</v>
       </c>
       <c r="F21">
-        <v>0.0009248216026307997</v>
+        <v>0.4594774080192661</v>
       </c>
       <c r="G21">
-        <v>-21.13344428980318</v>
+        <v>-21.13344428980317</v>
       </c>
       <c r="H21">
-        <v>3.102307533949815E-82</v>
+        <v>3.102307533950344E-82</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -6488,25 +6488,25 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.0005966183132231435</v>
+        <v>0.2721083054139899</v>
       </c>
       <c r="C22">
-        <v>0.0007936764492816286</v>
+        <v>0.384607501205065</v>
       </c>
       <c r="D22">
-        <v>0.0009742163730193912</v>
+        <v>0.4876765580576696</v>
       </c>
       <c r="E22">
-        <v>0.000794832155750356</v>
+        <v>0.3852672864385139</v>
       </c>
       <c r="F22">
-        <v>0.0007966720430746003</v>
+        <v>0.3863176660293483</v>
       </c>
       <c r="G22">
-        <v>-0.2226691999453696</v>
+        <v>-0.2226691999453824</v>
       </c>
       <c r="H22">
-        <v>0.8238384908377896</v>
+        <v>0.8238384908377796</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
@@ -6523,25 +6523,25 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.0005966183132231435</v>
+        <v>0.2721083054139899</v>
       </c>
       <c r="C23">
-        <v>0.0007936764492816286</v>
+        <v>0.384607501205065</v>
       </c>
       <c r="D23">
-        <v>0.0009742163730193912</v>
+        <v>0.4876765580576696</v>
       </c>
       <c r="E23">
-        <v>0.000794832155750356</v>
+        <v>0.3852672864385139</v>
       </c>
       <c r="F23">
-        <v>0.0007850824416895312</v>
+        <v>0.379701238707756</v>
       </c>
       <c r="G23">
-        <v>1.179942380717027</v>
+        <v>1.179942380717019</v>
       </c>
       <c r="H23">
-        <v>0.2383040256456252</v>
+        <v>0.2383040256456282</v>
       </c>
       <c r="I23" t="s">
         <v>48</v>
@@ -6558,19 +6558,19 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>0.0005827853878849292</v>
+        <v>0.2642111791795003</v>
       </c>
       <c r="C24">
-        <v>0.0007656920170550179</v>
+        <v>0.3686313726212181</v>
       </c>
       <c r="D24">
-        <v>0.001016070182418084</v>
+        <v>0.5115706229885812</v>
       </c>
       <c r="E24">
-        <v>0.0007871325192296277</v>
+        <v>0.380871614512497</v>
       </c>
       <c r="F24">
-        <v>0.001126509080301472</v>
+        <v>0.5746194645357601</v>
       </c>
       <c r="G24">
         <v>-35.86495027280247</v>
@@ -6593,25 +6593,25 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>0.0004912550621246119</v>
+        <v>0.2119571172844119</v>
       </c>
       <c r="C25">
-        <v>0.0007898867865659188</v>
+        <v>0.3824440076474569</v>
       </c>
       <c r="D25">
-        <v>0.00103497965705876</v>
+        <v>0.522365917882046</v>
       </c>
       <c r="E25">
-        <v>0.0007965479072772337</v>
+        <v>0.3862467977178339</v>
       </c>
       <c r="F25">
-        <v>0.001137245310298049</v>
+        <v>0.580748707735769</v>
       </c>
       <c r="G25">
         <v>-29.44357250817596</v>
       </c>
       <c r="H25">
-        <v>1.095075230409309E-137</v>
+        <v>1.095075230409433E-137</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -6628,25 +6628,25 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>0.0004912550621246119</v>
+        <v>0.2119571172844119</v>
       </c>
       <c r="C26">
-        <v>0.0007898867865659188</v>
+        <v>0.3824440076474569</v>
       </c>
       <c r="D26">
-        <v>0.00103497965705876</v>
+        <v>0.522365917882046</v>
       </c>
       <c r="E26">
-        <v>0.0007965479072772337</v>
+        <v>0.3862467977178339</v>
       </c>
       <c r="F26">
-        <v>0.001091781888132923</v>
+        <v>0.5547939385808996</v>
       </c>
       <c r="G26">
-        <v>-25.51455645134702</v>
+        <v>-25.51455645134701</v>
       </c>
       <c r="H26">
-        <v>5.676016800256996E-111</v>
+        <v>5.676016800257645E-111</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -6663,25 +6663,25 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>0.0004912550621246119</v>
+        <v>0.2119571172844119</v>
       </c>
       <c r="C27">
-        <v>0.0007898867865659188</v>
+        <v>0.3824440076474569</v>
       </c>
       <c r="D27">
-        <v>0.00103497965705876</v>
+        <v>0.522365917882046</v>
       </c>
       <c r="E27">
-        <v>0.0007965479072772337</v>
+        <v>0.3862467977178339</v>
       </c>
       <c r="F27">
-        <v>0.00109642496298469</v>
+        <v>0.5574446395226083</v>
       </c>
       <c r="G27">
-        <v>-25.91581783416579</v>
+        <v>-25.91581783416578</v>
       </c>
       <c r="H27">
-        <v>1.131343593641457E-113</v>
+        <v>1.13134359364165E-113</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -6698,25 +6698,25 @@
         <v>16</v>
       </c>
       <c r="B28">
-        <v>0.0005966183132231435</v>
+        <v>0.2721083054139899</v>
       </c>
       <c r="C28">
-        <v>0.0007936764492816286</v>
+        <v>0.384607501205065</v>
       </c>
       <c r="D28">
-        <v>0.0009742163730193912</v>
+        <v>0.4876765580576696</v>
       </c>
       <c r="E28">
-        <v>0.000794832155750356</v>
+        <v>0.3852672864385139</v>
       </c>
       <c r="F28">
-        <v>0.0009808876549569029</v>
+        <v>0.4914851491053535</v>
       </c>
       <c r="G28">
-        <v>-22.51704689077789</v>
+        <v>-22.51704689077791</v>
       </c>
       <c r="H28">
-        <v>3.930818340581875E-91</v>
+        <v>3.930818340580979E-91</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -6733,25 +6733,25 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>0.0005827853878849292</v>
+        <v>0.2642111791795003</v>
       </c>
       <c r="C29">
-        <v>0.0007656920170550179</v>
+        <v>0.3686313726212181</v>
       </c>
       <c r="D29">
-        <v>0.001016070182418084</v>
+        <v>0.5115706229885812</v>
       </c>
       <c r="E29">
-        <v>0.0007871325192296277</v>
+        <v>0.380871614512497</v>
       </c>
       <c r="F29">
-        <v>0.0009600532524880849</v>
+        <v>0.4795909255558422</v>
       </c>
       <c r="G29">
-        <v>-18.27407726645631</v>
+        <v>-18.27407726645629</v>
       </c>
       <c r="H29">
-        <v>1.383845026999666E-64</v>
+        <v>1.383845027000061E-64</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -6768,25 +6768,25 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <v>0.0005827853878849292</v>
+        <v>0.2642111791795003</v>
       </c>
       <c r="C30">
-        <v>0.0007656920170550179</v>
+        <v>0.3686313726212181</v>
       </c>
       <c r="D30">
-        <v>0.001016070182418084</v>
+        <v>0.5115706229885812</v>
       </c>
       <c r="E30">
-        <v>0.0007871325192296277</v>
+        <v>0.380871614512497</v>
       </c>
       <c r="F30">
-        <v>0.0009388832326471032</v>
+        <v>0.4675051002525688</v>
       </c>
       <c r="G30">
-        <v>-16.03685231941491</v>
+        <v>-16.03685231941489</v>
       </c>
       <c r="H30">
-        <v>1.125193130538644E-51</v>
+        <v>1.125193130538901E-51</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -6803,25 +6803,25 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0.0006218690375449454</v>
+        <v>0.2865237781072958</v>
       </c>
       <c r="C31">
-        <v>0.0007966265895366122</v>
+        <v>0.3862917169030051</v>
       </c>
       <c r="D31">
-        <v>0.0009643704009910753</v>
+        <v>0.482055557285399</v>
       </c>
       <c r="E31">
-        <v>0.0007991747149109051</v>
+        <v>0.3877464249455989</v>
       </c>
       <c r="F31">
-        <v>0.0008892039654154812</v>
+        <v>0.4391435328347756</v>
       </c>
       <c r="G31">
-        <v>-11.93816773976324</v>
+        <v>-11.93816773976322</v>
       </c>
       <c r="H31">
-        <v>8.333592325419182E-31</v>
+        <v>8.333592325420611E-31</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -6838,25 +6838,25 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>0.0005827853878849292</v>
+        <v>0.2642111791795003</v>
       </c>
       <c r="C32">
-        <v>0.0007656920170550179</v>
+        <v>0.3686313726212181</v>
       </c>
       <c r="D32">
-        <v>0.001016070182418084</v>
+        <v>0.5115706229885812</v>
       </c>
       <c r="E32">
-        <v>0.0007871325192296277</v>
+        <v>0.380871614512497</v>
       </c>
       <c r="F32">
-        <v>0.0009390842255520082</v>
+        <v>0.4676198457820546</v>
       </c>
       <c r="G32">
-        <v>-16.05809303361402</v>
+        <v>-16.058093033614</v>
       </c>
       <c r="H32">
-        <v>8.571958441591171E-52</v>
+        <v>8.571958441593499E-52</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -6873,25 +6873,25 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>0.0006341934369242262</v>
+        <v>0.2935596967783504</v>
       </c>
       <c r="C33">
-        <v>0.0007825718985488934</v>
+        <v>0.3782679861155528</v>
       </c>
       <c r="D33">
-        <v>0.0009225726728805694</v>
+        <v>0.4581935087936262</v>
       </c>
       <c r="E33">
-        <v>0.00078173715802704</v>
+        <v>0.3777914382333844</v>
       </c>
       <c r="F33">
-        <v>0.0008683517103493859</v>
+        <v>0.4272391173547172</v>
       </c>
       <c r="G33">
-        <v>-12.79289178680184</v>
+        <v>-12.79289178680185</v>
       </c>
       <c r="H33">
-        <v>8.220096825965999E-35</v>
+        <v>8.220096825965529E-35</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
@@ -6908,25 +6908,25 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>0.0005827853878849292</v>
+        <v>0.2642111791795003</v>
       </c>
       <c r="C34">
-        <v>0.0007656920170550179</v>
+        <v>0.3686313726212181</v>
       </c>
       <c r="D34">
-        <v>0.001016070182418084</v>
+        <v>0.5115706229885812</v>
       </c>
       <c r="E34">
-        <v>0.0007871325192296277</v>
+        <v>0.380871614512497</v>
       </c>
       <c r="F34">
-        <v>0.0009600519478795262</v>
+        <v>0.4795901807633835</v>
       </c>
       <c r="G34">
-        <v>-18.27393939682579</v>
+        <v>-18.27393939682578</v>
       </c>
       <c r="H34">
-        <v>1.386468307142816E-64</v>
+        <v>1.386468307142934E-64</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -6943,25 +6943,25 @@
         <v>31</v>
       </c>
       <c r="B35">
-        <v>0.0006341934369242262</v>
+        <v>0.2935596967783504</v>
       </c>
       <c r="C35">
-        <v>0.0007825718985488934</v>
+        <v>0.3782679861155528</v>
       </c>
       <c r="D35">
-        <v>0.0009225726728805694</v>
+        <v>0.4581935087936262</v>
       </c>
       <c r="E35">
-        <v>0.00078173715802704</v>
+        <v>0.3777914382333844</v>
       </c>
       <c r="F35">
-        <v>0.0008336156364558564</v>
+        <v>0.407408520881392</v>
       </c>
       <c r="G35">
-        <v>-7.662404790061574</v>
+        <v>-7.662404790061573</v>
       </c>
       <c r="H35">
-        <v>4.306379729896508E-14</v>
+        <v>4.30637972989654E-14</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -6978,25 +6978,25 @@
         <v>28</v>
       </c>
       <c r="B36">
-        <v>0.0006218690375449454</v>
+        <v>0.2865237781072958</v>
       </c>
       <c r="C36">
-        <v>0.0007966265895366122</v>
+        <v>0.3862917169030051</v>
       </c>
       <c r="D36">
-        <v>0.0009643704009910753</v>
+        <v>0.482055557285399</v>
       </c>
       <c r="E36">
-        <v>0.0007991747149109051</v>
+        <v>0.3877464249455989</v>
       </c>
       <c r="F36">
-        <v>0.0007830474790325469</v>
+        <v>0.3785394918905241</v>
       </c>
       <c r="G36">
-        <v>2.138523268998928</v>
+        <v>2.138523268998932</v>
       </c>
       <c r="H36">
-        <v>0.03271630885856985</v>
+        <v>0.03271630885856953</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
@@ -7013,25 +7013,25 @@
         <v>27</v>
       </c>
       <c r="B37">
-        <v>0.0006218690375449454</v>
+        <v>0.2865237781072958</v>
       </c>
       <c r="C37">
-        <v>0.0007966265895366122</v>
+        <v>0.3862917169030051</v>
       </c>
       <c r="D37">
-        <v>0.0009643704009910753</v>
+        <v>0.482055557285399</v>
       </c>
       <c r="E37">
-        <v>0.0007991747149109051</v>
+        <v>0.3877464249455989</v>
       </c>
       <c r="F37">
-        <v>0.0008228278073484436</v>
+        <v>0.4012498200878592</v>
       </c>
       <c r="G37">
-        <v>-3.136476017526175</v>
+        <v>-3.136476017526168</v>
       </c>
       <c r="H37">
-        <v>0.001759922708827598</v>
+        <v>0.001759922708827642</v>
       </c>
       <c r="I37" t="s">
         <v>11</v>
@@ -8398,25 +8398,25 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0.7177646144834295</v>
+        <v>0.1563992378492335</v>
       </c>
       <c r="C2">
-        <v>0.8778807013363513</v>
+        <v>0.19128816027016</v>
       </c>
       <c r="D2">
-        <v>1.094266644824368</v>
+        <v>0.2384381534015007</v>
       </c>
       <c r="E2">
-        <v>0.9383534709398145</v>
+        <v>0.2044650359279558</v>
       </c>
       <c r="F2">
-        <v>1.482146402970552</v>
+        <v>0.3229562493442323</v>
       </c>
       <c r="G2">
-        <v>-55.40309744020613</v>
+        <v>-55.40309744020612</v>
       </c>
       <c r="H2">
-        <v>6.814566809493674E-307</v>
+        <v>6.814566809494448E-307</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -8433,25 +8433,25 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>0.8725374383160476</v>
+        <v>0.1901238757022938</v>
       </c>
       <c r="C3">
-        <v>0.9415573421962397</v>
+        <v>0.2051631520130356</v>
       </c>
       <c r="D3">
-        <v>1.024854877097699</v>
+        <v>0.2233134908712477</v>
       </c>
       <c r="E3">
-        <v>0.9512695077814042</v>
+        <v>0.2072794102747758</v>
       </c>
       <c r="F3">
-        <v>1.11780566379704</v>
+        <v>0.243567250814159</v>
       </c>
       <c r="G3">
-        <v>-46.68345109007934</v>
+        <v>-46.68345109007935</v>
       </c>
       <c r="H3">
-        <v>2.614314978908285E-253</v>
+        <v>2.614314978907691E-253</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -8468,25 +8468,25 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>0.8748160545816468</v>
+        <v>0.1906203808797566</v>
       </c>
       <c r="C4">
-        <v>0.9444623748162198</v>
+        <v>0.205796151855218</v>
       </c>
       <c r="D4">
-        <v>1.022773055038349</v>
+        <v>0.2228598666930005</v>
       </c>
       <c r="E4">
-        <v>0.9536149140131328</v>
+        <v>0.2077904688303069</v>
       </c>
       <c r="F4">
-        <v>1.01217660627025</v>
+        <v>0.220550925185161</v>
       </c>
       <c r="G4">
-        <v>-16.45596091082866</v>
+        <v>-16.45596091082865</v>
       </c>
       <c r="H4">
-        <v>5.051322519807212E-54</v>
+        <v>5.051322519807788E-54</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -8503,25 +8503,25 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.5879691130041103</v>
+        <v>0.1281171003657155</v>
       </c>
       <c r="C5">
-        <v>0.8280827425984391</v>
+        <v>0.180437301038736</v>
       </c>
       <c r="D5">
-        <v>1.108216179186275</v>
+        <v>0.241477724451021</v>
       </c>
       <c r="E5">
-        <v>0.9469391642342286</v>
+        <v>0.206335838501053</v>
       </c>
       <c r="F5">
-        <v>0.8278251027580864</v>
+        <v>0.1803811619175566</v>
       </c>
       <c r="G5">
-        <v>7.820685774987218</v>
+        <v>7.820685774987219</v>
       </c>
       <c r="H5">
-        <v>1.330367676964147E-14</v>
+        <v>1.330367676964132E-14</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -8538,25 +8538,25 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.5879691130041103</v>
+        <v>0.1281171003657155</v>
       </c>
       <c r="C6">
-        <v>0.8280827425984391</v>
+        <v>0.180437301038736</v>
       </c>
       <c r="D6">
-        <v>1.108216179186275</v>
+        <v>0.241477724451021</v>
       </c>
       <c r="E6">
-        <v>0.9469391642342286</v>
+        <v>0.206335838501053</v>
       </c>
       <c r="F6">
-        <v>0.8278251027580864</v>
+        <v>0.1803811619175566</v>
       </c>
       <c r="G6">
-        <v>7.820685774987218</v>
+        <v>7.820685774987219</v>
       </c>
       <c r="H6">
-        <v>1.330367676964147E-14</v>
+        <v>1.330367676964132E-14</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -8573,25 +8573,25 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>0.8748160545816468</v>
+        <v>0.1906203808797566</v>
       </c>
       <c r="C7">
-        <v>0.9444623748162198</v>
+        <v>0.205796151855218</v>
       </c>
       <c r="D7">
-        <v>1.022773055038349</v>
+        <v>0.2228598666930005</v>
       </c>
       <c r="E7">
-        <v>0.9536149140131328</v>
+        <v>0.2077904688303069</v>
       </c>
       <c r="F7">
-        <v>0.9972664662722444</v>
+        <v>0.217302040404749</v>
       </c>
       <c r="G7">
-        <v>-12.26617964725283</v>
+        <v>-12.26617964725285</v>
       </c>
       <c r="H7">
-        <v>2.553796943240354E-32</v>
+        <v>2.553796943239805E-32</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -8608,19 +8608,19 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.6955528583626217</v>
+        <v>0.1515593479208514</v>
       </c>
       <c r="C8">
-        <v>0.8782823017811399</v>
+        <v>0.1913756680717672</v>
       </c>
       <c r="D8">
-        <v>1.11600271043069</v>
+        <v>0.2431743914746416</v>
       </c>
       <c r="E8">
-        <v>0.9540062061912987</v>
+        <v>0.2078757304846245</v>
       </c>
       <c r="F8">
-        <v>1.304715950834971</v>
+        <v>0.2842945670527177</v>
       </c>
       <c r="G8">
         <v>-29.80302785208339</v>
@@ -8643,19 +8643,19 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.7177646144834295</v>
+        <v>0.1563992378492335</v>
       </c>
       <c r="C9">
-        <v>0.8778807013363513</v>
+        <v>0.19128816027016</v>
       </c>
       <c r="D9">
-        <v>1.094266644824368</v>
+        <v>0.2384381534015007</v>
       </c>
       <c r="E9">
-        <v>0.9383534709398145</v>
+        <v>0.2044650359279558</v>
       </c>
       <c r="F9">
-        <v>1.504387819940033</v>
+        <v>0.3278026023024611</v>
       </c>
       <c r="G9">
         <v>-57.6691132690009</v>
@@ -8678,19 +8678,19 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0.5879691130041103</v>
+        <v>0.1281171003657155</v>
       </c>
       <c r="C10">
-        <v>0.8280827425984391</v>
+        <v>0.180437301038736</v>
       </c>
       <c r="D10">
-        <v>1.108216179186275</v>
+        <v>0.241477724451021</v>
       </c>
       <c r="E10">
-        <v>0.9469391642342286</v>
+        <v>0.206335838501053</v>
       </c>
       <c r="F10">
-        <v>0.5518139036158931</v>
+        <v>0.1202389644441416</v>
       </c>
       <c r="G10">
         <v>25.94278514862723</v>
@@ -8713,19 +8713,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6955528583626217</v>
+        <v>0.1515593479208514</v>
       </c>
       <c r="C11">
-        <v>0.8782823017811399</v>
+        <v>0.1913756680717672</v>
       </c>
       <c r="D11">
-        <v>1.11600271043069</v>
+        <v>0.2431743914746416</v>
       </c>
       <c r="E11">
-        <v>0.9540062061912987</v>
+        <v>0.2078757304846245</v>
       </c>
       <c r="F11">
-        <v>1.425869224201267</v>
+        <v>0.310693583157831</v>
       </c>
       <c r="G11">
         <v>-40.09853413798756</v>
@@ -8748,19 +8748,19 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>0.7177646144834295</v>
+        <v>0.1563992378492335</v>
       </c>
       <c r="C12">
-        <v>0.8778807013363513</v>
+        <v>0.19128816027016</v>
       </c>
       <c r="D12">
-        <v>1.094266644824368</v>
+        <v>0.2384381534015007</v>
       </c>
       <c r="E12">
-        <v>0.9383534709398145</v>
+        <v>0.2044650359279558</v>
       </c>
       <c r="F12">
-        <v>1.504387819940033</v>
+        <v>0.3278026023024611</v>
       </c>
       <c r="G12">
         <v>-57.6691132690009</v>
@@ -8783,22 +8783,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7177646144834295</v>
+        <v>0.1563992378492335</v>
       </c>
       <c r="C13">
-        <v>0.8778807013363513</v>
+        <v>0.19128816027016</v>
       </c>
       <c r="D13">
-        <v>1.094266644824368</v>
+        <v>0.2384381534015007</v>
       </c>
       <c r="E13">
-        <v>0.9383534709398145</v>
+        <v>0.2044650359279558</v>
       </c>
       <c r="F13">
-        <v>1.504588868370366</v>
+        <v>0.3278464102871965</v>
       </c>
       <c r="G13">
-        <v>-57.68959662786758</v>
+        <v>-57.68959662786757</v>
       </c>
       <c r="H13">
         <v>2.89720094721307E-320</v>
@@ -8818,19 +8818,19 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.7177646144834295</v>
+        <v>0.1563992378492335</v>
       </c>
       <c r="C14">
-        <v>0.8778807013363513</v>
+        <v>0.19128816027016</v>
       </c>
       <c r="D14">
-        <v>1.094266644824368</v>
+        <v>0.2384381534015007</v>
       </c>
       <c r="E14">
-        <v>0.9383534709398145</v>
+        <v>0.2044650359279558</v>
       </c>
       <c r="F14">
-        <v>1.759250213458827</v>
+        <v>0.3833365242853079</v>
       </c>
       <c r="G14">
         <v>-83.63518452563832</v>
@@ -8853,22 +8853,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>0.7177646144834295</v>
+        <v>0.1563992378492335</v>
       </c>
       <c r="C15">
-        <v>0.8778807013363513</v>
+        <v>0.19128816027016</v>
       </c>
       <c r="D15">
-        <v>1.094266644824368</v>
+        <v>0.2384381534015007</v>
       </c>
       <c r="E15">
-        <v>0.9383534709398145</v>
+        <v>0.2044650359279558</v>
       </c>
       <c r="F15">
-        <v>1.504588868370366</v>
+        <v>0.3278464102871965</v>
       </c>
       <c r="G15">
-        <v>-57.68959662786758</v>
+        <v>-57.68959662786757</v>
       </c>
       <c r="H15">
         <v>2.89720094721307E-320</v>
@@ -8888,25 +8888,25 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>0.6955528583626217</v>
+        <v>0.1515593479208514</v>
       </c>
       <c r="C16">
-        <v>0.8782823017811399</v>
+        <v>0.1913756680717672</v>
       </c>
       <c r="D16">
-        <v>1.11600271043069</v>
+        <v>0.2431743914746416</v>
       </c>
       <c r="E16">
-        <v>0.9540062061912987</v>
+        <v>0.2078757304846245</v>
       </c>
       <c r="F16">
-        <v>1.065150612577193</v>
+        <v>0.2320938377849817</v>
       </c>
       <c r="G16">
-        <v>-9.444960939102414</v>
+        <v>-9.444960939102405</v>
       </c>
       <c r="H16">
-        <v>2.432072770153583E-20</v>
+        <v>2.432072770153758E-20</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -8923,25 +8923,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.7177646144834295</v>
+        <v>0.1563992378492335</v>
       </c>
       <c r="C17">
-        <v>0.8778807013363513</v>
+        <v>0.19128816027016</v>
       </c>
       <c r="D17">
-        <v>1.094266644824368</v>
+        <v>0.2384381534015007</v>
       </c>
       <c r="E17">
-        <v>0.9383534709398145</v>
+        <v>0.2044650359279558</v>
       </c>
       <c r="F17">
-        <v>0.6385278290740851</v>
+        <v>0.1391337268480209</v>
       </c>
       <c r="G17">
-        <v>30.54704883589843</v>
+        <v>30.54704883589841</v>
       </c>
       <c r="H17">
-        <v>2.93979893417736E-145</v>
+        <v>2.939798934178698E-145</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -8958,25 +8958,25 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>0.6955528583626217</v>
+        <v>0.1515593479208514</v>
       </c>
       <c r="C18">
-        <v>0.8782823017811399</v>
+        <v>0.1913756680717672</v>
       </c>
       <c r="D18">
-        <v>1.11600271043069</v>
+        <v>0.2431743914746416</v>
       </c>
       <c r="E18">
-        <v>0.9540062061912987</v>
+        <v>0.2078757304846245</v>
       </c>
       <c r="F18">
-        <v>1.081296042572625</v>
+        <v>0.2356118893788893</v>
       </c>
       <c r="G18">
-        <v>-10.81698640228605</v>
+        <v>-10.81698640228606</v>
       </c>
       <c r="H18">
-        <v>7.268501499745359E-26</v>
+        <v>7.268501499744576E-26</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -8993,19 +8993,19 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>0.5879691130041103</v>
+        <v>0.1281171003657155</v>
       </c>
       <c r="C19">
-        <v>0.8280827425984391</v>
+        <v>0.180437301038736</v>
       </c>
       <c r="D19">
-        <v>1.108216179186275</v>
+        <v>0.241477724451021</v>
       </c>
       <c r="E19">
-        <v>0.9469391642342286</v>
+        <v>0.206335838501053</v>
       </c>
       <c r="F19">
-        <v>0.5518139036158931</v>
+        <v>0.1202389644441416</v>
       </c>
       <c r="G19">
         <v>25.94278514862723</v>
@@ -9028,25 +9028,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.7660958380492841</v>
+        <v>0.166930498902637</v>
       </c>
       <c r="C20">
-        <v>0.9267869978753398</v>
+        <v>0.2019447283850862</v>
       </c>
       <c r="D20">
-        <v>1.09773401044459</v>
+        <v>0.2391936842947834</v>
       </c>
       <c r="E20">
-        <v>0.9536451331387382</v>
+        <v>0.2077970535073971</v>
       </c>
       <c r="F20">
-        <v>0.9437372172911577</v>
+        <v>0.2056381417193714</v>
       </c>
       <c r="G20">
-        <v>1.277136552222835</v>
+        <v>1.277136552222858</v>
       </c>
       <c r="H20">
-        <v>0.2018507890666277</v>
+        <v>0.2018507890666197</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
@@ -9063,25 +9063,25 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>0.7660958380492841</v>
+        <v>0.166930498902637</v>
       </c>
       <c r="C21">
-        <v>0.9267869978753398</v>
+        <v>0.2019447283850862</v>
       </c>
       <c r="D21">
-        <v>1.09773401044459</v>
+        <v>0.2391936842947834</v>
       </c>
       <c r="E21">
-        <v>0.9536451331387382</v>
+        <v>0.2077970535073971</v>
       </c>
       <c r="F21">
-        <v>0.9601868509362402</v>
+        <v>0.2092224785800588</v>
       </c>
       <c r="G21">
-        <v>-0.8432315173081161</v>
+        <v>-0.8432315173080929</v>
       </c>
       <c r="H21">
-        <v>0.3993008234075895</v>
+        <v>0.3993008234076028</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
@@ -9098,25 +9098,25 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.7177646144834295</v>
+        <v>0.1563992378492335</v>
       </c>
       <c r="C22">
-        <v>0.8778807013363513</v>
+        <v>0.19128816027016</v>
       </c>
       <c r="D22">
-        <v>1.094266644824368</v>
+        <v>0.2384381534015007</v>
       </c>
       <c r="E22">
-        <v>0.9383534709398145</v>
+        <v>0.2044650359279558</v>
       </c>
       <c r="F22">
-        <v>1.092027561009511</v>
+        <v>0.2379502622529851</v>
       </c>
       <c r="G22">
-        <v>-15.65673270958434</v>
+        <v>-15.65673270958433</v>
       </c>
       <c r="H22">
-        <v>1.412445474861065E-49</v>
+        <v>1.412445474861267E-49</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -9133,22 +9133,22 @@
         <v>17</v>
       </c>
       <c r="B23">
-        <v>0.7177646144834295</v>
+        <v>0.1563992378492335</v>
       </c>
       <c r="C23">
-        <v>0.8778807013363513</v>
+        <v>0.19128816027016</v>
       </c>
       <c r="D23">
-        <v>1.094266644824368</v>
+        <v>0.2384381534015007</v>
       </c>
       <c r="E23">
-        <v>0.9383534709398145</v>
+        <v>0.2044650359279558</v>
       </c>
       <c r="F23">
-        <v>1.577038283592462</v>
+        <v>0.3436329691321368</v>
       </c>
       <c r="G23">
-        <v>-65.07093936810179</v>
+        <v>-65.07093936810178</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -9168,25 +9168,25 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>0.6955528583626217</v>
+        <v>0.1515593479208514</v>
       </c>
       <c r="C24">
-        <v>0.8782823017811399</v>
+        <v>0.1913756680717672</v>
       </c>
       <c r="D24">
-        <v>1.11600271043069</v>
+        <v>0.2431743914746416</v>
       </c>
       <c r="E24">
-        <v>0.9540062061912987</v>
+        <v>0.2078757304846245</v>
       </c>
       <c r="F24">
-        <v>1.077115228053454</v>
+        <v>0.2347008996321211</v>
       </c>
       <c r="G24">
-        <v>-10.46170419680909</v>
+        <v>-10.46170419680911</v>
       </c>
       <c r="H24">
-        <v>2.232197792365041E-24</v>
+        <v>2.23219779236464E-24</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -9203,19 +9203,19 @@
         <v>6</v>
       </c>
       <c r="B25">
-        <v>0.5879691130041103</v>
+        <v>0.1281171003657155</v>
       </c>
       <c r="C25">
-        <v>0.8280827425984391</v>
+        <v>0.180437301038736</v>
       </c>
       <c r="D25">
-        <v>1.108216179186275</v>
+        <v>0.241477724451021</v>
       </c>
       <c r="E25">
-        <v>0.9469391642342286</v>
+        <v>0.206335838501053</v>
       </c>
       <c r="F25">
-        <v>0.5518139036158931</v>
+        <v>0.1202389644441416</v>
       </c>
       <c r="G25">
         <v>25.94278514862723</v>
@@ -9238,19 +9238,19 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>0.5879691130041103</v>
+        <v>0.1281171003657155</v>
       </c>
       <c r="C26">
-        <v>0.8280827425984391</v>
+        <v>0.180437301038736</v>
       </c>
       <c r="D26">
-        <v>1.108216179186275</v>
+        <v>0.241477724451021</v>
       </c>
       <c r="E26">
-        <v>0.9469391642342286</v>
+        <v>0.206335838501053</v>
       </c>
       <c r="F26">
-        <v>1.340966223863704</v>
+        <v>0.2921934171201604</v>
       </c>
       <c r="G26">
         <v>-25.87068043869442</v>
@@ -9273,25 +9273,25 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>0.5879691130041103</v>
+        <v>0.1281171003657155</v>
       </c>
       <c r="C27">
-        <v>0.8280827425984391</v>
+        <v>0.180437301038736</v>
       </c>
       <c r="D27">
-        <v>1.108216179186275</v>
+        <v>0.241477724451021</v>
       </c>
       <c r="E27">
-        <v>0.9469391642342286</v>
+        <v>0.206335838501053</v>
       </c>
       <c r="F27">
-        <v>1.369014713766605</v>
+        <v>0.2983051177461278</v>
       </c>
       <c r="G27">
-        <v>-27.71226339938815</v>
+        <v>-27.71226339938814</v>
       </c>
       <c r="H27">
-        <v>7.489842612089219E-126</v>
+        <v>7.489842612090922E-126</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -9308,25 +9308,25 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <v>0.7177646144834295</v>
+        <v>0.1563992378492335</v>
       </c>
       <c r="C28">
-        <v>0.8778807013363513</v>
+        <v>0.19128816027016</v>
       </c>
       <c r="D28">
-        <v>1.094266644824368</v>
+        <v>0.2384381534015007</v>
       </c>
       <c r="E28">
-        <v>0.9383534709398145</v>
+        <v>0.2044650359279558</v>
       </c>
       <c r="F28">
-        <v>1.443802247771093</v>
+        <v>0.3146011472283607</v>
       </c>
       <c r="G28">
-        <v>-51.49649100667863</v>
+        <v>-51.49649100667865</v>
       </c>
       <c r="H28">
-        <v>2.168591521368569E-283</v>
+        <v>2.168591521368076E-283</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -9343,19 +9343,19 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>0.6955528583626217</v>
+        <v>0.1515593479208514</v>
       </c>
       <c r="C29">
-        <v>0.8782823017811399</v>
+        <v>0.1913756680717672</v>
       </c>
       <c r="D29">
-        <v>1.11600271043069</v>
+        <v>0.2431743914746416</v>
       </c>
       <c r="E29">
-        <v>0.9540062061912987</v>
+        <v>0.2078757304846245</v>
       </c>
       <c r="F29">
-        <v>1.78328865590437</v>
+        <v>0.3885744449095663</v>
       </c>
       <c r="G29">
         <v>-70.47174571996463</v>
@@ -9378,25 +9378,25 @@
         <v>15</v>
       </c>
       <c r="B30">
-        <v>0.6955528583626217</v>
+        <v>0.1515593479208514</v>
       </c>
       <c r="C30">
-        <v>0.8782823017811399</v>
+        <v>0.1913756680717672</v>
       </c>
       <c r="D30">
-        <v>1.11600271043069</v>
+        <v>0.2431743914746416</v>
       </c>
       <c r="E30">
-        <v>0.9540062061912987</v>
+        <v>0.2078757304846245</v>
       </c>
       <c r="F30">
-        <v>0.9343579357042153</v>
+        <v>0.2035944181055696</v>
       </c>
       <c r="G30">
-        <v>1.669693989161243</v>
+        <v>1.669693989161238</v>
       </c>
       <c r="H30">
-        <v>0.09529320666540612</v>
+        <v>0.09529320666540711</v>
       </c>
       <c r="I30" t="s">
         <v>48</v>
@@ -9413,25 +9413,25 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0.7339185828319532</v>
+        <v>0.159919149930394</v>
       </c>
       <c r="C31">
-        <v>0.9069702746172632</v>
+        <v>0.1976267105395521</v>
       </c>
       <c r="D31">
-        <v>1.088572332757491</v>
+        <v>0.2371973760639661</v>
       </c>
       <c r="E31">
-        <v>0.9436660228152735</v>
+        <v>0.2056226286088855</v>
       </c>
       <c r="F31">
-        <v>1.302168940251385</v>
+        <v>0.2837395793784458</v>
       </c>
       <c r="G31">
-        <v>-40.9944731183156</v>
+        <v>-40.99447311831562</v>
       </c>
       <c r="H31">
-        <v>2.947223374731145E-216</v>
+        <v>2.947223374729971E-216</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -9448,25 +9448,25 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>0.6955528583626217</v>
+        <v>0.1515593479208514</v>
       </c>
       <c r="C32">
-        <v>0.8782823017811399</v>
+        <v>0.1913756680717672</v>
       </c>
       <c r="D32">
-        <v>1.11600271043069</v>
+        <v>0.2431743914746416</v>
       </c>
       <c r="E32">
-        <v>0.9540062061912987</v>
+        <v>0.2078757304846245</v>
       </c>
       <c r="F32">
-        <v>0.9551170548638827</v>
+        <v>0.2081177818232559</v>
       </c>
       <c r="G32">
-        <v>-0.09439901352642968</v>
+        <v>-0.09439901352644108</v>
       </c>
       <c r="H32">
-        <v>0.9248111291630141</v>
+        <v>0.924811129163005</v>
       </c>
       <c r="I32" t="s">
         <v>48</v>
@@ -9483,25 +9483,25 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>0.7660958380492841</v>
+        <v>0.166930498902637</v>
       </c>
       <c r="C33">
-        <v>0.9267869978753398</v>
+        <v>0.2019447283850862</v>
       </c>
       <c r="D33">
-        <v>1.09773401044459</v>
+        <v>0.2391936842947834</v>
       </c>
       <c r="E33">
-        <v>0.9536451331387382</v>
+        <v>0.2077970535073971</v>
       </c>
       <c r="F33">
-        <v>1.19563690157066</v>
+        <v>0.2605264962590144</v>
       </c>
       <c r="G33">
-        <v>-31.19289036724312</v>
+        <v>-31.19289036724313</v>
       </c>
       <c r="H33">
-        <v>1.077348605286818E-149</v>
+        <v>1.077348605286696E-149</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
@@ -9518,22 +9518,22 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <v>0.6955528583626217</v>
+        <v>0.1515593479208514</v>
       </c>
       <c r="C34">
-        <v>0.8782823017811399</v>
+        <v>0.1913756680717672</v>
       </c>
       <c r="D34">
-        <v>1.11600271043069</v>
+        <v>0.2431743914746416</v>
       </c>
       <c r="E34">
-        <v>0.9540062061912987</v>
+        <v>0.2078757304846245</v>
       </c>
       <c r="F34">
-        <v>1.796686920434463</v>
+        <v>0.3914938955466209</v>
       </c>
       <c r="G34">
-        <v>-71.61031930412788</v>
+        <v>-71.61031930412791</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -9553,25 +9553,25 @@
         <v>29</v>
       </c>
       <c r="B35">
-        <v>0.7660958380492841</v>
+        <v>0.166930498902637</v>
       </c>
       <c r="C35">
-        <v>0.9267869978753398</v>
+        <v>0.2019447283850862</v>
       </c>
       <c r="D35">
-        <v>1.09773401044459</v>
+        <v>0.2391936842947834</v>
       </c>
       <c r="E35">
-        <v>0.9536451331387382</v>
+        <v>0.2077970535073971</v>
       </c>
       <c r="F35">
-        <v>1.341389765890272</v>
+        <v>0.2922857059413362</v>
       </c>
       <c r="G35">
-        <v>-49.98052577688461</v>
+        <v>-49.98052577688463</v>
       </c>
       <c r="H35">
-        <v>4.77126516349584E-274</v>
+        <v>4.771265163494756E-274</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -9588,25 +9588,25 @@
         <v>27</v>
       </c>
       <c r="B36">
-        <v>0.7339185828319532</v>
+        <v>0.159919149930394</v>
       </c>
       <c r="C36">
-        <v>0.9069702746172632</v>
+        <v>0.1976267105395521</v>
       </c>
       <c r="D36">
-        <v>1.088572332757491</v>
+        <v>0.2371973760639661</v>
       </c>
       <c r="E36">
-        <v>0.9436660228152735</v>
+        <v>0.2056226286088855</v>
       </c>
       <c r="F36">
-        <v>1.048199201763269</v>
+        <v>0.228400164847824</v>
       </c>
       <c r="G36">
-        <v>-11.9532711895416</v>
+        <v>-11.95327118954157</v>
       </c>
       <c r="H36">
-        <v>7.108808044070776E-31</v>
+        <v>7.108808044072812E-31</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -9623,25 +9623,25 @@
         <v>28</v>
       </c>
       <c r="B37">
-        <v>0.7339185828319532</v>
+        <v>0.159919149930394</v>
       </c>
       <c r="C37">
-        <v>0.9069702746172632</v>
+        <v>0.1976267105395521</v>
       </c>
       <c r="D37">
-        <v>1.088572332757491</v>
+        <v>0.2371973760639661</v>
       </c>
       <c r="E37">
-        <v>0.9436660228152735</v>
+        <v>0.2056226286088855</v>
       </c>
       <c r="F37">
-        <v>1.040270149520462</v>
+        <v>0.2266724428305799</v>
       </c>
       <c r="G37">
-        <v>-11.04659148566053</v>
+        <v>-11.04659148566052</v>
       </c>
       <c r="H37">
-        <v>7.583047286364113E-27</v>
+        <v>7.583047286364822E-27</v>
       </c>
       <c r="I37" t="s">
         <v>11</v>
@@ -9709,10 +9709,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.029279290406623E-06</v>
+        <v>8.414958430105356E-05</v>
       </c>
       <c r="E2">
-        <v>3.535488589272549E-06</v>
+        <v>0.0002890468096087605</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -9738,22 +9738,22 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>1.229456366196049E-06</v>
+        <v>0.0001005152275927067</v>
       </c>
       <c r="C3">
-        <v>2.295647741500013E-06</v>
+        <v>0.0001876825900893843</v>
       </c>
       <c r="D3">
-        <v>5.140717669741216E-06</v>
+        <v>0.0004202836479367102</v>
       </c>
       <c r="E3">
-        <v>3.926597564972227E-06</v>
+        <v>0.0003210222491500892</v>
       </c>
       <c r="F3">
-        <v>1.517370628395308E-05</v>
+        <v>0.001240538975185738</v>
       </c>
       <c r="G3">
-        <v>-84.40445453825664</v>
+        <v>-84.40445453825666</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9773,19 +9773,19 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>1.019602305625022E-06</v>
+        <v>8.33584343631804E-05</v>
       </c>
       <c r="C4">
-        <v>2.15356897685078E-06</v>
+        <v>0.000176066822537589</v>
       </c>
       <c r="D4">
-        <v>4.511234360004412E-06</v>
+        <v>0.000368819716492139</v>
       </c>
       <c r="E4">
-        <v>3.810117751849839E-06</v>
+        <v>0.0003114993451675938</v>
       </c>
       <c r="F4">
-        <v>1.987828619318637E-05</v>
+        <v>0.001625165817834706</v>
       </c>
       <c r="G4">
         <v>-107.1575617064267</v>
@@ -9817,16 +9817,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.692278429105713E-06</v>
+        <v>0.0003836211249116429</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.665318417279807</v>
+        <v>2.665318417279806</v>
       </c>
       <c r="H5">
-        <v>0.007815620851171714</v>
+        <v>0.007815620851171726</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -9852,16 +9852,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.692278429105713E-06</v>
+        <v>0.0003836211249116429</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.665318417279807</v>
+        <v>2.665318417279806</v>
       </c>
       <c r="H6">
-        <v>0.007815620851171714</v>
+        <v>0.007815620851171726</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -9878,22 +9878,22 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>1.019602305625022E-06</v>
+        <v>8.33584343631804E-05</v>
       </c>
       <c r="C7">
-        <v>2.15356897685078E-06</v>
+        <v>0.000176066822537589</v>
       </c>
       <c r="D7">
-        <v>4.511234360004412E-06</v>
+        <v>0.000368819716492139</v>
       </c>
       <c r="E7">
-        <v>3.810117751849839E-06</v>
+        <v>0.0003114993451675938</v>
       </c>
       <c r="F7">
-        <v>1.871654531888615E-05</v>
+        <v>0.001530186726591856</v>
       </c>
       <c r="G7">
-        <v>-99.4099879938904</v>
+        <v>-99.40998799389041</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -9922,16 +9922,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.433950187273936E-06</v>
+        <v>0.0002807454531174616</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.357948436731269</v>
+        <v>3.35794843673127</v>
       </c>
       <c r="H8">
-        <v>0.0008148708734221448</v>
+        <v>0.0008148708734221432</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.029279290406623E-06</v>
+        <v>8.414958430105356E-05</v>
       </c>
       <c r="E9">
-        <v>3.535488589272549E-06</v>
+        <v>0.0002890468096087605</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9992,16 +9992,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4.692278429105713E-06</v>
+        <v>0.0003836211249116429</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.665318417279807</v>
+        <v>2.665318417279806</v>
       </c>
       <c r="H10">
-        <v>0.007815620851171714</v>
+        <v>0.007815620851171726</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -10027,16 +10027,16 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.433950187273936E-06</v>
+        <v>0.0002807454531174616</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.357948436731269</v>
+        <v>3.35794843673127</v>
       </c>
       <c r="H11">
-        <v>0.0008148708734221448</v>
+        <v>0.0008148708734221432</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -10059,10 +10059,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.029279290406623E-06</v>
+        <v>8.414958430105356E-05</v>
       </c>
       <c r="E12">
-        <v>3.535488589272549E-06</v>
+        <v>0.0002890468096087605</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.029279290406623E-06</v>
+        <v>8.414958430105356E-05</v>
       </c>
       <c r="E13">
-        <v>3.535488589272549E-06</v>
+        <v>0.0002890468096087605</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.029279290406623E-06</v>
+        <v>8.414958430105356E-05</v>
       </c>
       <c r="E14">
-        <v>3.535488589272549E-06</v>
+        <v>0.0002890468096087605</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -10164,10 +10164,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.029279290406623E-06</v>
+        <v>8.414958430105356E-05</v>
       </c>
       <c r="E15">
-        <v>3.535488589272549E-06</v>
+        <v>0.0002890468096087605</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3.433950187273936E-06</v>
+        <v>0.0002807454531174616</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.357948436731269</v>
+        <v>3.35794843673127</v>
       </c>
       <c r="H16">
-        <v>0.0008148708734221448</v>
+        <v>0.0008148708734221432</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -10234,19 +10234,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.029279290406623E-06</v>
+        <v>8.414958430105356E-05</v>
       </c>
       <c r="E17">
-        <v>3.535488589272549E-06</v>
+        <v>0.0002890468096087605</v>
       </c>
       <c r="F17">
-        <v>2.881982013138544E-06</v>
+        <v>0.00023561883604295</v>
       </c>
       <c r="G17">
-        <v>0.8520535347909832</v>
+        <v>0.8520535347909824</v>
       </c>
       <c r="H17">
-        <v>0.3943885895725507</v>
+        <v>0.3943885895725512</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
@@ -10272,16 +10272,16 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.433950187273936E-06</v>
+        <v>0.0002807454531174616</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.357948436731269</v>
+        <v>3.35794843673127</v>
       </c>
       <c r="H18">
-        <v>0.0008148708734221448</v>
+        <v>0.0008148708734221432</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -10307,16 +10307,16 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.692278429105713E-06</v>
+        <v>0.0003836211249116429</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.665318417279807</v>
+        <v>2.665318417279806</v>
       </c>
       <c r="H19">
-        <v>0.007815620851171714</v>
+        <v>0.007815620851171726</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -10336,22 +10336,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.293693729301194E-07</v>
+        <v>2.692786697633713E-05</v>
       </c>
       <c r="D20">
-        <v>1.33806307752861E-06</v>
+        <v>0.0001093944595913696</v>
       </c>
       <c r="E20">
-        <v>3.504174482327412E-06</v>
+        <v>0.0002864866987557081</v>
       </c>
       <c r="F20">
-        <v>6.587387458602387E-07</v>
+        <v>5.385573395267427E-05</v>
       </c>
       <c r="G20">
-        <v>4.768749146057242</v>
+        <v>4.768749146057241</v>
       </c>
       <c r="H20">
-        <v>2.12922435975681E-06</v>
+        <v>2.129224359756825E-06</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -10371,13 +10371,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.293693729301194E-07</v>
+        <v>2.692786697633713E-05</v>
       </c>
       <c r="D21">
-        <v>1.33806307752861E-06</v>
+        <v>0.0001093944595913696</v>
       </c>
       <c r="E21">
-        <v>3.504174482327412E-06</v>
+        <v>0.0002864866987557081</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -10409,19 +10409,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.029279290406623E-06</v>
+        <v>8.414958430105356E-05</v>
       </c>
       <c r="E22">
-        <v>3.535488589272549E-06</v>
+        <v>0.0002890468096087605</v>
       </c>
       <c r="F22">
-        <v>2.881982013138544E-06</v>
+        <v>0.00023561883604295</v>
       </c>
       <c r="G22">
-        <v>0.8520535347909832</v>
+        <v>0.8520535347909824</v>
       </c>
       <c r="H22">
-        <v>0.3943885895725507</v>
+        <v>0.3943885895725512</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
@@ -10444,10 +10444,10 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.029279290406623E-06</v>
+        <v>8.414958430105356E-05</v>
       </c>
       <c r="E23">
-        <v>3.535488589272549E-06</v>
+        <v>0.0002890468096087605</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -10482,16 +10482,16 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3.433950187273936E-06</v>
+        <v>0.0002807454531174616</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.357948436731269</v>
+        <v>3.35794843673127</v>
       </c>
       <c r="H24">
-        <v>0.0008148708734221448</v>
+        <v>0.0008148708734221432</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -10517,16 +10517,16 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.692278429105713E-06</v>
+        <v>0.0003836211249116429</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.665318417279807</v>
+        <v>2.665318417279806</v>
       </c>
       <c r="H25">
-        <v>0.007815620851171714</v>
+        <v>0.007815620851171726</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -10552,16 +10552,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>4.692278429105713E-06</v>
+        <v>0.0003836211249116429</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>2.665318417279807</v>
+        <v>2.665318417279806</v>
       </c>
       <c r="H26">
-        <v>0.007815620851171714</v>
+        <v>0.007815620851171726</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -10587,16 +10587,16 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>4.692278429105713E-06</v>
+        <v>0.0003836211249116429</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2.665318417279807</v>
+        <v>2.665318417279806</v>
       </c>
       <c r="H27">
-        <v>0.007815620851171714</v>
+        <v>0.007815620851171726</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -10619,13 +10619,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1.029279290406623E-06</v>
+        <v>8.414958430105356E-05</v>
       </c>
       <c r="E28">
-        <v>3.535488589272549E-06</v>
+        <v>0.0002890468096087605</v>
       </c>
       <c r="F28">
-        <v>2.058558580813246E-07</v>
+        <v>1.682991686021071E-05</v>
       </c>
       <c r="G28">
         <v>4.341234567141513</v>
@@ -10657,16 +10657,16 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>3.433950187273936E-06</v>
+        <v>0.0002807454531174616</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>3.357948436731269</v>
+        <v>3.35794843673127</v>
       </c>
       <c r="H29">
-        <v>0.0008148708734221448</v>
+        <v>0.0008148708734221432</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -10692,16 +10692,16 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>3.433950187273936E-06</v>
+        <v>0.0002807454531174616</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>3.357948436731269</v>
+        <v>3.35794843673127</v>
       </c>
       <c r="H30">
-        <v>0.0008148708734221448</v>
+        <v>0.0008148708734221432</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -10721,22 +10721,22 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1.235135148487948E-07</v>
+        <v>1.009795011612643E-05</v>
       </c>
       <c r="D31">
-        <v>1.111621633639153E-06</v>
+        <v>9.088155104513784E-05</v>
       </c>
       <c r="E31">
-        <v>3.742078666581031E-06</v>
+        <v>0.0003059367531724393</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>5.453415859903124</v>
+        <v>5.453415859903123</v>
       </c>
       <c r="H31">
-        <v>6.228297211241932E-08</v>
+        <v>6.228297211241957E-08</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -10762,16 +10762,16 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>3.433950187273936E-06</v>
+        <v>0.0002807454531174616</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>3.357948436731269</v>
+        <v>3.35794843673127</v>
       </c>
       <c r="H32">
-        <v>0.0008148708734221448</v>
+        <v>0.0008148708734221432</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -10791,16 +10791,16 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3.293693729301194E-07</v>
+        <v>2.692786697633713E-05</v>
       </c>
       <c r="D33">
-        <v>1.33806307752861E-06</v>
+        <v>0.0001093944595913696</v>
       </c>
       <c r="E33">
-        <v>3.504174482327412E-06</v>
+        <v>0.0002864866987557081</v>
       </c>
       <c r="F33">
-        <v>1.646846864650597E-07</v>
+        <v>1.346393348816857E-05</v>
       </c>
       <c r="G33">
         <v>5.596748824156474</v>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>3.433950187273936E-06</v>
+        <v>0.0002807454531174616</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>3.357948436731269</v>
+        <v>3.35794843673127</v>
       </c>
       <c r="H34">
-        <v>0.0008148708734221448</v>
+        <v>0.0008148708734221432</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
@@ -10861,13 +10861,13 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>3.293693729301194E-07</v>
+        <v>2.692786697633713E-05</v>
       </c>
       <c r="D35">
-        <v>1.33806307752861E-06</v>
+        <v>0.0001093944595913696</v>
       </c>
       <c r="E35">
-        <v>3.504174482327412E-06</v>
+        <v>0.0002864866987557081</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -10896,22 +10896,22 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.235135148487948E-07</v>
+        <v>1.009795011612643E-05</v>
       </c>
       <c r="D36">
-        <v>1.111621633639153E-06</v>
+        <v>9.088155104513784E-05</v>
       </c>
       <c r="E36">
-        <v>3.742078666581031E-06</v>
+        <v>0.0003059367531724393</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>5.453415859903124</v>
+        <v>5.453415859903123</v>
       </c>
       <c r="H36">
-        <v>6.228297211241932E-08</v>
+        <v>6.228297211241957E-08</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
@@ -10931,22 +10931,22 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1.235135148487948E-07</v>
+        <v>1.009795011612643E-05</v>
       </c>
       <c r="D37">
-        <v>1.111621633639153E-06</v>
+        <v>9.088155104513784E-05</v>
       </c>
       <c r="E37">
-        <v>3.742078666581031E-06</v>
+        <v>0.0003059367531724393</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>5.453415859903124</v>
+        <v>5.453415859903123</v>
       </c>
       <c r="H37">
-        <v>6.228297211241932E-08</v>
+        <v>6.228297211241957E-08</v>
       </c>
       <c r="I37" t="s">
         <v>10</v>

--- a/data/procon/threshold_100/group distribution statistic information.xlsx
+++ b/data/procon/threshold_100/group distribution statistic information.xlsx
@@ -15,14 +15,13 @@
     <sheet name="closeness centrality" sheetId="6" r:id="rId6"/>
     <sheet name="average shortest length" sheetId="7" r:id="rId7"/>
     <sheet name="co-conservation" sheetId="8" r:id="rId8"/>
-    <sheet name="edge betweenness centrality" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="46">
   <si>
     <t>a quarter of a quintile</t>
   </si>
@@ -560,25 +559,25 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.2451185214335987</v>
+        <v>0.2508554802001512</v>
       </c>
       <c r="C2">
-        <v>0.2920164796878616</v>
+        <v>0.2929453041918639</v>
       </c>
       <c r="D2">
-        <v>0.344299680731069</v>
+        <v>0.3370085568586507</v>
       </c>
       <c r="E2">
-        <v>0.2953482223813985</v>
+        <v>0.2939664002807692</v>
       </c>
       <c r="F2">
         <v>0.3156538008891354</v>
       </c>
       <c r="G2">
-        <v>-9.112321872744793</v>
+        <v>-10.42097906080625</v>
       </c>
       <c r="H2">
-        <v>4.305405907947582E-19</v>
+        <v>3.286491761272087E-24</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -595,25 +594,25 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.249130646206714</v>
+        <v>0.2441307408131063</v>
       </c>
       <c r="C3">
-        <v>0.2948352821528299</v>
+        <v>0.2910909648375364</v>
       </c>
       <c r="D3">
-        <v>0.3392859916308979</v>
+        <v>0.3376542784442575</v>
       </c>
       <c r="E3">
-        <v>0.2947957660607169</v>
+        <v>0.2925667361111165</v>
       </c>
       <c r="F3">
         <v>0.3338718317363307</v>
       </c>
       <c r="G3">
-        <v>-18.45476419363993</v>
+        <v>-19.93620976003866</v>
       </c>
       <c r="H3">
-        <v>1.14961076377013E-65</v>
+        <v>1.038083168802935E-74</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -630,25 +629,25 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.2494010084209977</v>
+        <v>0.2516900786095968</v>
       </c>
       <c r="C4">
-        <v>0.2908399066180873</v>
+        <v>0.295979929615819</v>
       </c>
       <c r="D4">
-        <v>0.3361854781068278</v>
+        <v>0.3445263967238945</v>
       </c>
       <c r="E4">
-        <v>0.2933389648749277</v>
+        <v>0.2964671431565118</v>
       </c>
       <c r="F4">
         <v>0.3320494238201074</v>
       </c>
       <c r="G4">
-        <v>-18.7567672056426</v>
+        <v>-16.86596001792179</v>
       </c>
       <c r="H4">
-        <v>1.750153348381679E-67</v>
+        <v>2.363736739396053E-56</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -665,25 +664,25 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.1993081413841379</v>
+        <v>0.1914541850465212</v>
       </c>
       <c r="C5">
-        <v>0.2906605929945917</v>
+        <v>0.2745072921630516</v>
       </c>
       <c r="D5">
-        <v>0.3847006242234243</v>
+        <v>0.3711641382005613</v>
       </c>
       <c r="E5">
-        <v>0.2970555390801716</v>
+        <v>0.2850519441765589</v>
       </c>
       <c r="F5">
         <v>0.2031561587610839</v>
       </c>
       <c r="G5">
-        <v>22.65256813643278</v>
+        <v>19.92236367029398</v>
       </c>
       <c r="H5">
-        <v>5.161891526771322E-92</v>
+        <v>1.265305546263447E-74</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -700,25 +699,25 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>0.205947674832577</v>
+        <v>0.208437598624935</v>
       </c>
       <c r="C6">
-        <v>0.2882590594037052</v>
+        <v>0.2905114627815479</v>
       </c>
       <c r="D6">
-        <v>0.3824751182820822</v>
+        <v>0.3748895532986855</v>
       </c>
       <c r="E6">
-        <v>0.2950095708984894</v>
+        <v>0.2921162476540824</v>
       </c>
       <c r="F6">
         <v>0.1777616389159484</v>
       </c>
       <c r="G6">
-        <v>28.96051827838309</v>
+        <v>28.93987876715861</v>
       </c>
       <c r="H6">
-        <v>2.229899023026953E-134</v>
+        <v>3.087202076500867E-134</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -735,25 +734,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1689341001207445</v>
+        <v>0.1698133010193522</v>
       </c>
       <c r="C7">
-        <v>0.2702087890327568</v>
+        <v>0.2601285690915133</v>
       </c>
       <c r="D7">
-        <v>0.4145902640371903</v>
+        <v>0.4169405686193575</v>
       </c>
       <c r="E7">
-        <v>0.2884263817843233</v>
+        <v>0.2841045195630386</v>
       </c>
       <c r="F7">
         <v>0.3528146888025075</v>
       </c>
       <c r="G7">
-        <v>-11.59850936378713</v>
+        <v>-12.17283472936753</v>
       </c>
       <c r="H7">
-        <v>2.859189240116928E-29</v>
+        <v>6.934012903504761E-32</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -770,25 +769,25 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1859712525666382</v>
+        <v>0.1891858287610205</v>
       </c>
       <c r="C8">
-        <v>0.2855255870985078</v>
+        <v>0.2858131626315694</v>
       </c>
       <c r="D8">
-        <v>0.3878052086380236</v>
+        <v>0.3887292156074575</v>
       </c>
       <c r="E8">
-        <v>0.2910512741265491</v>
+        <v>0.2932700589120793</v>
       </c>
       <c r="F8">
         <v>0.4039649480131867</v>
       </c>
       <c r="G8">
-        <v>-24.88467931505823</v>
+        <v>-24.27904440005865</v>
       </c>
       <c r="H8">
-        <v>9.440280754092254E-107</v>
+        <v>1.023868612999917E-102</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -805,28 +804,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1993081413841379</v>
+        <v>0.1914541850465212</v>
       </c>
       <c r="C9">
-        <v>0.2906605929945917</v>
+        <v>0.2745072921630516</v>
       </c>
       <c r="D9">
-        <v>0.3847006242234243</v>
+        <v>0.3711641382005613</v>
       </c>
       <c r="E9">
-        <v>0.2970555390801716</v>
+        <v>0.2850519441765589</v>
       </c>
       <c r="F9">
         <v>0.2786542053836842</v>
       </c>
       <c r="G9">
-        <v>4.439192931246473</v>
+        <v>1.556344789326777</v>
       </c>
       <c r="H9">
-        <v>1.003452202762685E-05</v>
+        <v>0.11994284888053</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
@@ -840,25 +839,25 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.1789131461638245</v>
+        <v>0.1724228290556838</v>
       </c>
       <c r="C10">
-        <v>0.2924226845872399</v>
+        <v>0.2934716797571773</v>
       </c>
       <c r="D10">
-        <v>0.3996028980790262</v>
+        <v>0.3938605963130757</v>
       </c>
       <c r="E10">
-        <v>0.2943360426942978</v>
+        <v>0.2922760249970618</v>
       </c>
       <c r="F10">
         <v>0.2781493571529415</v>
       </c>
       <c r="G10">
-        <v>3.20639292005206</v>
+        <v>2.713202096052618</v>
       </c>
       <c r="H10">
-        <v>0.001386774934990202</v>
+        <v>0.006778258878455114</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -875,25 +874,25 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>0.2089823724673085</v>
+        <v>0.2117440690222845</v>
       </c>
       <c r="C11">
-        <v>0.2896906720664734</v>
+        <v>0.2888825009592751</v>
       </c>
       <c r="D11">
-        <v>0.3767395881498862</v>
+        <v>0.3647845325121156</v>
       </c>
       <c r="E11">
-        <v>0.2936578277266208</v>
+        <v>0.2908962010728235</v>
       </c>
       <c r="F11">
         <v>0.2541151390444946</v>
       </c>
       <c r="G11">
-        <v>10.56638089269997</v>
+        <v>9.733000822539646</v>
       </c>
       <c r="H11">
-        <v>8.214149063601569E-25</v>
+        <v>1.887520157469239E-21</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -910,25 +909,25 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.1789131461638245</v>
+        <v>0.1724228290556838</v>
       </c>
       <c r="C12">
-        <v>0.2924226845872399</v>
+        <v>0.2934716797571773</v>
       </c>
       <c r="D12">
-        <v>0.3996028980790262</v>
+        <v>0.3938605963130757</v>
       </c>
       <c r="E12">
-        <v>0.2943360426942978</v>
+        <v>0.2922760249970618</v>
       </c>
       <c r="F12">
         <v>0.3276877940572347</v>
       </c>
       <c r="G12">
-        <v>-6.606591520434138</v>
+        <v>-6.801270271175963</v>
       </c>
       <c r="H12">
-        <v>6.383974977590835E-11</v>
+        <v>1.782916269477912E-11</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -945,25 +944,25 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>0.1789131461638245</v>
+        <v>0.1724228290556838</v>
       </c>
       <c r="C13">
-        <v>0.2924226845872399</v>
+        <v>0.2934716797571773</v>
       </c>
       <c r="D13">
-        <v>0.3996028980790262</v>
+        <v>0.3938605963130757</v>
       </c>
       <c r="E13">
-        <v>0.2943360426942978</v>
+        <v>0.2922760249970618</v>
       </c>
       <c r="F13">
         <v>0.4486703961960263</v>
       </c>
       <c r="G13">
-        <v>-30.57182874927786</v>
+        <v>-30.0374823298811</v>
       </c>
       <c r="H13">
-        <v>1.98682376072568E-145</v>
+        <v>9.252387509179039E-142</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -980,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.1993081413841379</v>
+        <v>0.1914541850465212</v>
       </c>
       <c r="C14">
-        <v>0.2906605929945917</v>
+        <v>0.2745072921630516</v>
       </c>
       <c r="D14">
-        <v>0.3847006242234243</v>
+        <v>0.3711641382005613</v>
       </c>
       <c r="E14">
-        <v>0.2970555390801716</v>
+        <v>0.2850519441765589</v>
       </c>
       <c r="F14">
         <v>0.3825146085004966</v>
       </c>
       <c r="G14">
-        <v>-20.61640222056428</v>
+        <v>-23.70923769870057</v>
       </c>
       <c r="H14">
-        <v>5.791803669147581E-79</v>
+        <v>6.074538598803501E-99</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1015,25 +1014,25 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0.01766825371613201</v>
+        <v>0.04252510246323681</v>
       </c>
       <c r="C15">
-        <v>0.3044607096404629</v>
+        <v>0.3061456888268668</v>
       </c>
       <c r="D15">
-        <v>0.4499644050362682</v>
+        <v>0.4497970928793311</v>
       </c>
       <c r="E15">
-        <v>0.2901266409796713</v>
+        <v>0.2852683770914861</v>
       </c>
       <c r="F15">
         <v>0.4590521492700178</v>
       </c>
       <c r="G15">
-        <v>-21.3906857637316</v>
+        <v>-22.5748587974104</v>
       </c>
       <c r="H15">
-        <v>7.124724089313854E-84</v>
+        <v>1.654160021678683E-91</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1050,25 +1049,25 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.01766825371613201</v>
+        <v>0.04252510246323681</v>
       </c>
       <c r="C16">
-        <v>0.3044607096404629</v>
+        <v>0.3061456888268668</v>
       </c>
       <c r="D16">
-        <v>0.4499644050362682</v>
+        <v>0.4497970928793311</v>
       </c>
       <c r="E16">
-        <v>0.2901266409796713</v>
+        <v>0.2852683770914861</v>
       </c>
       <c r="F16">
         <v>0.5998041452977207</v>
       </c>
       <c r="G16">
-        <v>-39.21381826821819</v>
+        <v>-40.85882395679707</v>
       </c>
       <c r="H16">
-        <v>2.285560974067799E-204</v>
+        <v>2.348104584601318E-215</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1085,25 +1084,25 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.205947674832577</v>
+        <v>0.208437598624935</v>
       </c>
       <c r="C17">
-        <v>0.2882590594037052</v>
+        <v>0.2905114627815479</v>
       </c>
       <c r="D17">
-        <v>0.3824751182820822</v>
+        <v>0.3748895532986855</v>
       </c>
       <c r="E17">
-        <v>0.2950095708984894</v>
+        <v>0.2921162476540824</v>
       </c>
       <c r="F17">
         <v>0.3247721586557626</v>
       </c>
       <c r="G17">
-        <v>-7.351430018269657</v>
+        <v>-8.264276497888082</v>
       </c>
       <c r="H17">
-        <v>4.076087509822827E-13</v>
+        <v>4.436690696900085E-16</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -1120,25 +1119,25 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.205947674832577</v>
+        <v>0.208437598624935</v>
       </c>
       <c r="C18">
-        <v>0.2882590594037052</v>
+        <v>0.2905114627815479</v>
       </c>
       <c r="D18">
-        <v>0.3824751182820822</v>
+        <v>0.3748895532986855</v>
       </c>
       <c r="E18">
-        <v>0.2950095708984894</v>
+        <v>0.2921162476540824</v>
       </c>
       <c r="F18">
         <v>0.4090717414986191</v>
       </c>
       <c r="G18">
-        <v>-28.17362763403783</v>
+        <v>-29.59808835308765</v>
       </c>
       <c r="H18">
-        <v>5.344152430860978E-129</v>
+        <v>9.554438986205616E-139</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1155,25 +1154,25 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.205947674832577</v>
+        <v>0.208437598624935</v>
       </c>
       <c r="C19">
-        <v>0.2882590594037052</v>
+        <v>0.2905114627815479</v>
       </c>
       <c r="D19">
-        <v>0.3824751182820822</v>
+        <v>0.3748895532986855</v>
       </c>
       <c r="E19">
-        <v>0.2950095708984894</v>
+        <v>0.2921162476540824</v>
       </c>
       <c r="F19">
         <v>0.21288938918668</v>
       </c>
       <c r="G19">
-        <v>20.28388034889293</v>
+        <v>20.0500504916237</v>
       </c>
       <c r="H19">
-        <v>7.071367876080133E-77</v>
+        <v>2.034668001232019E-75</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1190,25 +1189,25 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.205947674832577</v>
+        <v>0.208437598624935</v>
       </c>
       <c r="C20">
-        <v>0.2882590594037052</v>
+        <v>0.2905114627815479</v>
       </c>
       <c r="D20">
-        <v>0.3824751182820822</v>
+        <v>0.3748895532986855</v>
       </c>
       <c r="E20">
-        <v>0.2950095708984894</v>
+        <v>0.2921162476540824</v>
       </c>
       <c r="F20">
         <v>0.1777616389159484</v>
       </c>
       <c r="G20">
-        <v>28.96051827838309</v>
+        <v>28.93987876715861</v>
       </c>
       <c r="H20">
-        <v>2.229899023026953E-134</v>
+        <v>3.087202076500867E-134</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1225,25 +1224,25 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>0.1689341001207445</v>
+        <v>0.1698133010193522</v>
       </c>
       <c r="C21">
-        <v>0.2702087890327568</v>
+        <v>0.2601285690915133</v>
       </c>
       <c r="D21">
-        <v>0.4145902640371903</v>
+        <v>0.4169405686193575</v>
       </c>
       <c r="E21">
-        <v>0.2884263817843233</v>
+        <v>0.2841045195630386</v>
       </c>
       <c r="F21">
         <v>0.4120373302583394</v>
       </c>
       <c r="G21">
-        <v>-22.26650784493503</v>
+        <v>-22.66483954696479</v>
       </c>
       <c r="H21">
-        <v>1.659233844789435E-89</v>
+        <v>4.294278963477518E-92</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -1260,25 +1259,25 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>0.1357065454690309</v>
+        <v>0.120912961698595</v>
       </c>
       <c r="C22">
-        <v>0.2870921493114185</v>
+        <v>0.2901686096790419</v>
       </c>
       <c r="D22">
-        <v>0.4275894780569452</v>
+        <v>0.4459630294822359</v>
       </c>
       <c r="E22">
-        <v>0.2937450809678271</v>
+        <v>0.2937717833155444</v>
       </c>
       <c r="F22">
         <v>0.3061954294765297</v>
       </c>
       <c r="G22">
-        <v>-1.946906771513072</v>
+        <v>-1.898758021891821</v>
       </c>
       <c r="H22">
-        <v>0.05182587824203244</v>
+        <v>0.05788422110596576</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -1295,25 +1294,25 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.1689341001207445</v>
+        <v>0.1698133010193522</v>
       </c>
       <c r="C23">
-        <v>0.2702087890327568</v>
+        <v>0.2601285690915133</v>
       </c>
       <c r="D23">
-        <v>0.4145902640371903</v>
+        <v>0.4169405686193575</v>
       </c>
       <c r="E23">
-        <v>0.2884263817843233</v>
+        <v>0.2841045195630386</v>
       </c>
       <c r="F23">
         <v>0.4521462600873815</v>
       </c>
       <c r="G23">
-        <v>-29.49148113181219</v>
+        <v>-29.77061994868546</v>
       </c>
       <c r="H23">
-        <v>5.141140874121235E-138</v>
+        <v>6.266892522649339E-140</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1330,25 +1329,25 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.2089823724673085</v>
+        <v>0.2117440690222845</v>
       </c>
       <c r="C24">
-        <v>0.2896906720664734</v>
+        <v>0.2888825009592751</v>
       </c>
       <c r="D24">
-        <v>0.3767395881498862</v>
+        <v>0.3647845325121156</v>
       </c>
       <c r="E24">
-        <v>0.2936578277266208</v>
+        <v>0.2908962010728235</v>
       </c>
       <c r="F24">
         <v>0.4530329977658702</v>
       </c>
       <c r="G24">
-        <v>-42.58736083959639</v>
+        <v>-42.90462233966832</v>
       </c>
       <c r="H24">
-        <v>8.794150653059659E-227</v>
+        <v>7.264003865901485E-229</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -1365,25 +1364,25 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>0.1859712525666382</v>
+        <v>0.1891858287610205</v>
       </c>
       <c r="C25">
-        <v>0.2855255870985078</v>
+        <v>0.2858131626315694</v>
       </c>
       <c r="D25">
-        <v>0.3878052086380236</v>
+        <v>0.3887292156074575</v>
       </c>
       <c r="E25">
-        <v>0.2910512741265491</v>
+        <v>0.2932700589120793</v>
       </c>
       <c r="F25">
         <v>0.4576793111206031</v>
       </c>
       <c r="G25">
-        <v>-36.72261403572482</v>
+        <v>-36.06037791415302</v>
       </c>
       <c r="H25">
-        <v>1.523736016138335E-187</v>
+        <v>4.859928544347117E-183</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -1400,25 +1399,25 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>0.1357065454690309</v>
+        <v>0.120912961698595</v>
       </c>
       <c r="C26">
-        <v>0.2870921493114185</v>
+        <v>0.2901686096790419</v>
       </c>
       <c r="D26">
-        <v>0.4275894780569452</v>
+        <v>0.4459630294822359</v>
       </c>
       <c r="E26">
-        <v>0.2937450809678271</v>
+        <v>0.2937717833155444</v>
       </c>
       <c r="F26">
         <v>0.3998694301984805</v>
       </c>
       <c r="G26">
-        <v>-16.59505466816107</v>
+        <v>-16.21534898148153</v>
       </c>
       <c r="H26">
-        <v>8.252838317501423E-55</v>
+        <v>1.136470297707995E-52</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -1435,25 +1434,25 @@
         <v>19</v>
       </c>
       <c r="B27">
-        <v>0.205947674832577</v>
+        <v>0.208437598624935</v>
       </c>
       <c r="C27">
-        <v>0.2882590594037052</v>
+        <v>0.2905114627815479</v>
       </c>
       <c r="D27">
-        <v>0.3824751182820822</v>
+        <v>0.3748895532986855</v>
       </c>
       <c r="E27">
-        <v>0.2950095708984894</v>
+        <v>0.2921162476540824</v>
       </c>
       <c r="F27">
         <v>0.4277359932192328</v>
       </c>
       <c r="G27">
-        <v>-32.78374223450398</v>
+        <v>-34.32147631300089</v>
       </c>
       <c r="H27">
-        <v>1.273572213984528E-160</v>
+        <v>3.641922822218574E-171</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -1470,25 +1469,25 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>0.1993081413841379</v>
+        <v>0.1914541850465212</v>
       </c>
       <c r="C28">
-        <v>0.2906605929945917</v>
+        <v>0.2745072921630516</v>
       </c>
       <c r="D28">
-        <v>0.3847006242234243</v>
+        <v>0.3711641382005613</v>
       </c>
       <c r="E28">
-        <v>0.2970555390801716</v>
+        <v>0.2850519441765589</v>
       </c>
       <c r="F28">
         <v>0.3107038882466394</v>
       </c>
       <c r="G28">
-        <v>-3.292568687808351</v>
+        <v>-6.240215610870934</v>
       </c>
       <c r="H28">
-        <v>0.001027570283692634</v>
+        <v>6.446174512197651E-10</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1505,25 +1504,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.2197214405836867</v>
+        <v>0.2221819283558102</v>
       </c>
       <c r="C29">
-        <v>0.2879382889574014</v>
+        <v>0.2943154504152514</v>
       </c>
       <c r="D29">
-        <v>0.3588847094071729</v>
+        <v>0.3689384569210804</v>
       </c>
       <c r="E29">
-        <v>0.2922286148117355</v>
+        <v>0.2979330346007025</v>
       </c>
       <c r="F29">
         <v>0.3389865015559538</v>
       </c>
       <c r="G29">
-        <v>-13.9070257595662</v>
+        <v>-11.7283943706816</v>
       </c>
       <c r="H29">
-        <v>2.535280362626514E-40</v>
+        <v>7.464365474890477E-30</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1540,25 +1539,25 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>0.1789131461638245</v>
+        <v>0.1724228290556838</v>
       </c>
       <c r="C30">
-        <v>0.2924226845872399</v>
+        <v>0.2934716797571773</v>
       </c>
       <c r="D30">
-        <v>0.3996028980790262</v>
+        <v>0.3938605963130757</v>
       </c>
       <c r="E30">
-        <v>0.2943360426942978</v>
+        <v>0.2922760249970618</v>
       </c>
       <c r="F30">
         <v>0.3843490453981169</v>
       </c>
       <c r="G30">
-        <v>-17.83052211922877</v>
+        <v>-17.68376765834515</v>
       </c>
       <c r="H30">
-        <v>5.903622291842154E-62</v>
+        <v>4.305777498127565E-61</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -1575,25 +1574,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2269987372179207</v>
+        <v>0.2206350033117127</v>
       </c>
       <c r="C31">
-        <v>0.2952472707134591</v>
+        <v>0.2924639457563918</v>
       </c>
       <c r="D31">
-        <v>0.3640230486198063</v>
+        <v>0.3643629751748597</v>
       </c>
       <c r="E31">
-        <v>0.2986121176857424</v>
+        <v>0.2952516547996052</v>
       </c>
       <c r="F31">
         <v>0.3219505290365074</v>
       </c>
       <c r="G31">
-        <v>-7.33779494992305</v>
+        <v>-8.277844362103567</v>
       </c>
       <c r="H31">
-        <v>4.489986315076316E-13</v>
+        <v>3.988398653273832E-16</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -1610,25 +1609,25 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>0.1993081413841379</v>
+        <v>0.1914541850465212</v>
       </c>
       <c r="C32">
-        <v>0.2906605929945917</v>
+        <v>0.2745072921630516</v>
       </c>
       <c r="D32">
-        <v>0.3847006242234243</v>
+        <v>0.3711641382005613</v>
       </c>
       <c r="E32">
-        <v>0.2970555390801716</v>
+        <v>0.2850519441765589</v>
       </c>
       <c r="F32">
         <v>0.3303461949953895</v>
       </c>
       <c r="G32">
-        <v>-8.031137680178229</v>
+        <v>-11.01849786784927</v>
       </c>
       <c r="H32">
-        <v>2.703420358657145E-15</v>
+        <v>1.001843607816417E-26</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -1645,25 +1644,25 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.2269987372179207</v>
+        <v>0.2206350033117127</v>
       </c>
       <c r="C33">
-        <v>0.2952472707134591</v>
+        <v>0.2924639457563918</v>
       </c>
       <c r="D33">
-        <v>0.3640230486198063</v>
+        <v>0.3643629751748597</v>
       </c>
       <c r="E33">
-        <v>0.2986121176857424</v>
+        <v>0.2952516547996052</v>
       </c>
       <c r="F33">
         <v>0.3602461785724954</v>
       </c>
       <c r="G33">
-        <v>-19.37827275048186</v>
+        <v>-20.15120740324703</v>
       </c>
       <c r="H33">
-        <v>2.881170182770969E-71</v>
+        <v>4.766356595845503E-76</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -1680,28 +1679,28 @@
         <v>16</v>
       </c>
       <c r="B34">
-        <v>0.1993081413841379</v>
+        <v>0.1914541850465212</v>
       </c>
       <c r="C34">
-        <v>0.2906605929945917</v>
+        <v>0.2745072921630516</v>
       </c>
       <c r="D34">
-        <v>0.3847006242234243</v>
+        <v>0.3711641382005613</v>
       </c>
       <c r="E34">
-        <v>0.2970555390801716</v>
+        <v>0.2850519441765589</v>
       </c>
       <c r="F34">
         <v>0.3043094981584811</v>
       </c>
       <c r="G34">
-        <v>-1.749966844529825</v>
+        <v>-4.684685443601293</v>
       </c>
       <c r="H34">
-        <v>0.0804310408783815</v>
+        <v>3.191491800033421E-06</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
@@ -1760,22 +1759,22 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.4562525488451414</v>
+        <v>0.4568967115263412</v>
       </c>
       <c r="C2">
-        <v>0.4943647351054758</v>
+        <v>0.4968023579134691</v>
       </c>
       <c r="D2">
-        <v>0.5328754680606533</v>
+        <v>0.5346133170207245</v>
       </c>
       <c r="E2">
-        <v>0.4947881770659548</v>
+        <v>0.495218403588774</v>
       </c>
       <c r="F2">
         <v>0.2945167389611834</v>
       </c>
       <c r="G2">
-        <v>115.0610920843563</v>
+        <v>114.6845085745187</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1795,22 +1794,22 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.4619128056628057</v>
+        <v>0.4595979908479909</v>
       </c>
       <c r="C3">
-        <v>0.4964696839696839</v>
+        <v>0.4976404976404977</v>
       </c>
       <c r="D3">
-        <v>0.5343289718289719</v>
+        <v>0.5331090018590019</v>
       </c>
       <c r="E3">
-        <v>0.4985700164450165</v>
+        <v>0.4967836229086229</v>
       </c>
       <c r="F3">
         <v>0.2489453739453739</v>
       </c>
       <c r="G3">
-        <v>144.2220255566941</v>
+        <v>142.9145826409833</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1830,22 +1829,22 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.4583505919712817</v>
+        <v>0.4611766939353146</v>
       </c>
       <c r="C4">
-        <v>0.4932518725622174</v>
+        <v>0.4973162817990404</v>
       </c>
       <c r="D4">
-        <v>0.5272125573849712</v>
+        <v>0.5325282178730455</v>
       </c>
       <c r="E4">
-        <v>0.4928801042421732</v>
+        <v>0.4975421283352318</v>
       </c>
       <c r="F4">
         <v>0.2459873666770218</v>
       </c>
       <c r="G4">
-        <v>151.222585286766</v>
+        <v>145.4324367494073</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1865,25 +1864,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.4121442871442872</v>
+        <v>0.4193121693121693</v>
       </c>
       <c r="C5">
-        <v>0.498998998998999</v>
+        <v>0.5019305019305018</v>
       </c>
       <c r="D5">
-        <v>0.5750393250393251</v>
+        <v>0.5801515801515802</v>
       </c>
       <c r="E5">
-        <v>0.4949264264264265</v>
+        <v>0.4985865150865151</v>
       </c>
       <c r="F5">
         <v>0.3941798941798942</v>
       </c>
       <c r="G5">
-        <v>27.466037165826</v>
+        <v>29.25034309960549</v>
       </c>
       <c r="H5">
-        <v>3.557115359977625E-124</v>
+        <v>2.309580019990971E-136</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -1900,25 +1899,25 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.4234077827827828</v>
+        <v>0.4185435435435435</v>
       </c>
       <c r="C6">
-        <v>0.491991991991992</v>
+        <v>0.4982482482482482</v>
       </c>
       <c r="D6">
-        <v>0.568506006006006</v>
+        <v>0.5634697197197196</v>
       </c>
       <c r="E6">
-        <v>0.4959152902902904</v>
+        <v>0.4957545045045045</v>
       </c>
       <c r="F6">
         <v>0.3449074074074074</v>
       </c>
       <c r="G6">
-        <v>46.53725550918254</v>
+        <v>44.83581176814162</v>
       </c>
       <c r="H6">
-        <v>2.238527403525224E-252</v>
+        <v>1.916426098719281E-241</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -1935,25 +1934,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3971784284284284</v>
+        <v>0.3996183683683684</v>
       </c>
       <c r="C7">
-        <v>0.4888638638638639</v>
+        <v>0.4981231231231231</v>
       </c>
       <c r="D7">
-        <v>0.6053553553553555</v>
+        <v>0.5991303803803805</v>
       </c>
       <c r="E7">
-        <v>0.4984195445445446</v>
+        <v>0.4997273523523524</v>
       </c>
       <c r="F7">
         <v>0.2407407407407407</v>
       </c>
       <c r="G7">
-        <v>53.77198297251005</v>
+        <v>53.8525884279106</v>
       </c>
       <c r="H7">
-        <v>3.513284596262601E-297</v>
+        <v>1.154411057894533E-297</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -1970,25 +1969,25 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.4085752419085752</v>
+        <v>0.4190857524190859</v>
       </c>
       <c r="C8">
-        <v>0.4950784117450785</v>
+        <v>0.496413079746413</v>
       </c>
       <c r="D8">
-        <v>0.5831664998331665</v>
+        <v>0.5817067067067068</v>
       </c>
       <c r="E8">
-        <v>0.4964333500166834</v>
+        <v>0.5005604771438106</v>
       </c>
       <c r="F8">
         <v>0.2887053720387054</v>
       </c>
       <c r="G8">
-        <v>53.04236821112918</v>
+        <v>55.70569096072306</v>
       </c>
       <c r="H8">
-        <v>8.648179153583093E-293</v>
+        <v>1.115802369691375E-308</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2005,22 +2004,22 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.4121442871442872</v>
+        <v>0.4193121693121693</v>
       </c>
       <c r="C9">
-        <v>0.498998998998999</v>
+        <v>0.5019305019305018</v>
       </c>
       <c r="D9">
-        <v>0.5750393250393251</v>
+        <v>0.5801515801515802</v>
       </c>
       <c r="E9">
-        <v>0.4949264264264265</v>
+        <v>0.4985865150865151</v>
       </c>
       <c r="F9">
         <v>0.2422422422422423</v>
       </c>
       <c r="G9">
-        <v>68.88806035562693</v>
+        <v>71.81688160389814</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2040,22 +2039,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.413013013013013</v>
+        <v>0.4089089089089089</v>
       </c>
       <c r="C10">
-        <v>0.5061061061061061</v>
+        <v>0.4885885885885886</v>
       </c>
       <c r="D10">
-        <v>0.5889139139139139</v>
+        <v>0.5952202202202203</v>
       </c>
       <c r="E10">
-        <v>0.5001837837837838</v>
+        <v>0.4975004004004004</v>
       </c>
       <c r="F10">
         <v>0.1851851851851852</v>
       </c>
       <c r="G10">
-        <v>75.29323765814082</v>
+        <v>72.29519280048464</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2075,22 +2074,22 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.428247692136581</v>
+        <v>0.425022244466689</v>
       </c>
       <c r="C11">
-        <v>0.4916861305750195</v>
+        <v>0.4964408853297743</v>
       </c>
       <c r="D11">
-        <v>0.5648009120231342</v>
+        <v>0.5540818596374153</v>
       </c>
       <c r="E11">
-        <v>0.4974899343788233</v>
+        <v>0.4921879101323546</v>
       </c>
       <c r="F11">
         <v>0.2665999332666</v>
       </c>
       <c r="G11">
-        <v>73.98706643428527</v>
+        <v>74.21166329464896</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2110,22 +2109,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.413013013013013</v>
+        <v>0.4089089089089089</v>
       </c>
       <c r="C12">
-        <v>0.5061061061061061</v>
+        <v>0.4885885885885886</v>
       </c>
       <c r="D12">
-        <v>0.5889139139139139</v>
+        <v>0.5952202202202203</v>
       </c>
       <c r="E12">
-        <v>0.5001837837837838</v>
+        <v>0.4975004004004004</v>
       </c>
       <c r="F12">
         <v>0.1397397397397397</v>
       </c>
       <c r="G12">
-        <v>86.15593590386953</v>
+        <v>82.8149724343983</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2145,22 +2144,22 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>0.413013013013013</v>
+        <v>0.4089089089089089</v>
       </c>
       <c r="C13">
-        <v>0.5061061061061061</v>
+        <v>0.4885885885885886</v>
       </c>
       <c r="D13">
-        <v>0.5889139139139139</v>
+        <v>0.5952202202202203</v>
       </c>
       <c r="E13">
-        <v>0.5001837837837838</v>
+        <v>0.4975004004004004</v>
       </c>
       <c r="F13">
         <v>0.2073073073073073</v>
       </c>
       <c r="G13">
-        <v>70.00544842398654</v>
+        <v>67.17433090820506</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2180,25 +2179,25 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.4121442871442872</v>
+        <v>0.4193121693121693</v>
       </c>
       <c r="C14">
-        <v>0.498998998998999</v>
+        <v>0.5019305019305018</v>
       </c>
       <c r="D14">
-        <v>0.5750393250393251</v>
+        <v>0.5801515801515802</v>
       </c>
       <c r="E14">
-        <v>0.4949264264264265</v>
+        <v>0.4985865150865151</v>
       </c>
       <c r="F14">
         <v>0.3715143715143716</v>
       </c>
       <c r="G14">
-        <v>33.64522838990455</v>
+        <v>35.6002690788341</v>
       </c>
       <c r="H14">
-        <v>1.56466499124957E-166</v>
+        <v>6.641467991486435E-180</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -2215,25 +2214,25 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>0.3447197197197198</v>
+        <v>0.3544794794794794</v>
       </c>
       <c r="C15">
-        <v>0.4954954954954955</v>
+        <v>0.4872372372372372</v>
       </c>
       <c r="D15">
-        <v>0.6358858858858859</v>
+        <v>0.6420170170170171</v>
       </c>
       <c r="E15">
-        <v>0.4940683183183183</v>
+        <v>0.4953440940940941</v>
       </c>
       <c r="F15">
         <v>0.3651151151151151</v>
       </c>
       <c r="G15">
-        <v>19.61475894007484</v>
+        <v>20.35980890705461</v>
       </c>
       <c r="H15">
-        <v>1.012295733930739E-72</v>
+        <v>2.367233828720273E-77</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -2250,25 +2249,25 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>0.3447197197197198</v>
+        <v>0.3544794794794794</v>
       </c>
       <c r="C16">
-        <v>0.4954954954954955</v>
+        <v>0.4872372372372372</v>
       </c>
       <c r="D16">
-        <v>0.6358858858858859</v>
+        <v>0.6420170170170171</v>
       </c>
       <c r="E16">
-        <v>0.4940683183183183</v>
+        <v>0.4953440940940941</v>
       </c>
       <c r="F16">
         <v>0.3053053053053053</v>
       </c>
       <c r="G16">
-        <v>28.71228403080482</v>
+        <v>29.7103874652384</v>
       </c>
       <c r="H16">
-        <v>1.114009370835003E-132</v>
+        <v>1.62236882277684E-139</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -2285,22 +2284,22 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4234077827827828</v>
+        <v>0.4185435435435435</v>
       </c>
       <c r="C17">
-        <v>0.491991991991992</v>
+        <v>0.4982482482482482</v>
       </c>
       <c r="D17">
-        <v>0.568506006006006</v>
+        <v>0.5634697197197196</v>
       </c>
       <c r="E17">
-        <v>0.4959152902902904</v>
+        <v>0.4957545045045045</v>
       </c>
       <c r="F17">
         <v>0.2767142142142142</v>
       </c>
       <c r="G17">
-        <v>67.55287399897998</v>
+        <v>65.10466170106729</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2320,22 +2319,22 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4234077827827828</v>
+        <v>0.4185435435435435</v>
       </c>
       <c r="C18">
-        <v>0.491991991991992</v>
+        <v>0.4982482482482482</v>
       </c>
       <c r="D18">
-        <v>0.568506006006006</v>
+        <v>0.5634697197197196</v>
       </c>
       <c r="E18">
-        <v>0.4959152902902904</v>
+        <v>0.4957545045045045</v>
       </c>
       <c r="F18">
         <v>0.2443068068068068</v>
       </c>
       <c r="G18">
-        <v>77.54011287761766</v>
+        <v>74.73701423799892</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2355,25 +2354,25 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.4234077827827828</v>
+        <v>0.4185435435435435</v>
       </c>
       <c r="C19">
-        <v>0.491991991991992</v>
+        <v>0.4982482482482482</v>
       </c>
       <c r="D19">
-        <v>0.568506006006006</v>
+        <v>0.5634697197197196</v>
       </c>
       <c r="E19">
-        <v>0.4959152902902904</v>
+        <v>0.4957545045045045</v>
       </c>
       <c r="F19">
         <v>0.3653028028028028</v>
       </c>
       <c r="G19">
-        <v>40.25185034617891</v>
+        <v>38.77375206343176</v>
       </c>
       <c r="H19">
-        <v>2.587299991464944E-211</v>
+        <v>2.069388625979305E-201</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -2390,25 +2389,25 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.4234077827827828</v>
+        <v>0.4185435435435435</v>
       </c>
       <c r="C20">
-        <v>0.491991991991992</v>
+        <v>0.4982482482482482</v>
       </c>
       <c r="D20">
-        <v>0.568506006006006</v>
+        <v>0.5634697197197196</v>
       </c>
       <c r="E20">
-        <v>0.4959152902902904</v>
+        <v>0.4957545045045045</v>
       </c>
       <c r="F20">
         <v>0.3449074074074074</v>
       </c>
       <c r="G20">
-        <v>46.53725550918254</v>
+        <v>44.83581176814162</v>
       </c>
       <c r="H20">
-        <v>2.238527403525224E-252</v>
+        <v>1.916426098719281E-241</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -2425,25 +2424,25 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>0.3971784284284284</v>
+        <v>0.3996183683683684</v>
       </c>
       <c r="C21">
-        <v>0.4888638638638639</v>
+        <v>0.4981231231231231</v>
       </c>
       <c r="D21">
-        <v>0.6053553553553555</v>
+        <v>0.5991303803803805</v>
       </c>
       <c r="E21">
-        <v>0.4984195445445446</v>
+        <v>0.4997273523523524</v>
       </c>
       <c r="F21">
         <v>0.2820320320320321</v>
       </c>
       <c r="G21">
-        <v>45.15538517924021</v>
+        <v>45.26665071580384</v>
       </c>
       <c r="H21">
-        <v>1.652580595998655E-243</v>
+        <v>3.16665485740288E-244</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -2460,25 +2459,25 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>0.3711628294961629</v>
+        <v>0.3858024691358025</v>
       </c>
       <c r="C22">
-        <v>0.5083416750083417</v>
+        <v>0.493993993993994</v>
       </c>
       <c r="D22">
-        <v>0.6201618284951619</v>
+        <v>0.6228311644978313</v>
       </c>
       <c r="E22">
-        <v>0.49937003670337</v>
+        <v>0.5034504504504504</v>
       </c>
       <c r="F22">
         <v>0.2897897897897898</v>
       </c>
       <c r="G22">
-        <v>37.41455377741096</v>
+        <v>38.8739282943149</v>
       </c>
       <c r="H22">
-        <v>3.09187946922046E-192</v>
+        <v>4.386710225270515E-202</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -2495,22 +2494,22 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>0.3971784284284284</v>
+        <v>0.3996183683683684</v>
       </c>
       <c r="C23">
-        <v>0.4888638638638639</v>
+        <v>0.4981231231231231</v>
       </c>
       <c r="D23">
-        <v>0.6053553553553555</v>
+        <v>0.5991303803803805</v>
       </c>
       <c r="E23">
-        <v>0.4984195445445446</v>
+        <v>0.4997273523523524</v>
       </c>
       <c r="F23">
         <v>0.2183433433433433</v>
       </c>
       <c r="G23">
-        <v>58.44583450279885</v>
+        <v>58.50980918690183</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2530,22 +2529,22 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.428247692136581</v>
+        <v>0.425022244466689</v>
       </c>
       <c r="C24">
-        <v>0.4916861305750195</v>
+        <v>0.4964408853297743</v>
       </c>
       <c r="D24">
-        <v>0.5648009120231342</v>
+        <v>0.5540818596374153</v>
       </c>
       <c r="E24">
-        <v>0.4974899343788233</v>
+        <v>0.4921879101323546</v>
       </c>
       <c r="F24">
         <v>0.222778333889445</v>
       </c>
       <c r="G24">
-        <v>88.02938775073901</v>
+        <v>88.62765222807381</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2565,22 +2564,22 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>0.4085752419085752</v>
+        <v>0.4190857524190859</v>
       </c>
       <c r="C25">
-        <v>0.4950784117450785</v>
+        <v>0.496413079746413</v>
       </c>
       <c r="D25">
-        <v>0.5831664998331665</v>
+        <v>0.5817067067067068</v>
       </c>
       <c r="E25">
-        <v>0.4964333500166834</v>
+        <v>0.5005604771438106</v>
       </c>
       <c r="F25">
         <v>0.2632632632632633</v>
       </c>
       <c r="G25">
-        <v>59.53889176501303</v>
+        <v>62.39550024396288</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2600,25 +2599,25 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>0.3711628294961629</v>
+        <v>0.3858024691358025</v>
       </c>
       <c r="C26">
-        <v>0.5083416750083417</v>
+        <v>0.493993993993994</v>
       </c>
       <c r="D26">
-        <v>0.6201618284951619</v>
+        <v>0.6228311644978313</v>
       </c>
       <c r="E26">
-        <v>0.49937003670337</v>
+        <v>0.5034504504504504</v>
       </c>
       <c r="F26">
         <v>0.2035368702035369</v>
       </c>
       <c r="G26">
-        <v>52.81254354907706</v>
+        <v>54.56698943530136</v>
       </c>
       <c r="H26">
-        <v>2.11893146213455E-291</v>
+        <v>6.221168394268808E-302</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -2635,22 +2634,22 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>0.4234077827827828</v>
+        <v>0.4185435435435435</v>
       </c>
       <c r="C27">
-        <v>0.491991991991992</v>
+        <v>0.4982482482482482</v>
       </c>
       <c r="D27">
-        <v>0.568506006006006</v>
+        <v>0.5634697197197196</v>
       </c>
       <c r="E27">
-        <v>0.4959152902902904</v>
+        <v>0.4957545045045045</v>
       </c>
       <c r="F27">
         <v>0.2060185185185185</v>
       </c>
       <c r="G27">
-        <v>89.33970784620116</v>
+        <v>86.11732264070581</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2670,22 +2669,22 @@
         <v>17</v>
       </c>
       <c r="B28">
-        <v>0.4121442871442872</v>
+        <v>0.4193121693121693</v>
       </c>
       <c r="C28">
-        <v>0.498998998998999</v>
+        <v>0.5019305019305018</v>
       </c>
       <c r="D28">
-        <v>0.5750393250393251</v>
+        <v>0.5801515801515802</v>
       </c>
       <c r="E28">
-        <v>0.4949264264264265</v>
+        <v>0.4985865150865151</v>
       </c>
       <c r="F28">
         <v>0.2027027027027027</v>
       </c>
       <c r="G28">
-        <v>79.66753274337276</v>
+        <v>82.89419727113288</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2705,22 +2704,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.4325575575575576</v>
+        <v>0.4400423150423151</v>
       </c>
       <c r="C29">
-        <v>0.4953134953134953</v>
+        <v>0.4977932477932479</v>
       </c>
       <c r="D29">
-        <v>0.5560788060788061</v>
+        <v>0.5614364364364365</v>
       </c>
       <c r="E29">
-        <v>0.4955096005096005</v>
+        <v>0.5009432159432159</v>
       </c>
       <c r="F29">
         <v>0.1632086632086632</v>
       </c>
       <c r="G29">
-        <v>117.5884023048538</v>
+        <v>120.6434355354413</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2740,22 +2739,22 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>0.413013013013013</v>
+        <v>0.4089089089089089</v>
       </c>
       <c r="C30">
-        <v>0.5061061061061061</v>
+        <v>0.4885885885885886</v>
       </c>
       <c r="D30">
-        <v>0.5889139139139139</v>
+        <v>0.5952202202202203</v>
       </c>
       <c r="E30">
-        <v>0.5001837837837838</v>
+        <v>0.4975004004004004</v>
       </c>
       <c r="F30">
         <v>0.1914914914914915</v>
       </c>
       <c r="G30">
-        <v>73.78585882668507</v>
+        <v>70.83539959137326</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2775,22 +2774,22 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0.438282032032032</v>
+        <v>0.4376876876876877</v>
       </c>
       <c r="C31">
-        <v>0.4936811811811812</v>
+        <v>0.4941191191191191</v>
       </c>
       <c r="D31">
-        <v>0.5507278111444778</v>
+        <v>0.5512908742075409</v>
       </c>
       <c r="E31">
-        <v>0.4938161911911912</v>
+        <v>0.495918877210544</v>
       </c>
       <c r="F31">
         <v>0.2889973306639973</v>
       </c>
       <c r="G31">
-        <v>77.44329507704603</v>
+        <v>78.43766141694356</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2810,22 +2809,22 @@
         <v>16</v>
       </c>
       <c r="B32">
-        <v>0.4121442871442872</v>
+        <v>0.4193121693121693</v>
       </c>
       <c r="C32">
-        <v>0.498998998998999</v>
+        <v>0.5019305019305018</v>
       </c>
       <c r="D32">
-        <v>0.5750393250393251</v>
+        <v>0.5801515801515802</v>
       </c>
       <c r="E32">
-        <v>0.4949264264264265</v>
+        <v>0.4985865150865151</v>
       </c>
       <c r="F32">
         <v>0.2247247247247247</v>
       </c>
       <c r="G32">
-        <v>73.66377597045103</v>
+        <v>76.7245531020401</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2845,22 +2844,22 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <v>0.438282032032032</v>
+        <v>0.4376876876876877</v>
       </c>
       <c r="C33">
-        <v>0.4936811811811812</v>
+        <v>0.4941191191191191</v>
       </c>
       <c r="D33">
-        <v>0.5507278111444778</v>
+        <v>0.5512908742075409</v>
       </c>
       <c r="E33">
-        <v>0.4938161911911912</v>
+        <v>0.495918877210544</v>
       </c>
       <c r="F33">
         <v>0.2613446780113447</v>
       </c>
       <c r="G33">
-        <v>87.89893638629989</v>
+        <v>88.91994053310701</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2880,22 +2879,22 @@
         <v>18</v>
       </c>
       <c r="B34">
-        <v>0.4121442871442872</v>
+        <v>0.4193121693121693</v>
       </c>
       <c r="C34">
-        <v>0.498998998998999</v>
+        <v>0.5019305019305018</v>
       </c>
       <c r="D34">
-        <v>0.5750393250393251</v>
+        <v>0.5801515801515802</v>
       </c>
       <c r="E34">
-        <v>0.4949264264264265</v>
+        <v>0.4985865150865151</v>
       </c>
       <c r="F34">
         <v>0.1669526669526669</v>
       </c>
       <c r="G34">
-        <v>89.41389114097296</v>
+        <v>92.90985338978996</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2960,25 +2959,25 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.3373120234038922</v>
+        <v>0.3389093098661997</v>
       </c>
       <c r="C2">
-        <v>0.376867380669614</v>
+        <v>0.3741185727155004</v>
       </c>
       <c r="D2">
-        <v>0.4158893505722169</v>
+        <v>0.4122717269416052</v>
       </c>
       <c r="E2">
-        <v>0.3770192200404575</v>
+        <v>0.3756155441342728</v>
       </c>
       <c r="F2">
         <v>0.4268369932140171</v>
       </c>
       <c r="G2">
-        <v>-27.27302508573845</v>
+        <v>-29.51486038607067</v>
       </c>
       <c r="H2">
-        <v>7.310420614549596E-123</v>
+        <v>3.554642561589335E-138</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -2995,25 +2994,25 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.3400405146229617</v>
+        <v>0.3374198662299046</v>
       </c>
       <c r="C3">
-        <v>0.3768250991932746</v>
+        <v>0.3763953376302278</v>
       </c>
       <c r="D3">
-        <v>0.4147074772607811</v>
+        <v>0.4118054229728318</v>
       </c>
       <c r="E3">
-        <v>0.3761312404006247</v>
+        <v>0.3748690808847034</v>
       </c>
       <c r="F3">
         <v>0.4198140618108134</v>
       </c>
       <c r="G3">
-        <v>-24.88506845057787</v>
+        <v>-25.88232879077899</v>
       </c>
       <c r="H3">
-        <v>9.383925187360274E-107</v>
+        <v>1.902355188239894E-113</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -3030,25 +3029,25 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.3384130394268546</v>
+        <v>0.3409994464811115</v>
       </c>
       <c r="C4">
-        <v>0.3741998503719191</v>
+        <v>0.3754338421641832</v>
       </c>
       <c r="D4">
-        <v>0.4126178107622981</v>
+        <v>0.4149352470376442</v>
       </c>
       <c r="E4">
-        <v>0.3761026747640852</v>
+        <v>0.3770307999711482</v>
       </c>
       <c r="F4">
         <v>0.4105342294178899</v>
       </c>
       <c r="G4">
-        <v>-20.34499087746462</v>
+        <v>-19.44311635962466</v>
       </c>
       <c r="H4">
-        <v>2.931226146118856E-77</v>
+        <v>1.152381353340824E-71</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -3065,25 +3064,25 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.2974658828505879</v>
+        <v>0.2885773484734604</v>
       </c>
       <c r="C5">
-        <v>0.3785014038919126</v>
+        <v>0.365962171884279</v>
       </c>
       <c r="D5">
-        <v>0.4563983972856541</v>
+        <v>0.4440995296536143</v>
       </c>
       <c r="E5">
-        <v>0.3778025653492623</v>
+        <v>0.3698809122035885</v>
       </c>
       <c r="F5">
         <v>0.3106378207677036</v>
       </c>
       <c r="G5">
-        <v>19.03843281982579</v>
+        <v>16.96371445864302</v>
       </c>
       <c r="H5">
-        <v>3.431204640966817E-69</v>
+        <v>6.507825054558864E-57</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -3100,25 +3099,25 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.298535099369759</v>
+        <v>0.3049876250441199</v>
       </c>
       <c r="C6">
-        <v>0.3743945761931939</v>
+        <v>0.3734266733653612</v>
       </c>
       <c r="D6">
-        <v>0.450241207066478</v>
+        <v>0.4405396837174181</v>
       </c>
       <c r="E6">
-        <v>0.3774167705179633</v>
+        <v>0.3743905699368013</v>
       </c>
       <c r="F6">
         <v>0.3097831335470881</v>
       </c>
       <c r="G6">
-        <v>19.79566816709539</v>
+        <v>19.92026338819941</v>
       </c>
       <c r="H6">
-        <v>7.719594167261957E-74</v>
+        <v>1.303865401197068E-74</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -3135,25 +3134,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.2597025293604678</v>
+        <v>0.2590232759484981</v>
       </c>
       <c r="C7">
-        <v>0.367939949376462</v>
+        <v>0.3616944233449114</v>
       </c>
       <c r="D7">
-        <v>0.4742118795727984</v>
+        <v>0.4688632814644242</v>
       </c>
       <c r="E7">
-        <v>0.3691521057665587</v>
+        <v>0.3651598979211463</v>
       </c>
       <c r="F7">
         <v>0.381378780128298</v>
       </c>
       <c r="G7">
-        <v>-2.583632697450869</v>
+        <v>-3.404240308377189</v>
       </c>
       <c r="H7">
-        <v>0.009917650265010052</v>
+        <v>0.0006898524235288745</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -3170,25 +3169,25 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2927230193879305</v>
+        <v>0.292857988942802</v>
       </c>
       <c r="C8">
-        <v>0.3720939574164958</v>
+        <v>0.3689090853766947</v>
       </c>
       <c r="D8">
-        <v>0.4510164597233893</v>
+        <v>0.4498802525307429</v>
       </c>
       <c r="E8">
-        <v>0.3740223484974413</v>
+        <v>0.3740797472493697</v>
       </c>
       <c r="F8">
         <v>0.4591060843527621</v>
       </c>
       <c r="G8">
-        <v>-22.40696357299198</v>
+        <v>-22.59839306545174</v>
       </c>
       <c r="H8">
-        <v>2.038943051620114E-90</v>
+        <v>1.162690411759496E-91</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -3205,28 +3204,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.2974658828505879</v>
+        <v>0.2885773484734604</v>
       </c>
       <c r="C9">
-        <v>0.3785014038919126</v>
+        <v>0.365962171884279</v>
       </c>
       <c r="D9">
-        <v>0.4563983972856541</v>
+        <v>0.4440995296536143</v>
       </c>
       <c r="E9">
-        <v>0.3778025653492623</v>
+        <v>0.3698809122035885</v>
       </c>
       <c r="F9">
         <v>0.3830324393870708</v>
       </c>
       <c r="G9">
-        <v>-1.482453423225055</v>
+        <v>-3.765818873195041</v>
       </c>
       <c r="H9">
-        <v>0.1385350585035224</v>
+        <v>0.0001756968119035919</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
@@ -3240,25 +3239,25 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.2799086711500938</v>
+        <v>0.2745598442494604</v>
       </c>
       <c r="C10">
-        <v>0.3728247713863938</v>
+        <v>0.3770356023215423</v>
       </c>
       <c r="D10">
-        <v>0.4691632809063501</v>
+        <v>0.4640811687519868</v>
       </c>
       <c r="E10">
-        <v>0.3758768284187867</v>
+        <v>0.3739860635980467</v>
       </c>
       <c r="F10">
         <v>0.4228958357293573</v>
       </c>
       <c r="G10">
-        <v>-11.27318235192766</v>
+        <v>-11.45777195579424</v>
       </c>
       <c r="H10">
-        <v>7.864496652296873E-28</v>
+        <v>1.209845898893636E-28</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -3275,25 +3274,25 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>0.307980733133274</v>
+        <v>0.3060084976424713</v>
       </c>
       <c r="C11">
-        <v>0.3759235857092704</v>
+        <v>0.3739057938209651</v>
       </c>
       <c r="D11">
-        <v>0.4471354059533017</v>
+        <v>0.4376165271442816</v>
       </c>
       <c r="E11">
-        <v>0.3754592857091636</v>
+        <v>0.374135495091551</v>
       </c>
       <c r="F11">
         <v>0.4188303859069085</v>
       </c>
       <c r="G11">
-        <v>-13.90305749138174</v>
+        <v>-14.45254097410482</v>
       </c>
       <c r="H11">
-        <v>2.655868287937978E-40</v>
+        <v>3.925291142474966E-43</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -3310,25 +3309,25 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.2799086711500938</v>
+        <v>0.2745598442494604</v>
       </c>
       <c r="C12">
-        <v>0.3728247713863938</v>
+        <v>0.3770356023215423</v>
       </c>
       <c r="D12">
-        <v>0.4691632809063501</v>
+        <v>0.4640811687519868</v>
       </c>
       <c r="E12">
-        <v>0.3758768284187867</v>
+        <v>0.3739860635980467</v>
       </c>
       <c r="F12">
         <v>0.4782359247464676</v>
       </c>
       <c r="G12">
-        <v>-24.54141046957106</v>
+        <v>-24.42193212953358</v>
       </c>
       <c r="H12">
-        <v>1.84123560323429E-104</v>
+        <v>1.149218287256676E-103</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -3345,25 +3344,25 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>0.2799086711500938</v>
+        <v>0.2745598442494604</v>
       </c>
       <c r="C13">
-        <v>0.3728247713863938</v>
+        <v>0.3770356023215423</v>
       </c>
       <c r="D13">
-        <v>0.4691632809063501</v>
+        <v>0.4640811687519868</v>
       </c>
       <c r="E13">
-        <v>0.3758768284187867</v>
+        <v>0.3739860635980467</v>
       </c>
       <c r="F13">
         <v>0.5853459950899862</v>
       </c>
       <c r="G13">
-        <v>-50.2219048861094</v>
+        <v>-49.51390673269211</v>
       </c>
       <c r="H13">
-        <v>1.523505583525301E-275</v>
+        <v>3.793137867886232E-271</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -3380,25 +3379,25 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.2974658828505879</v>
+        <v>0.2885773484734604</v>
       </c>
       <c r="C14">
-        <v>0.3785014038919126</v>
+        <v>0.365962171884279</v>
       </c>
       <c r="D14">
-        <v>0.4563983972856541</v>
+        <v>0.4440995296536143</v>
       </c>
       <c r="E14">
-        <v>0.3778025653492623</v>
+        <v>0.3698809122035885</v>
       </c>
       <c r="F14">
         <v>0.4437126989551247</v>
       </c>
       <c r="G14">
-        <v>-18.68280239310979</v>
+        <v>-21.14105321090379</v>
       </c>
       <c r="H14">
-        <v>4.892219800923749E-67</v>
+        <v>2.775326542875371E-82</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -3415,25 +3414,25 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0.1948520221793442</v>
+        <v>0.1916948695911609</v>
       </c>
       <c r="C15">
-        <v>0.3812143262159612</v>
+        <v>0.3836321206693173</v>
       </c>
       <c r="D15">
-        <v>0.5134385338995682</v>
+        <v>0.4864022688304864</v>
       </c>
       <c r="E15">
-        <v>0.3734244151181368</v>
+        <v>0.3669362234019935</v>
       </c>
       <c r="F15">
         <v>0.3912063704748302</v>
       </c>
       <c r="G15">
-        <v>-2.684685947563878</v>
+        <v>-3.769816844122968</v>
       </c>
       <c r="H15">
-        <v>0.007379999866321362</v>
+        <v>0.0001729451896403153</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -3450,25 +3449,25 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.1948520221793442</v>
+        <v>0.1916948695911609</v>
       </c>
       <c r="C16">
-        <v>0.3812143262159612</v>
+        <v>0.3836321206693173</v>
       </c>
       <c r="D16">
-        <v>0.5134385338995682</v>
+        <v>0.4864022688304864</v>
       </c>
       <c r="E16">
-        <v>0.3734244151181368</v>
+        <v>0.3669362234019935</v>
       </c>
       <c r="F16">
         <v>0.580748707735769</v>
       </c>
       <c r="G16">
-        <v>-31.30142910687642</v>
+        <v>-33.21091967453972</v>
       </c>
       <c r="H16">
-        <v>1.935105669572026E-150</v>
+        <v>1.490058168714617E-163</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -3485,25 +3484,25 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.298535099369759</v>
+        <v>0.3049876250441199</v>
       </c>
       <c r="C17">
-        <v>0.3743945761931939</v>
+        <v>0.3734266733653612</v>
       </c>
       <c r="D17">
-        <v>0.450241207066478</v>
+        <v>0.4405396837174181</v>
       </c>
       <c r="E17">
-        <v>0.3774167705179633</v>
+        <v>0.3743905699368013</v>
       </c>
       <c r="F17">
         <v>0.4007046948396679</v>
       </c>
       <c r="G17">
-        <v>-6.816135325849947</v>
+        <v>-8.113374066310103</v>
       </c>
       <c r="H17">
-        <v>1.615308391891066E-11</v>
+        <v>1.436285842021666E-15</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -3520,25 +3519,25 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.298535099369759</v>
+        <v>0.3049876250441199</v>
       </c>
       <c r="C18">
-        <v>0.3743945761931939</v>
+        <v>0.3734266733653612</v>
       </c>
       <c r="D18">
-        <v>0.450241207066478</v>
+        <v>0.4405396837174181</v>
       </c>
       <c r="E18">
-        <v>0.3774167705179633</v>
+        <v>0.3743905699368013</v>
       </c>
       <c r="F18">
         <v>0.4732448899237045</v>
       </c>
       <c r="G18">
-        <v>-28.04790246086775</v>
+        <v>-30.47952683530394</v>
       </c>
       <c r="H18">
-        <v>3.854431443612497E-128</v>
+        <v>8.549757779469739E-145</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -3555,25 +3554,25 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.298535099369759</v>
+        <v>0.3049876250441199</v>
       </c>
       <c r="C19">
-        <v>0.3743945761931939</v>
+        <v>0.3734266733653612</v>
       </c>
       <c r="D19">
-        <v>0.450241207066478</v>
+        <v>0.4405396837174181</v>
       </c>
       <c r="E19">
-        <v>0.3774167705179633</v>
+        <v>0.3743905699368013</v>
       </c>
       <c r="F19">
         <v>0.3162718258358054</v>
       </c>
       <c r="G19">
-        <v>17.89649483946329</v>
+        <v>17.91961970599927</v>
       </c>
       <c r="H19">
-        <v>2.409922344307044E-62</v>
+        <v>1.759691869984447E-62</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -3590,25 +3589,25 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.298535099369759</v>
+        <v>0.3049876250441199</v>
       </c>
       <c r="C20">
-        <v>0.3743945761931939</v>
+        <v>0.3734266733653612</v>
       </c>
       <c r="D20">
-        <v>0.450241207066478</v>
+        <v>0.4405396837174181</v>
       </c>
       <c r="E20">
-        <v>0.3774167705179633</v>
+        <v>0.3743905699368013</v>
       </c>
       <c r="F20">
         <v>0.3129636121750092</v>
       </c>
       <c r="G20">
-        <v>18.864774866799</v>
+        <v>18.93963367265762</v>
       </c>
       <c r="H20">
-        <v>3.887557009296738E-68</v>
+        <v>1.367039811473173E-68</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -3625,25 +3624,25 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>0.2597025293604678</v>
+        <v>0.2590232759484981</v>
       </c>
       <c r="C21">
-        <v>0.367939949376462</v>
+        <v>0.3616944233449114</v>
       </c>
       <c r="D21">
-        <v>0.4742118795727984</v>
+        <v>0.4688632814644242</v>
       </c>
       <c r="E21">
-        <v>0.3691521057665587</v>
+        <v>0.3651598979211463</v>
       </c>
       <c r="F21">
         <v>0.5315652589653119</v>
       </c>
       <c r="G21">
-        <v>-34.31971120564823</v>
+        <v>-34.92742781908966</v>
       </c>
       <c r="H21">
-        <v>3.744678573127276E-171</v>
+        <v>2.607947948713162E-175</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -3660,28 +3659,28 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>0.2641483399871448</v>
+        <v>0.2570734247785033</v>
       </c>
       <c r="C22">
-        <v>0.369163737369558</v>
+        <v>0.3650946380814513</v>
       </c>
       <c r="D22">
-        <v>0.5042501207729819</v>
+        <v>0.5001335272727953</v>
       </c>
       <c r="E22">
-        <v>0.3770577385382685</v>
+        <v>0.3755120876259771</v>
       </c>
       <c r="F22">
         <v>0.3864038703342452</v>
       </c>
       <c r="G22">
-        <v>-1.743649429543033</v>
+        <v>-2.002464265158924</v>
       </c>
       <c r="H22">
-        <v>0.08152784758614846</v>
+        <v>0.04550471019692674</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J22" t="s">
         <v>33</v>
@@ -3695,25 +3694,25 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.2597025293604678</v>
+        <v>0.2590232759484981</v>
       </c>
       <c r="C23">
-        <v>0.367939949376462</v>
+        <v>0.3616944233449114</v>
       </c>
       <c r="D23">
-        <v>0.4742118795727984</v>
+        <v>0.4688632814644242</v>
       </c>
       <c r="E23">
-        <v>0.3691521057665587</v>
+        <v>0.3651598979211463</v>
       </c>
       <c r="F23">
         <v>0.5693207131615803</v>
       </c>
       <c r="G23">
-        <v>-42.29785988963028</v>
+        <v>-42.85205772850173</v>
       </c>
       <c r="H23">
-        <v>7.061371533497398E-225</v>
+        <v>1.60686896640178E-228</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -3730,25 +3729,25 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.307980733133274</v>
+        <v>0.3060084976424713</v>
       </c>
       <c r="C24">
-        <v>0.3759235857092704</v>
+        <v>0.3739057938209651</v>
       </c>
       <c r="D24">
-        <v>0.4471354059533017</v>
+        <v>0.4376165271442816</v>
       </c>
       <c r="E24">
-        <v>0.3754592857091636</v>
+        <v>0.374135495091551</v>
       </c>
       <c r="F24">
         <v>0.5173353669369666</v>
       </c>
       <c r="G24">
-        <v>-45.47985421095343</v>
+        <v>-46.30511402035459</v>
       </c>
       <c r="H24">
-        <v>1.34070911955705E-245</v>
+        <v>6.808540029436575E-251</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -3765,25 +3764,25 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>0.2927230193879305</v>
+        <v>0.292857988942802</v>
       </c>
       <c r="C25">
-        <v>0.3720939574164958</v>
+        <v>0.3689090853766947</v>
       </c>
       <c r="D25">
-        <v>0.4510164597233893</v>
+        <v>0.4498802525307429</v>
       </c>
       <c r="E25">
-        <v>0.3740223484974413</v>
+        <v>0.3740797472493697</v>
       </c>
       <c r="F25">
         <v>0.5453350368948832</v>
       </c>
       <c r="G25">
-        <v>-45.11552213739276</v>
+        <v>-45.51641858029293</v>
       </c>
       <c r="H25">
-        <v>2.988071661978924E-243</v>
+        <v>7.799112253047962E-246</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -3800,25 +3799,25 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>0.2641483399871448</v>
+        <v>0.2570734247785033</v>
       </c>
       <c r="C26">
-        <v>0.369163737369558</v>
+        <v>0.3650946380814513</v>
       </c>
       <c r="D26">
-        <v>0.5042501207729819</v>
+        <v>0.5001335272727953</v>
       </c>
       <c r="E26">
-        <v>0.3770577385382685</v>
+        <v>0.3755120876259771</v>
       </c>
       <c r="F26">
         <v>0.4675051002525688</v>
       </c>
       <c r="G26">
-        <v>-16.87419930507527</v>
+        <v>-16.91299995263628</v>
       </c>
       <c r="H26">
-        <v>2.120576651476868E-56</v>
+        <v>1.271355795681669E-56</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -3835,25 +3834,25 @@
         <v>19</v>
       </c>
       <c r="B27">
-        <v>0.298535099369759</v>
+        <v>0.3049876250441199</v>
       </c>
       <c r="C27">
-        <v>0.3743945761931939</v>
+        <v>0.3734266733653612</v>
       </c>
       <c r="D27">
-        <v>0.450241207066478</v>
+        <v>0.4405396837174181</v>
       </c>
       <c r="E27">
-        <v>0.3774167705179633</v>
+        <v>0.3743905699368013</v>
       </c>
       <c r="F27">
         <v>0.5275101850574346</v>
       </c>
       <c r="G27">
-        <v>-43.93079481396424</v>
+        <v>-47.21102141716283</v>
       </c>
       <c r="H27">
-        <v>1.430075835260807E-235</v>
+        <v>1.15070178313914E-256</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -3870,25 +3869,25 @@
         <v>16</v>
       </c>
       <c r="B28">
-        <v>0.2974658828505879</v>
+        <v>0.2885773484734604</v>
       </c>
       <c r="C28">
-        <v>0.3785014038919126</v>
+        <v>0.365962171884279</v>
       </c>
       <c r="D28">
-        <v>0.4563983972856541</v>
+        <v>0.4440995296536143</v>
       </c>
       <c r="E28">
-        <v>0.3778025653492623</v>
+        <v>0.3698809122035885</v>
       </c>
       <c r="F28">
         <v>0.4165282935375045</v>
       </c>
       <c r="G28">
-        <v>-10.97714551144314</v>
+        <v>-13.35704869568416</v>
       </c>
       <c r="H28">
-        <v>1.508033072041413E-26</v>
+        <v>1.458252711018771E-37</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3905,25 +3904,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.3116108082670239</v>
+        <v>0.3134776442502498</v>
       </c>
       <c r="C29">
-        <v>0.3738624842425794</v>
+        <v>0.3752494232256987</v>
       </c>
       <c r="D29">
-        <v>0.43357878727626</v>
+        <v>0.4407691151495228</v>
       </c>
       <c r="E29">
-        <v>0.3744565609692572</v>
+        <v>0.3783179807303102</v>
       </c>
       <c r="F29">
         <v>0.4308311506439996</v>
       </c>
       <c r="G29">
-        <v>-19.96069659986056</v>
+        <v>-18.18742381503006</v>
       </c>
       <c r="H29">
-        <v>7.313810725531216E-75</v>
+        <v>4.543922517128615E-64</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -3940,25 +3939,25 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>0.2799086711500938</v>
+        <v>0.2745598442494604</v>
       </c>
       <c r="C30">
-        <v>0.3728247713863938</v>
+        <v>0.3770356023215423</v>
       </c>
       <c r="D30">
-        <v>0.4691632809063501</v>
+        <v>0.4640811687519868</v>
       </c>
       <c r="E30">
-        <v>0.3758768284187867</v>
+        <v>0.3739860635980467</v>
       </c>
       <c r="F30">
         <v>0.5078768740693447</v>
       </c>
       <c r="G30">
-        <v>-31.64806469121215</v>
+        <v>-31.36572317773119</v>
       </c>
       <c r="H30">
-        <v>8.0400611683692E-153</v>
+        <v>6.998422163565214E-151</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -3975,25 +3974,25 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0.3207189978486161</v>
+        <v>0.3157799521224174</v>
       </c>
       <c r="C31">
-        <v>0.3787480598611742</v>
+        <v>0.3784330252408638</v>
       </c>
       <c r="D31">
-        <v>0.4411743966302193</v>
+        <v>0.4310262539931734</v>
       </c>
       <c r="E31">
-        <v>0.3808538453629894</v>
+        <v>0.3758909345125312</v>
       </c>
       <c r="F31">
         <v>0.4533065303237065</v>
       </c>
       <c r="G31">
-        <v>-27.62179923362038</v>
+        <v>-29.13646289767709</v>
       </c>
       <c r="H31">
-        <v>3.095272681553464E-125</v>
+        <v>1.391825065585759E-135</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -4010,25 +4009,25 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>0.2974658828505879</v>
+        <v>0.2885773484734604</v>
       </c>
       <c r="C32">
-        <v>0.3785014038919126</v>
+        <v>0.365962171884279</v>
       </c>
       <c r="D32">
-        <v>0.4563983972856541</v>
+        <v>0.4440995296536143</v>
       </c>
       <c r="E32">
-        <v>0.3778025653492623</v>
+        <v>0.3698809122035885</v>
       </c>
       <c r="F32">
         <v>0.4173988758180943</v>
       </c>
       <c r="G32">
-        <v>-11.22391965413362</v>
+        <v>-13.60633192623032</v>
       </c>
       <c r="H32">
-        <v>1.291020699284025E-27</v>
+        <v>8.360853161045439E-39</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -4045,25 +4044,25 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <v>0.3207189978486161</v>
+        <v>0.3157799521224174</v>
       </c>
       <c r="C33">
-        <v>0.3787480598611742</v>
+        <v>0.3784330252408638</v>
       </c>
       <c r="D33">
-        <v>0.4411743966302193</v>
+        <v>0.4310262539931734</v>
       </c>
       <c r="E33">
-        <v>0.3808538453629894</v>
+        <v>0.3758909345125312</v>
       </c>
       <c r="F33">
         <v>0.4520369536224978</v>
       </c>
       <c r="G33">
-        <v>-27.1377869051403</v>
+        <v>-28.65863961074213</v>
       </c>
       <c r="H33">
-        <v>6.067708255090908E-122</v>
+        <v>2.592916305110048E-132</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -4080,25 +4079,25 @@
         <v>13</v>
       </c>
       <c r="B34">
-        <v>0.2974658828505879</v>
+        <v>0.2885773484734604</v>
       </c>
       <c r="C34">
-        <v>0.3785014038919126</v>
+        <v>0.365962171884279</v>
       </c>
       <c r="D34">
-        <v>0.4563983972856541</v>
+        <v>0.4440995296536143</v>
       </c>
       <c r="E34">
-        <v>0.3778025653492623</v>
+        <v>0.3698809122035885</v>
       </c>
       <c r="F34">
         <v>0.4513106975937746</v>
       </c>
       <c r="G34">
-        <v>-20.83652139477156</v>
+        <v>-23.3166702531492</v>
       </c>
       <c r="H34">
-        <v>2.366210124068745E-80</v>
+        <v>2.337284939125609E-96</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
@@ -4160,25 +4159,25 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.3287291879034999</v>
+        <v>0.3273360516479783</v>
       </c>
       <c r="C2">
-        <v>0.3890587835541964</v>
+        <v>0.3881753312945974</v>
       </c>
       <c r="D2">
-        <v>0.4510193679918451</v>
+        <v>0.4431022765885151</v>
       </c>
       <c r="E2">
-        <v>0.391034250764526</v>
+        <v>0.3867697587495753</v>
       </c>
       <c r="F2">
         <v>0.4415222562011554</v>
       </c>
       <c r="G2">
-        <v>-17.97104641071393</v>
+        <v>-20.75369935900253</v>
       </c>
       <c r="H2">
-        <v>8.73796476026115E-63</v>
+        <v>7.893495975212826E-80</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -4195,25 +4194,25 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.3299311926605505</v>
+        <v>0.3248689384010486</v>
       </c>
       <c r="C3">
-        <v>0.3894167758846658</v>
+        <v>0.3860091743119266</v>
       </c>
       <c r="D3">
-        <v>0.4447247706422019</v>
+        <v>0.4412352555701179</v>
       </c>
       <c r="E3">
-        <v>0.3877834862385322</v>
+        <v>0.3860964613368283</v>
       </c>
       <c r="F3">
         <v>0.479554390563565</v>
       </c>
       <c r="G3">
-        <v>-34.69892114884025</v>
+        <v>-36.091779153759</v>
       </c>
       <c r="H3">
-        <v>9.5194632133086E-174</v>
+        <v>2.97042990055714E-183</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -4230,25 +4229,25 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.3317779183802594</v>
+        <v>0.3345143941790573</v>
       </c>
       <c r="C4">
-        <v>0.3873774122113255</v>
+        <v>0.3878519455868397</v>
       </c>
       <c r="D4">
-        <v>0.4431825371717811</v>
+        <v>0.4480385953812085</v>
       </c>
       <c r="E4">
-        <v>0.3885176210060108</v>
+        <v>0.3895186333438785</v>
       </c>
       <c r="F4">
         <v>0.465548876937678</v>
       </c>
       <c r="G4">
-        <v>-30.02009483015404</v>
+        <v>-28.7708456738179</v>
       </c>
       <c r="H4">
-        <v>1.21777148587708E-141</v>
+        <v>4.428788582949017E-133</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -4265,25 +4264,25 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.2743774574049803</v>
+        <v>0.2712319790301441</v>
       </c>
       <c r="C5">
-        <v>0.4040629095674967</v>
+        <v>0.3972477064220183</v>
       </c>
       <c r="D5">
-        <v>0.5292267365661861</v>
+        <v>0.5033420707732634</v>
       </c>
       <c r="E5">
-        <v>0.3917347313237222</v>
+        <v>0.3772191349934469</v>
       </c>
       <c r="F5">
         <v>0.3006553079947576</v>
       </c>
       <c r="G5">
-        <v>17.15072963070196</v>
+        <v>14.95859554716908</v>
       </c>
       <c r="H5">
-        <v>5.456038910606729E-58</v>
+        <v>8.414089956332428E-46</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -4300,25 +4299,25 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>0.2533830275229358</v>
+        <v>0.2563073394495413</v>
       </c>
       <c r="C6">
-        <v>0.3685779816513761</v>
+        <v>0.3658256880733946</v>
       </c>
       <c r="D6">
-        <v>0.4844036697247707</v>
+        <v>0.48125</v>
       </c>
       <c r="E6">
-        <v>0.3897094036697248</v>
+        <v>0.3853977064220184</v>
       </c>
       <c r="F6">
         <v>0.263302752293578</v>
       </c>
       <c r="G6">
-        <v>24.63993634672631</v>
+        <v>24.80240069312076</v>
       </c>
       <c r="H6">
-        <v>4.060413686366396E-105</v>
+        <v>3.346525360320877E-106</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -4335,25 +4334,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.2380733944954129</v>
+        <v>0.236697247706422</v>
       </c>
       <c r="C7">
-        <v>0.4286697247706422</v>
+        <v>0.3970183486238532</v>
       </c>
       <c r="D7">
-        <v>0.4926605504587157</v>
+        <v>0.4904816513761468</v>
       </c>
       <c r="E7">
-        <v>0.3819357798165137</v>
+        <v>0.3742761467889908</v>
       </c>
       <c r="F7">
         <v>0.2922018348623854</v>
       </c>
       <c r="G7">
-        <v>12.62809617084418</v>
+        <v>11.55395405532476</v>
       </c>
       <c r="H7">
-        <v>5.043202125887803E-34</v>
+        <v>4.520639745655781E-29</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -4370,25 +4369,25 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2856269113149847</v>
+        <v>0.3042813455657493</v>
       </c>
       <c r="C8">
-        <v>0.3409785932721713</v>
+        <v>0.3437308868501529</v>
       </c>
       <c r="D8">
-        <v>0.4860091743119266</v>
+        <v>0.4841743119266055</v>
       </c>
       <c r="E8">
-        <v>0.3846694189602447</v>
+        <v>0.3876168195718654</v>
       </c>
       <c r="F8">
         <v>0.4752293577981652</v>
       </c>
       <c r="G8">
-        <v>-15.57352251486364</v>
+        <v>-15.42781573262271</v>
       </c>
       <c r="H8">
-        <v>4.030868411838589E-49</v>
+        <v>2.50817351487994E-48</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -4405,25 +4404,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.2743774574049803</v>
+        <v>0.2712319790301441</v>
       </c>
       <c r="C9">
-        <v>0.4040629095674967</v>
+        <v>0.3972477064220183</v>
       </c>
       <c r="D9">
-        <v>0.5292267365661861</v>
+        <v>0.5033420707732634</v>
       </c>
       <c r="E9">
-        <v>0.3917347313237222</v>
+        <v>0.3772191349934469</v>
       </c>
       <c r="F9">
         <v>0.3863695937090433</v>
       </c>
       <c r="G9">
-        <v>1.010283347189401</v>
+        <v>-1.787763443434166</v>
       </c>
       <c r="H9">
-        <v>0.3126041862650455</v>
+        <v>0.07411720593705723</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -4440,25 +4439,25 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.2054128440366973</v>
+        <v>0.2039449541284404</v>
       </c>
       <c r="C10">
-        <v>0.3820183486238532</v>
+        <v>0.383302752293578</v>
       </c>
       <c r="D10">
-        <v>0.5600917431192661</v>
+        <v>0.5597247706422018</v>
       </c>
       <c r="E10">
-        <v>0.3861677064220184</v>
+        <v>0.3842425688073395</v>
       </c>
       <c r="F10">
         <v>0.3453211009174312</v>
       </c>
       <c r="G10">
-        <v>6.440264697918254</v>
+        <v>5.90100793502835</v>
       </c>
       <c r="H10">
-        <v>1.850155429850643E-10</v>
+        <v>4.943159536753047E-09</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -4475,25 +4474,25 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>0.2984199796126402</v>
+        <v>0.3003567787971458</v>
       </c>
       <c r="C11">
-        <v>0.4010193679918451</v>
+        <v>0.390316004077472</v>
       </c>
       <c r="D11">
-        <v>0.5124362895005097</v>
+        <v>0.493730886850153</v>
       </c>
       <c r="E11">
-        <v>0.3878937818552498</v>
+        <v>0.3851357798165138</v>
       </c>
       <c r="F11">
         <v>0.2986748216106014</v>
       </c>
       <c r="G11">
-        <v>18.67470320228371</v>
+        <v>17.87240178361857</v>
       </c>
       <c r="H11">
-        <v>5.474435098385143E-67</v>
+        <v>3.343426904047953E-62</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -4510,28 +4509,28 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.2054128440366973</v>
+        <v>0.2039449541284404</v>
       </c>
       <c r="C12">
-        <v>0.3820183486238532</v>
+        <v>0.383302752293578</v>
       </c>
       <c r="D12">
-        <v>0.5600917431192661</v>
+        <v>0.5597247706422018</v>
       </c>
       <c r="E12">
-        <v>0.3861677064220184</v>
+        <v>0.3842425688073395</v>
       </c>
       <c r="F12">
         <v>0.3985321100917431</v>
       </c>
       <c r="G12">
-        <v>-1.949489596044794</v>
+        <v>-2.166482948322833</v>
       </c>
       <c r="H12">
-        <v>0.05151650148272523</v>
+        <v>0.03051016370859169</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -4545,25 +4544,25 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>0.2054128440366973</v>
+        <v>0.2039449541284404</v>
       </c>
       <c r="C13">
-        <v>0.3820183486238532</v>
+        <v>0.383302752293578</v>
       </c>
       <c r="D13">
-        <v>0.5600917431192661</v>
+        <v>0.5597247706422018</v>
       </c>
       <c r="E13">
-        <v>0.3861677064220184</v>
+        <v>0.3842425688073395</v>
       </c>
       <c r="F13">
         <v>0.5732110091743119</v>
       </c>
       <c r="G13">
-        <v>-29.49102783002003</v>
+        <v>-28.65010819297913</v>
       </c>
       <c r="H13">
-        <v>5.178056450806055E-138</v>
+        <v>2.965738980174596E-132</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -4580,25 +4579,25 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.2743774574049803</v>
+        <v>0.2712319790301441</v>
       </c>
       <c r="C14">
-        <v>0.4040629095674967</v>
+        <v>0.3972477064220183</v>
       </c>
       <c r="D14">
-        <v>0.5292267365661861</v>
+        <v>0.5033420707732634</v>
       </c>
       <c r="E14">
-        <v>0.3917347313237222</v>
+        <v>0.3772191349934469</v>
       </c>
       <c r="F14">
         <v>0.4972477064220184</v>
       </c>
       <c r="G14">
-        <v>-19.86864257918925</v>
+        <v>-23.4504847065081</v>
       </c>
       <c r="H14">
-        <v>2.725715841831232E-74</v>
+        <v>3.082312284473333E-97</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -4615,25 +4614,25 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0.009174311926605505</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="C15">
-        <v>0.4660550458715597</v>
+        <v>0.4655963302752293</v>
       </c>
       <c r="D15">
-        <v>0.4935779816513761</v>
+        <v>0.4917431192660551</v>
       </c>
       <c r="E15">
-        <v>0.3917394495412844</v>
+        <v>0.3813449541284403</v>
       </c>
       <c r="F15">
         <v>0.4834862385321103</v>
       </c>
       <c r="G15">
-        <v>-9.00946093861891</v>
+        <v>-10.42017025682601</v>
       </c>
       <c r="H15">
-        <v>1.029165124274326E-18</v>
+        <v>3.311797857330483E-24</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -4650,25 +4649,25 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.009174311926605505</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="C16">
-        <v>0.4660550458715597</v>
+        <v>0.4655963302752293</v>
       </c>
       <c r="D16">
-        <v>0.4935779816513761</v>
+        <v>0.4917431192660551</v>
       </c>
       <c r="E16">
-        <v>0.3917394495412844</v>
+        <v>0.3813449541284403</v>
       </c>
       <c r="F16">
         <v>0.51651376146789</v>
       </c>
       <c r="G16">
-        <v>-12.25273714547343</v>
+        <v>-13.78954645139132</v>
       </c>
       <c r="H16">
-        <v>2.949888221424258E-32</v>
+        <v>9.996230712143707E-40</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -4685,25 +4684,25 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.2533830275229358</v>
+        <v>0.2563073394495413</v>
       </c>
       <c r="C17">
-        <v>0.3685779816513761</v>
+        <v>0.3658256880733946</v>
       </c>
       <c r="D17">
-        <v>0.4844036697247707</v>
+        <v>0.48125</v>
       </c>
       <c r="E17">
-        <v>0.3897094036697248</v>
+        <v>0.3853977064220184</v>
       </c>
       <c r="F17">
         <v>0.4394495412844037</v>
       </c>
       <c r="G17">
-        <v>-9.695643475722738</v>
+        <v>-10.980103772716</v>
       </c>
       <c r="H17">
-        <v>2.638682113288036E-21</v>
+        <v>1.46460999330057E-26</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -4720,25 +4719,25 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.2533830275229358</v>
+        <v>0.2563073394495413</v>
       </c>
       <c r="C18">
-        <v>0.3685779816513761</v>
+        <v>0.3658256880733946</v>
       </c>
       <c r="D18">
-        <v>0.4844036697247707</v>
+        <v>0.48125</v>
       </c>
       <c r="E18">
-        <v>0.3897094036697248</v>
+        <v>0.3853977064220184</v>
       </c>
       <c r="F18">
         <v>0.554816513761468</v>
       </c>
       <c r="G18">
-        <v>-32.18365994797779</v>
+        <v>-34.41578052573151</v>
       </c>
       <c r="H18">
-        <v>1.682270623958594E-156</v>
+        <v>8.237717695317807E-172</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -4755,25 +4754,25 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.2533830275229358</v>
+        <v>0.2563073394495413</v>
       </c>
       <c r="C19">
-        <v>0.3685779816513761</v>
+        <v>0.3658256880733946</v>
       </c>
       <c r="D19">
-        <v>0.4844036697247707</v>
+        <v>0.48125</v>
       </c>
       <c r="E19">
-        <v>0.3897094036697248</v>
+        <v>0.3853977064220184</v>
       </c>
       <c r="F19">
         <v>0.2722477064220183</v>
       </c>
       <c r="G19">
-        <v>22.89633268386758</v>
+        <v>22.985320388215</v>
       </c>
       <c r="H19">
-        <v>1.326569427391502E-93</v>
+        <v>3.47496706805991E-94</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -4790,25 +4789,25 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.2533830275229358</v>
+        <v>0.2563073394495413</v>
       </c>
       <c r="C20">
-        <v>0.3685779816513761</v>
+        <v>0.3658256880733946</v>
       </c>
       <c r="D20">
-        <v>0.4844036697247707</v>
+        <v>0.48125</v>
       </c>
       <c r="E20">
-        <v>0.3897094036697248</v>
+        <v>0.3853977064220184</v>
       </c>
       <c r="F20">
         <v>0.263302752293578</v>
       </c>
       <c r="G20">
-        <v>24.63993634672631</v>
+        <v>24.80240069312076</v>
       </c>
       <c r="H20">
-        <v>4.060413686366396E-105</v>
+        <v>3.346525360320877E-106</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -4825,25 +4824,25 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>0.2380733944954129</v>
+        <v>0.236697247706422</v>
       </c>
       <c r="C21">
-        <v>0.4286697247706422</v>
+        <v>0.3970183486238532</v>
       </c>
       <c r="D21">
-        <v>0.4926605504587157</v>
+        <v>0.4904816513761468</v>
       </c>
       <c r="E21">
-        <v>0.3819357798165137</v>
+        <v>0.3742761467889908</v>
       </c>
       <c r="F21">
         <v>0.4908256880733946</v>
       </c>
       <c r="G21">
-        <v>-15.32388032427664</v>
+        <v>-16.40718043878788</v>
       </c>
       <c r="H21">
-        <v>9.181925770073751E-48</v>
+        <v>9.515923302807414E-54</v>
       </c>
       <c r="I21" t="s">
         <v>10</v>
@@ -4860,25 +4859,25 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>0.2996941896024465</v>
+        <v>0.2934250764525994</v>
       </c>
       <c r="C22">
-        <v>0.3296636085626911</v>
+        <v>0.327217125382263</v>
       </c>
       <c r="D22">
-        <v>0.6226299694189602</v>
+        <v>0.6252293577981651</v>
       </c>
       <c r="E22">
-        <v>0.3881577981651376</v>
+        <v>0.3870776758409786</v>
       </c>
       <c r="F22">
         <v>0.3211009174311927</v>
       </c>
       <c r="G22">
-        <v>8.306947777346606</v>
+        <v>8.036455798902784</v>
       </c>
       <c r="H22">
-        <v>3.172139992780899E-16</v>
+        <v>2.595510240772346E-15</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -4895,25 +4894,25 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>0.2380733944954129</v>
+        <v>0.236697247706422</v>
       </c>
       <c r="C23">
-        <v>0.4286697247706422</v>
+        <v>0.3970183486238532</v>
       </c>
       <c r="D23">
-        <v>0.4926605504587157</v>
+        <v>0.4904816513761468</v>
       </c>
       <c r="E23">
-        <v>0.3819357798165137</v>
+        <v>0.3742761467889908</v>
       </c>
       <c r="F23">
         <v>0.4871559633027523</v>
       </c>
       <c r="G23">
-        <v>-14.80744657840835</v>
+        <v>-15.89057749201443</v>
       </c>
       <c r="H23">
-        <v>5.348576122691242E-45</v>
+        <v>7.283904931631148E-51</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -4930,25 +4929,25 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.2984199796126402</v>
+        <v>0.3003567787971458</v>
       </c>
       <c r="C24">
-        <v>0.4010193679918451</v>
+        <v>0.390316004077472</v>
       </c>
       <c r="D24">
-        <v>0.5124362895005097</v>
+        <v>0.493730886850153</v>
       </c>
       <c r="E24">
-        <v>0.3878937818552498</v>
+        <v>0.3851357798165138</v>
       </c>
       <c r="F24">
         <v>0.6048929663608563</v>
       </c>
       <c r="G24">
-        <v>-45.42078673263715</v>
+        <v>-45.42615319395721</v>
       </c>
       <c r="H24">
-        <v>3.217879160811475E-245</v>
+        <v>2.971782904139822E-245</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -4965,25 +4964,25 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>0.2856269113149847</v>
+        <v>0.3042813455657493</v>
       </c>
       <c r="C25">
-        <v>0.3409785932721713</v>
+        <v>0.3437308868501529</v>
       </c>
       <c r="D25">
-        <v>0.4860091743119266</v>
+        <v>0.4841743119266055</v>
       </c>
       <c r="E25">
-        <v>0.3846694189602447</v>
+        <v>0.3876168195718654</v>
       </c>
       <c r="F25">
         <v>0.6403669724770642</v>
       </c>
       <c r="G25">
-        <v>-43.97211016028532</v>
+        <v>-44.50713179136153</v>
       </c>
       <c r="H25">
-        <v>7.698430284243034E-236</v>
+        <v>2.575285099406713E-239</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -5000,25 +4999,25 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>0.2996941896024465</v>
+        <v>0.2934250764525994</v>
       </c>
       <c r="C26">
-        <v>0.3296636085626911</v>
+        <v>0.327217125382263</v>
       </c>
       <c r="D26">
-        <v>0.6226299694189602</v>
+        <v>0.6252293577981651</v>
       </c>
       <c r="E26">
-        <v>0.3881577981651376</v>
+        <v>0.3870776758409786</v>
       </c>
       <c r="F26">
         <v>0.344954128440367</v>
       </c>
       <c r="G26">
-        <v>5.352032845329258</v>
+        <v>5.130958763924209</v>
       </c>
       <c r="H26">
-        <v>1.078787193064491E-07</v>
+        <v>3.46253723204874E-07</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -5035,25 +5034,25 @@
         <v>19</v>
       </c>
       <c r="B27">
-        <v>0.2533830275229358</v>
+        <v>0.2563073394495413</v>
       </c>
       <c r="C27">
-        <v>0.3685779816513761</v>
+        <v>0.3658256880733946</v>
       </c>
       <c r="D27">
-        <v>0.4844036697247707</v>
+        <v>0.48125</v>
       </c>
       <c r="E27">
-        <v>0.3897094036697248</v>
+        <v>0.3853977064220184</v>
       </c>
       <c r="F27">
         <v>0.5958715596330275</v>
       </c>
       <c r="G27">
-        <v>-40.18635368263712</v>
+        <v>-42.75571320722208</v>
       </c>
       <c r="H27">
-        <v>7.077846854286434E-211</v>
+        <v>6.891126000133788E-228</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -5070,25 +5069,25 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>0.2743774574049803</v>
+        <v>0.2712319790301441</v>
       </c>
       <c r="C28">
-        <v>0.4040629095674967</v>
+        <v>0.3972477064220183</v>
       </c>
       <c r="D28">
-        <v>0.5292267365661861</v>
+        <v>0.5033420707732634</v>
       </c>
       <c r="E28">
-        <v>0.3917347313237222</v>
+        <v>0.3772191349934469</v>
       </c>
       <c r="F28">
         <v>0.2880733944954129</v>
       </c>
       <c r="G28">
-        <v>19.51996945213499</v>
+        <v>17.41677668340441</v>
       </c>
       <c r="H28">
-        <v>3.882843990361665E-72</v>
+        <v>1.564860252066076E-59</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -5105,25 +5104,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.2821517931609674</v>
+        <v>0.284278565471226</v>
       </c>
       <c r="C29">
-        <v>0.3754795663052544</v>
+        <v>0.3852376980817348</v>
       </c>
       <c r="D29">
-        <v>0.4603419516263553</v>
+        <v>0.4907422852376981</v>
       </c>
       <c r="E29">
-        <v>0.3849844870725604</v>
+        <v>0.3907611342785655</v>
       </c>
       <c r="F29">
         <v>0.4637197664720601</v>
       </c>
       <c r="G29">
-        <v>-18.5851323278379</v>
+        <v>-16.47917241265391</v>
       </c>
       <c r="H29">
-        <v>1.895498784351238E-66</v>
+        <v>3.735648720756379E-54</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -5140,25 +5139,25 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>0.2054128440366973</v>
+        <v>0.2039449541284404</v>
       </c>
       <c r="C30">
-        <v>0.3820183486238532</v>
+        <v>0.383302752293578</v>
       </c>
       <c r="D30">
-        <v>0.5600917431192661</v>
+        <v>0.5597247706422018</v>
       </c>
       <c r="E30">
-        <v>0.3861677064220184</v>
+        <v>0.3842425688073395</v>
       </c>
       <c r="F30">
         <v>0.5247706422018349</v>
       </c>
       <c r="G30">
-        <v>-21.85345840379161</v>
+        <v>-21.30590959572151</v>
       </c>
       <c r="H30">
-        <v>7.696369491170523E-87</v>
+        <v>2.475721662610223E-83</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -5175,25 +5174,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.3146788990825688</v>
+        <v>0.3076070336391437</v>
       </c>
       <c r="C31">
-        <v>0.394954128440367</v>
+        <v>0.3944189602446484</v>
       </c>
       <c r="D31">
-        <v>0.4792048929663608</v>
+        <v>0.4792431192660551</v>
       </c>
       <c r="E31">
-        <v>0.3926282874617737</v>
+        <v>0.3898610091743119</v>
       </c>
       <c r="F31">
         <v>0.4420489296636086</v>
       </c>
       <c r="G31">
-        <v>-12.58594655011129</v>
+        <v>-12.87998278237772</v>
       </c>
       <c r="H31">
-        <v>7.99910168572846E-34</v>
+        <v>3.130476609816128E-35</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -5210,25 +5209,25 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>0.2743774574049803</v>
+        <v>0.2712319790301441</v>
       </c>
       <c r="C32">
-        <v>0.4040629095674967</v>
+        <v>0.3972477064220183</v>
       </c>
       <c r="D32">
-        <v>0.5292267365661861</v>
+        <v>0.5033420707732634</v>
       </c>
       <c r="E32">
-        <v>0.3917347313237222</v>
+        <v>0.3772191349934469</v>
       </c>
       <c r="F32">
         <v>0.4930537352555702</v>
       </c>
       <c r="G32">
-        <v>-19.0788959720449</v>
+        <v>-22.63109099442966</v>
       </c>
       <c r="H32">
-        <v>1.946089732767733E-69</v>
+        <v>7.122747123405196E-92</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -5245,25 +5244,25 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.3146788990825688</v>
+        <v>0.3076070336391437</v>
       </c>
       <c r="C33">
-        <v>0.394954128440367</v>
+        <v>0.3944189602446484</v>
       </c>
       <c r="D33">
-        <v>0.4792048929663608</v>
+        <v>0.4792431192660551</v>
       </c>
       <c r="E33">
-        <v>0.3926282874617737</v>
+        <v>0.3898610091743119</v>
       </c>
       <c r="F33">
         <v>0.4711009174311927</v>
       </c>
       <c r="G33">
-        <v>-19.98461133726626</v>
+        <v>-20.05001559326687</v>
       </c>
       <c r="H33">
-        <v>5.194360673321084E-75</v>
+        <v>2.035685936072978E-75</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -5280,25 +5279,25 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>0.2743774574049803</v>
+        <v>0.2712319790301441</v>
       </c>
       <c r="C34">
-        <v>0.4040629095674967</v>
+        <v>0.3972477064220183</v>
       </c>
       <c r="D34">
-        <v>0.5292267365661861</v>
+        <v>0.5033420707732634</v>
       </c>
       <c r="E34">
-        <v>0.3917347313237222</v>
+        <v>0.3772191349934469</v>
       </c>
       <c r="F34">
         <v>0.4144167758846658</v>
       </c>
       <c r="G34">
-        <v>-4.271147088088406</v>
+        <v>-7.267458892958771</v>
       </c>
       <c r="H34">
-        <v>2.130306440837407E-05</v>
+        <v>7.376287605779424E-13</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
@@ -5360,25 +5359,25 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.05181421241240314</v>
+        <v>0.05119306525997563</v>
       </c>
       <c r="C2">
-        <v>0.06398726128840423</v>
+        <v>0.0609885312178126</v>
       </c>
       <c r="D2">
-        <v>0.07669351770446123</v>
+        <v>0.07460353266597772</v>
       </c>
       <c r="E2">
-        <v>0.06491993674917496</v>
+        <v>0.06324957583329478</v>
       </c>
       <c r="F2">
         <v>0.07386970284337366</v>
       </c>
       <c r="G2">
-        <v>-15.37164973889095</v>
+        <v>-19.29668154642376</v>
       </c>
       <c r="H2">
-        <v>5.060559116393321E-48</v>
+        <v>9.109204487330646E-71</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -5395,22 +5394,22 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.04985969446776443</v>
+        <v>0.05048991943036064</v>
       </c>
       <c r="C3">
-        <v>0.0605557878373227</v>
+        <v>0.06134338828771063</v>
       </c>
       <c r="D3">
-        <v>0.07326212841344025</v>
+        <v>0.07351442497317283</v>
       </c>
       <c r="E3">
-        <v>0.06254057815574521</v>
+        <v>0.06275383333774026</v>
       </c>
       <c r="F3">
         <v>0.1129207513369514</v>
       </c>
       <c r="G3">
-        <v>-93.05277922255672</v>
+        <v>-94.01502049217233</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5430,22 +5429,22 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.05253819893764191</v>
+        <v>0.04999908252342757</v>
       </c>
       <c r="C4">
-        <v>0.06326120637797801</v>
+        <v>0.06091964660398042</v>
       </c>
       <c r="D4">
-        <v>0.07470233868767343</v>
+        <v>0.07251166391955566</v>
       </c>
       <c r="E4">
-        <v>0.0646233047293391</v>
+        <v>0.06226426037825565</v>
       </c>
       <c r="F4">
         <v>0.1200382468059848</v>
       </c>
       <c r="G4">
-        <v>-101.6601732392171</v>
+        <v>-106.5629729409507</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5465,25 +5464,25 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.03683309425755402</v>
+        <v>0.03820061873252378</v>
       </c>
       <c r="C5">
-        <v>0.05750268271669409</v>
+        <v>0.05565783298188093</v>
       </c>
       <c r="D5">
-        <v>0.08334820671130884</v>
+        <v>0.07932302993845727</v>
       </c>
       <c r="E5">
-        <v>0.06460397537849992</v>
+        <v>0.06193291831100123</v>
       </c>
       <c r="F5">
         <v>0.1011868955624451</v>
       </c>
       <c r="G5">
-        <v>-29.81196258252228</v>
+        <v>-36.22689043265915</v>
       </c>
       <c r="H5">
-        <v>3.261975920221391E-140</v>
+        <v>3.573826418962232E-184</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -5500,25 +5499,25 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.03887524003979455</v>
+        <v>0.03826610291055481</v>
       </c>
       <c r="C6">
-        <v>0.05669855629077784</v>
+        <v>0.05878372125306557</v>
       </c>
       <c r="D6">
-        <v>0.08036127435102494</v>
+        <v>0.07847023795752164</v>
       </c>
       <c r="E6">
-        <v>0.06196670339564728</v>
+        <v>0.06156694893032869</v>
       </c>
       <c r="F6">
         <v>0.1096099787145435</v>
       </c>
       <c r="G6">
-        <v>-47.21498926124502</v>
+        <v>-49.24868704496242</v>
       </c>
       <c r="H6">
-        <v>1.085858907454262E-256</v>
+        <v>1.708746427215406E-269</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -5535,25 +5534,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03015246865022442</v>
+        <v>0.02996737772430707</v>
       </c>
       <c r="C7">
-        <v>0.0529764934524085</v>
+        <v>0.05209152746286613</v>
       </c>
       <c r="D7">
-        <v>0.08686259312387211</v>
+        <v>0.08727615566146869</v>
       </c>
       <c r="E7">
-        <v>0.06374125638178088</v>
+        <v>0.06389909941696359</v>
       </c>
       <c r="F7">
         <v>0.02070704733700431</v>
       </c>
       <c r="G7">
-        <v>29.01315143016026</v>
+        <v>29.2043533420197</v>
       </c>
       <c r="H7">
-        <v>9.7267250604257E-135</v>
+        <v>4.770674473803489E-136</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -5570,25 +5569,25 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0348645751392038</v>
+        <v>0.03481348233152869</v>
       </c>
       <c r="C8">
-        <v>0.05492958832693227</v>
+        <v>0.05588589144417195</v>
       </c>
       <c r="D8">
-        <v>0.08267394690975276</v>
+        <v>0.08194322335847484</v>
       </c>
       <c r="E8">
-        <v>0.0615899702569165</v>
+        <v>0.06212435025372881</v>
       </c>
       <c r="F8">
         <v>0.06253759659432696</v>
       </c>
       <c r="G8">
-        <v>-0.8291544503131635</v>
+        <v>-0.3600496809896551</v>
       </c>
       <c r="H8">
-        <v>0.4072150822330818</v>
+        <v>0.7188860849725639</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -5605,25 +5604,25 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.03683309425755402</v>
+        <v>0.03820061873252378</v>
       </c>
       <c r="C9">
-        <v>0.05750268271669409</v>
+        <v>0.05565783298188093</v>
       </c>
       <c r="D9">
-        <v>0.08334820671130884</v>
+        <v>0.07932302993845727</v>
       </c>
       <c r="E9">
-        <v>0.06460397537849992</v>
+        <v>0.06193291831100123</v>
       </c>
       <c r="F9">
         <v>0.06760446069131462</v>
       </c>
       <c r="G9">
-        <v>-2.445139847373254</v>
+        <v>-5.234179025470314</v>
       </c>
       <c r="H9">
-        <v>0.01465141277176878</v>
+        <v>2.019659657332333E-07</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -5640,25 +5639,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03349220304474573</v>
+        <v>0.0314712414973856</v>
       </c>
       <c r="C10">
-        <v>0.0531650548331868</v>
+        <v>0.05332083969583391</v>
       </c>
       <c r="D10">
-        <v>0.08165748924158994</v>
+        <v>0.08101429827402712</v>
       </c>
       <c r="E10">
-        <v>0.06118173075439977</v>
+        <v>0.0612339672697546</v>
       </c>
       <c r="F10">
         <v>0.08105825736893249</v>
       </c>
       <c r="G10">
-        <v>-15.86629773778975</v>
+        <v>-14.9271094736923</v>
       </c>
       <c r="H10">
-        <v>9.921562353540295E-51</v>
+        <v>1.238087881095057E-45</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -5675,25 +5674,25 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.04137906878698606</v>
+        <v>0.0415473430026204</v>
       </c>
       <c r="C11">
-        <v>0.05811469467709345</v>
+        <v>0.05888376461232877</v>
       </c>
       <c r="D11">
-        <v>0.07841685561365355</v>
+        <v>0.08083203512614462</v>
       </c>
       <c r="E11">
-        <v>0.06248387266772581</v>
+        <v>0.06305752557425318</v>
       </c>
       <c r="F11">
         <v>0.09522413996987132</v>
       </c>
       <c r="G11">
-        <v>-34.9840970179228</v>
+        <v>-34.69416485858346</v>
       </c>
       <c r="H11">
-        <v>1.069069645979426E-175</v>
+        <v>1.02598747355817E-173</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -5710,25 +5709,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03349220304474573</v>
+        <v>0.0314712414973856</v>
       </c>
       <c r="C12">
-        <v>0.0531650548331868</v>
+        <v>0.05332083969583391</v>
       </c>
       <c r="D12">
-        <v>0.08165748924158994</v>
+        <v>0.08101429827402712</v>
       </c>
       <c r="E12">
-        <v>0.06118173075439977</v>
+        <v>0.0612339672697546</v>
       </c>
       <c r="F12">
         <v>0.04777196797926982</v>
       </c>
       <c r="G12">
-        <v>10.70424893189234</v>
+        <v>10.13649094815091</v>
       </c>
       <c r="H12">
-        <v>2.175585944348148E-25</v>
+        <v>4.740894148332994E-23</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -5745,25 +5744,25 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>0.03349220304474573</v>
+        <v>0.0314712414973856</v>
       </c>
       <c r="C13">
-        <v>0.0531650548331868</v>
+        <v>0.05332083969583391</v>
       </c>
       <c r="D13">
-        <v>0.08165748924158994</v>
+        <v>0.08101429827402712</v>
       </c>
       <c r="E13">
-        <v>0.06118173075439977</v>
+        <v>0.0612339672697546</v>
       </c>
       <c r="F13">
         <v>0.1239924112720374</v>
       </c>
       <c r="G13">
-        <v>-50.13818447924319</v>
+        <v>-47.25526913367313</v>
       </c>
       <c r="H13">
-        <v>5.026832722975861E-275</v>
+        <v>6.027083131556319E-257</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -5780,25 +5779,25 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.03683309425755402</v>
+        <v>0.03820061873252378</v>
       </c>
       <c r="C14">
-        <v>0.05750268271669409</v>
+        <v>0.05565783298188093</v>
       </c>
       <c r="D14">
-        <v>0.08334820671130884</v>
+        <v>0.07932302993845727</v>
       </c>
       <c r="E14">
-        <v>0.06460397537849992</v>
+        <v>0.06193291831100123</v>
       </c>
       <c r="F14">
         <v>0.07917594875625508</v>
       </c>
       <c r="G14">
-        <v>-11.87491657054206</v>
+        <v>-15.91332696470244</v>
       </c>
       <c r="H14">
-        <v>1.618988682957754E-30</v>
+        <v>5.451274959771678E-51</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -5815,25 +5814,25 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0.01450650131877285</v>
+        <v>0.01717296747026977</v>
       </c>
       <c r="C15">
-        <v>0.04372773124797556</v>
+        <v>0.04672389061126278</v>
       </c>
       <c r="D15">
-        <v>0.08422215538383232</v>
+        <v>0.08896800240618204</v>
       </c>
       <c r="E15">
-        <v>0.06118028627396542</v>
+        <v>0.06466318271559238</v>
       </c>
       <c r="F15">
         <v>0.01691268335569849</v>
       </c>
       <c r="G15">
-        <v>22.30878210182291</v>
+        <v>22.77568875826397</v>
       </c>
       <c r="H15">
-        <v>8.832104794311892E-90</v>
+        <v>8.134985045239888E-93</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -5850,25 +5849,25 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.01450650131877285</v>
+        <v>0.01717296747026977</v>
       </c>
       <c r="C16">
-        <v>0.04372773124797556</v>
+        <v>0.04672389061126278</v>
       </c>
       <c r="D16">
-        <v>0.08422215538383232</v>
+        <v>0.08896800240618204</v>
       </c>
       <c r="E16">
-        <v>0.06118028627396542</v>
+        <v>0.06466318271559238</v>
       </c>
       <c r="F16">
         <v>0.02526491138771922</v>
       </c>
       <c r="G16">
-        <v>18.09965346264377</v>
+        <v>18.79190327653295</v>
       </c>
       <c r="H16">
-        <v>1.510726295222621E-63</v>
+        <v>1.073278332039668E-67</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -5885,25 +5884,25 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.03887524003979455</v>
+        <v>0.03826610291055481</v>
       </c>
       <c r="C17">
-        <v>0.05669855629077784</v>
+        <v>0.05878372125306557</v>
       </c>
       <c r="D17">
-        <v>0.08036127435102494</v>
+        <v>0.07847023795752164</v>
       </c>
       <c r="E17">
-        <v>0.06196670339564728</v>
+        <v>0.06156694893032869</v>
       </c>
       <c r="F17">
         <v>0.06890588126417103</v>
       </c>
       <c r="G17">
-        <v>-6.876798590173178</v>
+        <v>-7.523105503065307</v>
       </c>
       <c r="H17">
-        <v>1.077550583535574E-11</v>
+        <v>1.190326576130019E-13</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -5920,25 +5919,25 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.03887524003979455</v>
+        <v>0.03826610291055481</v>
       </c>
       <c r="C18">
-        <v>0.05669855629077784</v>
+        <v>0.05878372125306557</v>
       </c>
       <c r="D18">
-        <v>0.08036127435102494</v>
+        <v>0.07847023795752164</v>
       </c>
       <c r="E18">
-        <v>0.06196670339564728</v>
+        <v>0.06156694893032869</v>
       </c>
       <c r="F18">
         <v>0.06962310860210079</v>
       </c>
       <c r="G18">
-        <v>-7.587578460607351</v>
+        <v>-8.25833192122513</v>
       </c>
       <c r="H18">
-        <v>7.450122347929535E-14</v>
+        <v>4.648441947952161E-16</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -5955,25 +5954,25 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.03887524003979455</v>
+        <v>0.03826610291055481</v>
       </c>
       <c r="C19">
-        <v>0.05669855629077784</v>
+        <v>0.05878372125306557</v>
       </c>
       <c r="D19">
-        <v>0.08036127435102494</v>
+        <v>0.07847023795752164</v>
       </c>
       <c r="E19">
-        <v>0.06196670339564728</v>
+        <v>0.06156694893032869</v>
       </c>
       <c r="F19">
         <v>0.09291709083337191</v>
       </c>
       <c r="G19">
-        <v>-30.6721609864625</v>
+        <v>-32.13688508682322</v>
       </c>
       <c r="H19">
-        <v>4.065902133497689E-146</v>
+        <v>3.52524695066511E-156</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -5990,25 +5989,25 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.03887524003979455</v>
+        <v>0.03826610291055481</v>
       </c>
       <c r="C20">
-        <v>0.05669855629077784</v>
+        <v>0.05878372125306557</v>
       </c>
       <c r="D20">
-        <v>0.08036127435102494</v>
+        <v>0.07847023795752164</v>
       </c>
       <c r="E20">
-        <v>0.06196670339564728</v>
+        <v>0.06156694893032869</v>
       </c>
       <c r="F20">
         <v>0.092911306741937</v>
       </c>
       <c r="G20">
-        <v>-30.6664288907332</v>
+        <v>-32.13095584151549</v>
       </c>
       <c r="H20">
-        <v>4.451662025081148E-146</v>
+        <v>3.871843593484036E-156</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -6025,25 +6024,25 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <v>0.03015246865022442</v>
+        <v>0.02996737772430707</v>
       </c>
       <c r="C21">
-        <v>0.0529764934524085</v>
+        <v>0.05209152746286613</v>
       </c>
       <c r="D21">
-        <v>0.08686259312387211</v>
+        <v>0.08727615566146869</v>
       </c>
       <c r="E21">
-        <v>0.06374125638178088</v>
+        <v>0.06389909941696359</v>
       </c>
       <c r="F21">
         <v>0.0167854333441303</v>
       </c>
       <c r="G21">
-        <v>31.65705689865636</v>
+        <v>31.85595694045213</v>
       </c>
       <c r="H21">
-        <v>6.973989102315829E-153</v>
+        <v>2.999348510301664E-154</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -6060,25 +6059,25 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>0.02603997963999815</v>
+        <v>0.02205859670229667</v>
       </c>
       <c r="C22">
-        <v>0.05086915613962026</v>
+        <v>0.05018277728934339</v>
       </c>
       <c r="D22">
-        <v>0.08399850384834884</v>
+        <v>0.08782178828682924</v>
       </c>
       <c r="E22">
-        <v>0.06264703160427559</v>
+        <v>0.06310726404763006</v>
       </c>
       <c r="F22">
         <v>0.06149646013604184</v>
       </c>
       <c r="G22">
-        <v>0.7246589608314969</v>
+        <v>0.9092616743578242</v>
       </c>
       <c r="H22">
-        <v>0.4688309614333082</v>
+        <v>0.363431324051514</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -6095,25 +6094,25 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.03015246865022442</v>
+        <v>0.02996737772430707</v>
       </c>
       <c r="C23">
-        <v>0.0529764934524085</v>
+        <v>0.05209152746286613</v>
       </c>
       <c r="D23">
-        <v>0.08686259312387211</v>
+        <v>0.08727615566146869</v>
       </c>
       <c r="E23">
-        <v>0.06374125638178088</v>
+        <v>0.06389909941696359</v>
       </c>
       <c r="F23">
         <v>0.04711720882883717</v>
       </c>
       <c r="G23">
-        <v>11.20773495648304</v>
+        <v>11.34709371009864</v>
       </c>
       <c r="H23">
-        <v>1.518793310347555E-27</v>
+        <v>3.727012686388569E-28</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -6130,25 +6129,25 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.04137906878698606</v>
+        <v>0.0415473430026204</v>
       </c>
       <c r="C24">
-        <v>0.05811469467709345</v>
+        <v>0.05888376461232877</v>
       </c>
       <c r="D24">
-        <v>0.07841685561365355</v>
+        <v>0.08083203512614462</v>
       </c>
       <c r="E24">
-        <v>0.06248387266772581</v>
+        <v>0.06305752557425318</v>
       </c>
       <c r="F24">
         <v>0.06057100550645505</v>
       </c>
       <c r="G24">
-        <v>2.043964080522625</v>
+        <v>2.681902922556751</v>
       </c>
       <c r="H24">
-        <v>0.04121890814236367</v>
+        <v>0.007441223918326021</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -6165,25 +6164,25 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>0.0348645751392038</v>
+        <v>0.03481348233152869</v>
       </c>
       <c r="C25">
-        <v>0.05492958832693227</v>
+        <v>0.05588589144417195</v>
       </c>
       <c r="D25">
-        <v>0.08267394690975276</v>
+        <v>0.08194322335847484</v>
       </c>
       <c r="E25">
-        <v>0.0615899702569165</v>
+        <v>0.06212435025372881</v>
       </c>
       <c r="F25">
         <v>0.0661700060154551</v>
       </c>
       <c r="G25">
-        <v>-4.007441416374209</v>
+        <v>-3.524863799870805</v>
       </c>
       <c r="H25">
-        <v>6.594049504587691E-05</v>
+        <v>0.0004429125961581705</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -6200,25 +6199,25 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>0.02603997963999815</v>
+        <v>0.02205859670229667</v>
       </c>
       <c r="C26">
-        <v>0.05086915613962026</v>
+        <v>0.05018277728934339</v>
       </c>
       <c r="D26">
-        <v>0.08399850384834884</v>
+        <v>0.08782178828682924</v>
       </c>
       <c r="E26">
-        <v>0.06264703160427559</v>
+        <v>0.06310726404763006</v>
       </c>
       <c r="F26">
         <v>0.07142967316027332</v>
       </c>
       <c r="G26">
-        <v>-5.531529399990145</v>
+        <v>-4.697808088255546</v>
       </c>
       <c r="H26">
-        <v>4.053792070668953E-08</v>
+        <v>2.997344846562035E-06</v>
       </c>
       <c r="I26" t="s">
         <v>10</v>
@@ -6235,25 +6234,25 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>0.03887524003979455</v>
+        <v>0.03826610291055481</v>
       </c>
       <c r="C27">
-        <v>0.05669855629077784</v>
+        <v>0.05878372125306557</v>
       </c>
       <c r="D27">
-        <v>0.08036127435102494</v>
+        <v>0.07847023795752164</v>
       </c>
       <c r="E27">
-        <v>0.06196670339564728</v>
+        <v>0.06156694893032869</v>
       </c>
       <c r="F27">
         <v>0.07234741566794689</v>
       </c>
       <c r="G27">
-        <v>-10.28739554911136</v>
+        <v>-11.05100646117093</v>
       </c>
       <c r="H27">
-        <v>1.159225757418365E-23</v>
+        <v>7.257946403945478E-27</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -6270,22 +6269,22 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>0.03683309425755402</v>
+        <v>0.03820061873252378</v>
       </c>
       <c r="C28">
-        <v>0.05750268271669409</v>
+        <v>0.05565783298188093</v>
       </c>
       <c r="D28">
-        <v>0.08334820671130884</v>
+        <v>0.07932302993845727</v>
       </c>
       <c r="E28">
-        <v>0.06460397537849992</v>
+        <v>0.06193291831100123</v>
       </c>
       <c r="F28">
         <v>0.1611547029621159</v>
       </c>
       <c r="G28">
-        <v>-78.68061553219765</v>
+        <v>-91.57025536709453</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -6305,25 +6304,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0424278881546014</v>
+        <v>0.04369986244378915</v>
       </c>
       <c r="C29">
-        <v>0.05897249296444151</v>
+        <v>0.05767790813600818</v>
       </c>
       <c r="D29">
-        <v>0.07886188010314613</v>
+        <v>0.07708090576768564</v>
       </c>
       <c r="E29">
-        <v>0.06335134324130669</v>
+        <v>0.06206611181455012</v>
       </c>
       <c r="F29">
         <v>0.0625144602285873</v>
       </c>
       <c r="G29">
-        <v>0.9440065507499957</v>
+        <v>-0.5251743126936347</v>
       </c>
       <c r="H29">
-        <v>0.345394545320064</v>
+        <v>0.5995785516872056</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -6340,25 +6339,25 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>0.03349220304474573</v>
+        <v>0.0314712414973856</v>
       </c>
       <c r="C30">
-        <v>0.0531650548331868</v>
+        <v>0.05332083969583391</v>
       </c>
       <c r="D30">
-        <v>0.08165748924158994</v>
+        <v>0.08101429827402712</v>
       </c>
       <c r="E30">
-        <v>0.06118173075439977</v>
+        <v>0.0612339672697546</v>
       </c>
       <c r="F30">
         <v>0.0542501503863773</v>
       </c>
       <c r="G30">
-        <v>5.533085334539885</v>
+        <v>5.258609445324685</v>
       </c>
       <c r="H30">
-        <v>4.019042769325654E-08</v>
+        <v>1.775267804140397E-07</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -6375,25 +6374,25 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0.04328621226844354</v>
+        <v>0.04433747088673978</v>
       </c>
       <c r="C31">
-        <v>0.06042158314438635</v>
+        <v>0.05956650162725773</v>
       </c>
       <c r="D31">
-        <v>0.07857881017383123</v>
+        <v>0.07692552403868401</v>
       </c>
       <c r="E31">
-        <v>0.06356508645288665</v>
+        <v>0.06306381363143256</v>
       </c>
       <c r="F31">
         <v>0.09229192695078126</v>
       </c>
       <c r="G31">
-        <v>-33.43115829450321</v>
+        <v>-34.82989390413112</v>
       </c>
       <c r="H31">
-        <v>4.595989145521133E-165</v>
+        <v>1.210656613053615E-174</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -6410,25 +6409,25 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <v>0.03683309425755402</v>
+        <v>0.03820061873252378</v>
       </c>
       <c r="C32">
-        <v>0.05750268271669409</v>
+        <v>0.05565783298188093</v>
       </c>
       <c r="D32">
-        <v>0.08334820671130884</v>
+        <v>0.07932302993845727</v>
       </c>
       <c r="E32">
-        <v>0.06460397537849992</v>
+        <v>0.06193291831100123</v>
       </c>
       <c r="F32">
         <v>0.07664086411020843</v>
       </c>
       <c r="G32">
-        <v>-9.809038608054063</v>
+        <v>-13.57373642788694</v>
       </c>
       <c r="H32">
-        <v>9.513815610894471E-22</v>
+        <v>1.21753919862487E-38</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -6445,25 +6444,25 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <v>0.04328621226844354</v>
+        <v>0.04433747088673978</v>
       </c>
       <c r="C33">
-        <v>0.06042158314438635</v>
+        <v>0.05956650162725773</v>
       </c>
       <c r="D33">
-        <v>0.07857881017383123</v>
+        <v>0.07692552403868401</v>
       </c>
       <c r="E33">
-        <v>0.06356508645288665</v>
+        <v>0.06306381363143256</v>
       </c>
       <c r="F33">
         <v>0.05334474727376492</v>
       </c>
       <c r="G33">
-        <v>11.89402562198837</v>
+        <v>11.5817961421643</v>
       </c>
       <c r="H33">
-        <v>1.325042804175061E-30</v>
+        <v>3.395793219243245E-29</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
@@ -6480,25 +6479,25 @@
         <v>16</v>
       </c>
       <c r="B34">
-        <v>0.03683309425755402</v>
+        <v>0.03820061873252378</v>
       </c>
       <c r="C34">
-        <v>0.05750268271669409</v>
+        <v>0.05565783298188093</v>
       </c>
       <c r="D34">
-        <v>0.08334820671130884</v>
+        <v>0.07932302993845727</v>
       </c>
       <c r="E34">
-        <v>0.06460397537849992</v>
+        <v>0.06193291831100123</v>
       </c>
       <c r="F34">
         <v>0.07766547459296523</v>
       </c>
       <c r="G34">
-        <v>-10.64400884061115</v>
+        <v>-14.51933364615657</v>
       </c>
       <c r="H34">
-        <v>3.894054382938701E-25</v>
+        <v>1.757823390934327E-43</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
@@ -6560,25 +6559,25 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.5606684841284364</v>
+        <v>0.5605581827826922</v>
       </c>
       <c r="C2">
-        <v>0.5877187100368942</v>
+        <v>0.5863010475845429</v>
       </c>
       <c r="D2">
-        <v>0.6129883001313317</v>
+        <v>0.6100849253579209</v>
       </c>
       <c r="E2">
-        <v>0.5879645057003949</v>
+        <v>0.584441809121835</v>
       </c>
       <c r="F2">
         <v>0.5537199043312993</v>
       </c>
       <c r="G2">
-        <v>28.15337239414264</v>
+        <v>25.43734403633802</v>
       </c>
       <c r="H2">
-        <v>7.34770102126016E-129</v>
+        <v>1.873644060023716E-110</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -6595,25 +6594,25 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.5621535698335239</v>
+        <v>0.5584856286795176</v>
       </c>
       <c r="C3">
-        <v>0.585997866443318</v>
+        <v>0.5861101986605901</v>
       </c>
       <c r="D3">
-        <v>0.6102057009227396</v>
+        <v>0.6095355929806681</v>
       </c>
       <c r="E3">
-        <v>0.5852791999946063</v>
+        <v>0.5853379969227958</v>
       </c>
       <c r="F3">
         <v>0.6093683484340664</v>
       </c>
       <c r="G3">
-        <v>-20.76158243493457</v>
+        <v>-20.47749633354983</v>
       </c>
       <c r="H3">
-        <v>7.038893142739237E-80</v>
+        <v>4.326791227014747E-78</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -6630,25 +6629,25 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.5616577219450627</v>
+        <v>0.5591309397387</v>
       </c>
       <c r="C4">
-        <v>0.5854120317189857</v>
+        <v>0.5865679603296541</v>
       </c>
       <c r="D4">
-        <v>0.6098653987406596</v>
+        <v>0.6116670337314137</v>
       </c>
       <c r="E4">
-        <v>0.585960051173528</v>
+        <v>0.5851208164781954</v>
       </c>
       <c r="F4">
         <v>0.6249427345688395</v>
       </c>
       <c r="G4">
-        <v>-33.98804216948712</v>
+        <v>-33.93682221278052</v>
       </c>
       <c r="H4">
-        <v>6.996671004352105E-169</v>
+        <v>1.569745923155376E-168</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -6665,25 +6664,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.5353047742343129</v>
+        <v>0.5300992228070938</v>
       </c>
       <c r="C5">
-        <v>0.5937950465492634</v>
+        <v>0.5811776320481534</v>
       </c>
       <c r="D5">
-        <v>0.6410154466667209</v>
+        <v>0.6306202992377488</v>
       </c>
       <c r="E5">
-        <v>0.5895031488635923</v>
+        <v>0.5801645603658094</v>
       </c>
       <c r="F5">
         <v>0.601504331343471</v>
       </c>
       <c r="G5">
-        <v>-5.108961965388657</v>
+        <v>-9.183948610838994</v>
       </c>
       <c r="H5">
-        <v>3.879293733404033E-07</v>
+        <v>2.335490273333208E-19</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -6700,25 +6699,25 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>0.5410616915121748</v>
+        <v>0.5364227216254935</v>
       </c>
       <c r="C6">
-        <v>0.5888250113463102</v>
+        <v>0.5876170959228082</v>
       </c>
       <c r="D6">
-        <v>0.6382787173235718</v>
+        <v>0.6309907157889565</v>
       </c>
       <c r="E6">
-        <v>0.5875607927269241</v>
+        <v>0.5836423423833196</v>
       </c>
       <c r="F6">
         <v>0.5550895075181124</v>
       </c>
       <c r="G6">
-        <v>14.44788879973385</v>
+        <v>12.75371751013756</v>
       </c>
       <c r="H6">
-        <v>4.150823412955795E-43</v>
+        <v>1.267101138199487E-34</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -6735,25 +6734,25 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.5141615518376842</v>
+        <v>0.5150056506162474</v>
       </c>
       <c r="C7">
-        <v>0.5870833556424937</v>
+        <v>0.5843139606643706</v>
       </c>
       <c r="D7">
-        <v>0.6560188188014886</v>
+        <v>0.6539001904433082</v>
       </c>
       <c r="E7">
-        <v>0.5863003063646879</v>
+        <v>0.5816602424524561</v>
       </c>
       <c r="F7">
         <v>0.5870646431349738</v>
       </c>
       <c r="G7">
-        <v>-0.2418059209062978</v>
+        <v>-1.698444457784156</v>
       </c>
       <c r="H7">
-        <v>0.8089801765239519</v>
+        <v>0.08973529392491705</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -6770,25 +6769,25 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.529624922338691</v>
+        <v>0.5353024570365398</v>
       </c>
       <c r="C8">
-        <v>0.5882310087823881</v>
+        <v>0.5881780412466542</v>
       </c>
       <c r="D8">
-        <v>0.6419000757186067</v>
+        <v>0.6428697566225243</v>
       </c>
       <c r="E8">
-        <v>0.584315437546032</v>
+        <v>0.5878931842620899</v>
       </c>
       <c r="F8">
         <v>0.5694441491438318</v>
       </c>
       <c r="G8">
-        <v>5.48446939060818</v>
+        <v>7.379818366232332</v>
       </c>
       <c r="H8">
-        <v>5.254182789674631E-08</v>
+        <v>3.331041039013176E-13</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -6805,25 +6804,25 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.5353047742343129</v>
+        <v>0.5300992228070938</v>
       </c>
       <c r="C9">
-        <v>0.5937950465492634</v>
+        <v>0.5811776320481534</v>
       </c>
       <c r="D9">
-        <v>0.6410154466667209</v>
+        <v>0.6306202992377488</v>
       </c>
       <c r="E9">
-        <v>0.5895031488635923</v>
+        <v>0.5801645603658094</v>
       </c>
       <c r="F9">
         <v>0.54967908171026</v>
       </c>
       <c r="G9">
-        <v>16.9532997881318</v>
+        <v>13.11996598475559</v>
       </c>
       <c r="H9">
-        <v>7.467916699894162E-57</v>
+        <v>2.137950981408399E-36</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -6840,25 +6839,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5228286805797121</v>
+        <v>0.5183596042702604</v>
       </c>
       <c r="C10">
-        <v>0.5898385222431627</v>
+        <v>0.5888741891178513</v>
       </c>
       <c r="D10">
-        <v>0.6466539806301798</v>
+        <v>0.6495915864225681</v>
       </c>
       <c r="E10">
-        <v>0.5839191670443535</v>
+        <v>0.5838685663350454</v>
       </c>
       <c r="F10">
         <v>0.5362147177584577</v>
       </c>
       <c r="G10">
-        <v>16.65651662071393</v>
+        <v>16.07737495923638</v>
       </c>
       <c r="H10">
-        <v>3.696172303412028E-55</v>
+        <v>6.694984673987245E-52</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -6875,25 +6874,25 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>0.5430494479222336</v>
+        <v>0.5365847702128435</v>
       </c>
       <c r="C11">
-        <v>0.5847427356163357</v>
+        <v>0.5856941153365951</v>
       </c>
       <c r="D11">
-        <v>0.6365598251931398</v>
+        <v>0.6303189749445333</v>
       </c>
       <c r="E11">
-        <v>0.5850367950791142</v>
+        <v>0.5828528828742739</v>
       </c>
       <c r="F11">
         <v>0.5173924532743387</v>
       </c>
       <c r="G11">
-        <v>31.42721179623517</v>
+        <v>29.41279098484022</v>
       </c>
       <c r="H11">
-        <v>2.645845172159863E-151</v>
+        <v>1.779972561935567E-137</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -6910,25 +6909,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5228286805797121</v>
+        <v>0.5183596042702604</v>
       </c>
       <c r="C12">
-        <v>0.5898385222431627</v>
+        <v>0.5888741891178513</v>
       </c>
       <c r="D12">
-        <v>0.6466539806301798</v>
+        <v>0.6495915864225681</v>
       </c>
       <c r="E12">
-        <v>0.5839191670443535</v>
+        <v>0.5838685663350454</v>
       </c>
       <c r="F12">
         <v>0.5258991800331837</v>
       </c>
       <c r="G12">
-        <v>20.25829649962827</v>
+        <v>19.55761365703716</v>
       </c>
       <c r="H12">
-        <v>1.022060912568432E-76</v>
+        <v>2.277377469805821E-72</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -6945,25 +6944,25 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0.5228286805797121</v>
+        <v>0.5183596042702604</v>
       </c>
       <c r="C13">
-        <v>0.5898385222431627</v>
+        <v>0.5888741891178513</v>
       </c>
       <c r="D13">
-        <v>0.6466539806301798</v>
+        <v>0.6495915864225681</v>
       </c>
       <c r="E13">
-        <v>0.5839191670443535</v>
+        <v>0.5838685663350454</v>
       </c>
       <c r="F13">
         <v>0.5292181572372879</v>
       </c>
       <c r="G13">
-        <v>19.09944025473965</v>
+        <v>18.43786273270662</v>
       </c>
       <c r="H13">
-        <v>1.45889985379524E-69</v>
+        <v>1.451590900079824E-65</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -6980,22 +6979,22 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.5353047742343129</v>
+        <v>0.5300992228070938</v>
       </c>
       <c r="C14">
-        <v>0.5937950465492634</v>
+        <v>0.5811776320481534</v>
       </c>
       <c r="D14">
-        <v>0.6410154466667209</v>
+        <v>0.6306202992377488</v>
       </c>
       <c r="E14">
-        <v>0.5895031488635923</v>
+        <v>0.5801645603658094</v>
       </c>
       <c r="F14">
         <v>0.7354977600753133</v>
       </c>
       <c r="G14">
-        <v>-62.15061866469729</v>
+        <v>-66.85039521664056</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -7015,25 +7014,25 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0.4872380445712099</v>
+        <v>0.4931667391040896</v>
       </c>
       <c r="C15">
-        <v>0.6089828479599031</v>
+        <v>0.6034686501491544</v>
       </c>
       <c r="D15">
-        <v>0.686600728757732</v>
+        <v>0.6785665764721134</v>
       </c>
       <c r="E15">
-        <v>0.5857066744276673</v>
+        <v>0.5861357203762118</v>
       </c>
       <c r="F15">
         <v>0.6999594329417376</v>
       </c>
       <c r="G15">
-        <v>-24.21771635591282</v>
+        <v>-26.19945357882485</v>
       </c>
       <c r="H15">
-        <v>2.615090184826713E-102</v>
+        <v>1.379860246969755E-115</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -7050,25 +7049,25 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.4872380445712099</v>
+        <v>0.4931667391040896</v>
       </c>
       <c r="C16">
-        <v>0.6089828479599031</v>
+        <v>0.6034686501491544</v>
       </c>
       <c r="D16">
-        <v>0.686600728757732</v>
+        <v>0.6785665764721134</v>
       </c>
       <c r="E16">
-        <v>0.5857066744276673</v>
+        <v>0.5861357203762118</v>
       </c>
       <c r="F16">
         <v>0.704468164109461</v>
       </c>
       <c r="G16">
-        <v>-25.17341470372595</v>
+        <v>-27.23725396563061</v>
       </c>
       <c r="H16">
-        <v>1.104051591770313E-108</v>
+        <v>1.279701361896995E-122</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -7085,25 +7084,25 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.5410616915121748</v>
+        <v>0.5364227216254935</v>
       </c>
       <c r="C17">
-        <v>0.5888250113463102</v>
+        <v>0.5876170959228082</v>
       </c>
       <c r="D17">
-        <v>0.6382787173235718</v>
+        <v>0.6309907157889565</v>
       </c>
       <c r="E17">
-        <v>0.5875607927269241</v>
+        <v>0.5836423423833196</v>
       </c>
       <c r="F17">
         <v>0.6477490241871442</v>
       </c>
       <c r="G17">
-        <v>-26.78036516256899</v>
+        <v>-28.6345826639628</v>
       </c>
       <c r="H17">
-        <v>1.617077772413116E-119</v>
+        <v>3.787077811840317E-132</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -7120,25 +7119,25 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.5410616915121748</v>
+        <v>0.5364227216254935</v>
       </c>
       <c r="C18">
-        <v>0.5888250113463102</v>
+        <v>0.5876170959228082</v>
       </c>
       <c r="D18">
-        <v>0.6382787173235718</v>
+        <v>0.6309907157889565</v>
       </c>
       <c r="E18">
-        <v>0.5875607927269241</v>
+        <v>0.5836423423833196</v>
       </c>
       <c r="F18">
         <v>0.6563621849179271</v>
       </c>
       <c r="G18">
-        <v>-30.61273544456866</v>
+        <v>-32.48183003356362</v>
       </c>
       <c r="H18">
-        <v>1.040525203388738E-145</v>
+        <v>1.50671386015595E-158</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -7155,25 +7154,25 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.5410616915121748</v>
+        <v>0.5364227216254935</v>
       </c>
       <c r="C19">
-        <v>0.5888250113463102</v>
+        <v>0.5876170959228082</v>
       </c>
       <c r="D19">
-        <v>0.6382787173235718</v>
+        <v>0.6309907157889565</v>
       </c>
       <c r="E19">
-        <v>0.5875607927269241</v>
+        <v>0.5836423423833196</v>
       </c>
       <c r="F19">
         <v>0.6102737803548567</v>
       </c>
       <c r="G19">
-        <v>-10.10599726644174</v>
+        <v>-11.89548562800019</v>
       </c>
       <c r="H19">
-        <v>6.289186528948734E-23</v>
+        <v>1.30490068223895E-30</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -7190,25 +7189,25 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.5410616915121748</v>
+        <v>0.5364227216254935</v>
       </c>
       <c r="C20">
-        <v>0.5888250113463102</v>
+        <v>0.5876170959228082</v>
       </c>
       <c r="D20">
-        <v>0.6382787173235718</v>
+        <v>0.6309907157889565</v>
       </c>
       <c r="E20">
-        <v>0.5875607927269241</v>
+        <v>0.5836423423833196</v>
       </c>
       <c r="F20">
         <v>0.5478073129012776</v>
       </c>
       <c r="G20">
-        <v>17.68805429874212</v>
+        <v>16.00646118464139</v>
       </c>
       <c r="H20">
-        <v>4.063476412335115E-61</v>
+        <v>1.660017894485641E-51</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -7225,25 +7224,25 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>0.5141615518376842</v>
+        <v>0.5150056506162474</v>
       </c>
       <c r="C21">
-        <v>0.5870833556424937</v>
+        <v>0.5843139606643706</v>
       </c>
       <c r="D21">
-        <v>0.6560188188014886</v>
+        <v>0.6539001904433082</v>
       </c>
       <c r="E21">
-        <v>0.5863003063646879</v>
+        <v>0.5816602424524561</v>
       </c>
       <c r="F21">
         <v>0.4531867190535332</v>
       </c>
       <c r="G21">
-        <v>42.11187373973415</v>
+        <v>40.37545633778782</v>
       </c>
       <c r="H21">
-        <v>1.187127995271883E-223</v>
+        <v>3.876998120654754E-212</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -7260,25 +7259,25 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>0.5144550938657868</v>
+        <v>0.5059849602291769</v>
       </c>
       <c r="C22">
-        <v>0.591993052690543</v>
+        <v>0.5906000401011715</v>
       </c>
       <c r="D22">
-        <v>0.6696398644810992</v>
+        <v>0.6745852735543851</v>
       </c>
       <c r="E22">
-        <v>0.5852370508711908</v>
+        <v>0.5836522957053243</v>
       </c>
       <c r="F22">
         <v>0.4793356716701949</v>
       </c>
       <c r="G22">
-        <v>28.60632043155251</v>
+        <v>27.72559746104052</v>
       </c>
       <c r="H22">
-        <v>5.90964295599475E-132</v>
+        <v>6.076050789480022E-126</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -7295,25 +7294,25 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>0.5141615518376842</v>
+        <v>0.5150056506162474</v>
       </c>
       <c r="C23">
-        <v>0.5870833556424937</v>
+        <v>0.5843139606643706</v>
       </c>
       <c r="D23">
-        <v>0.6560188188014886</v>
+        <v>0.6539001904433082</v>
       </c>
       <c r="E23">
-        <v>0.5863003063646879</v>
+        <v>0.5816602424524561</v>
       </c>
       <c r="F23">
         <v>0.4512875375244538</v>
       </c>
       <c r="G23">
-        <v>42.71269965372953</v>
+        <v>40.97231333116831</v>
       </c>
       <c r="H23">
-        <v>1.320456165552119E-227</v>
+        <v>4.136177527558009E-216</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -7330,25 +7329,25 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.5430494479222336</v>
+        <v>0.5365847702128435</v>
       </c>
       <c r="C24">
-        <v>0.5847427356163357</v>
+        <v>0.5856941153365951</v>
       </c>
       <c r="D24">
-        <v>0.6365598251931398</v>
+        <v>0.6303189749445333</v>
       </c>
       <c r="E24">
-        <v>0.5850367950791142</v>
+        <v>0.5828528828742739</v>
       </c>
       <c r="F24">
         <v>0.6297561819315407</v>
       </c>
       <c r="G24">
-        <v>-20.77639614064163</v>
+        <v>-21.07466969132456</v>
       </c>
       <c r="H24">
-        <v>5.675014312632221E-80</v>
+        <v>7.329922453724731E-82</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -7365,25 +7364,25 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>0.529624922338691</v>
+        <v>0.5353024570365398</v>
       </c>
       <c r="C25">
-        <v>0.5882310087823881</v>
+        <v>0.5881780412466542</v>
       </c>
       <c r="D25">
-        <v>0.6419000757186067</v>
+        <v>0.6428697566225243</v>
       </c>
       <c r="E25">
-        <v>0.584315437546032</v>
+        <v>0.5878931842620899</v>
       </c>
       <c r="F25">
         <v>0.6380888540528127</v>
       </c>
       <c r="G25">
-        <v>-19.83141264453121</v>
+        <v>-20.07882382208203</v>
       </c>
       <c r="H25">
-        <v>4.636908161373531E-74</v>
+        <v>1.34692325657404E-75</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -7400,25 +7399,25 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>0.5144550938657868</v>
+        <v>0.5059849602291769</v>
       </c>
       <c r="C26">
-        <v>0.591993052690543</v>
+        <v>0.5906000401011715</v>
       </c>
       <c r="D26">
-        <v>0.6696398644810992</v>
+        <v>0.6745852735543851</v>
       </c>
       <c r="E26">
-        <v>0.5852370508711908</v>
+        <v>0.5836522957053243</v>
       </c>
       <c r="F26">
         <v>0.5784323559962915</v>
       </c>
       <c r="G26">
-        <v>1.838099593215519</v>
+        <v>1.387371844920963</v>
       </c>
       <c r="H26">
-        <v>0.06634450755356062</v>
+        <v>0.1656378142086746</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
@@ -7435,25 +7434,25 @@
         <v>21</v>
       </c>
       <c r="B27">
-        <v>0.5410616915121748</v>
+        <v>0.5364227216254935</v>
       </c>
       <c r="C27">
-        <v>0.5888250113463102</v>
+        <v>0.5876170959228082</v>
       </c>
       <c r="D27">
-        <v>0.6382787173235718</v>
+        <v>0.6309907157889565</v>
       </c>
       <c r="E27">
-        <v>0.5875607927269241</v>
+        <v>0.5836423423833196</v>
       </c>
       <c r="F27">
         <v>0.6118475504918783</v>
       </c>
       <c r="G27">
-        <v>-10.8062361325603</v>
+        <v>-12.59844278963469</v>
       </c>
       <c r="H27">
-        <v>8.072609259821773E-26</v>
+        <v>6.977456049710552E-34</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -7470,25 +7469,25 @@
         <v>17</v>
       </c>
       <c r="B28">
-        <v>0.5353047742343129</v>
+        <v>0.5300992228070938</v>
       </c>
       <c r="C28">
-        <v>0.5937950465492634</v>
+        <v>0.5811776320481534</v>
       </c>
       <c r="D28">
-        <v>0.6410154466667209</v>
+        <v>0.6306202992377488</v>
       </c>
       <c r="E28">
-        <v>0.5895031488635923</v>
+        <v>0.5801645603658094</v>
       </c>
       <c r="F28">
         <v>0.557948976385421</v>
       </c>
       <c r="G28">
-        <v>13.43276525547178</v>
+        <v>9.560870257194432</v>
       </c>
       <c r="H28">
-        <v>6.142916271827902E-38</v>
+        <v>8.760380315294287E-21</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -7505,25 +7504,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5444371889104418</v>
+        <v>0.5450121519270309</v>
       </c>
       <c r="C29">
-        <v>0.5860801092073458</v>
+        <v>0.587385186441169</v>
       </c>
       <c r="D29">
-        <v>0.6261126719371467</v>
+        <v>0.6286943839746428</v>
       </c>
       <c r="E29">
-        <v>0.5845054477052842</v>
+        <v>0.5866506701169064</v>
       </c>
       <c r="F29">
         <v>0.6159944833258343</v>
       </c>
       <c r="G29">
-        <v>-16.30423356525449</v>
+        <v>-15.26301556703343</v>
       </c>
       <c r="H29">
-        <v>3.608980228374817E-53</v>
+        <v>1.95832260692298E-47</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -7540,25 +7539,25 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>0.5228286805797121</v>
+        <v>0.5183596042702604</v>
       </c>
       <c r="C30">
-        <v>0.5898385222431627</v>
+        <v>0.5888741891178513</v>
       </c>
       <c r="D30">
-        <v>0.6466539806301798</v>
+        <v>0.6495915864225681</v>
       </c>
       <c r="E30">
-        <v>0.5839191670443535</v>
+        <v>0.5838685663350454</v>
       </c>
       <c r="F30">
         <v>0.5453625374675967</v>
       </c>
       <c r="G30">
-        <v>13.46245792578175</v>
+        <v>12.99109899378212</v>
       </c>
       <c r="H30">
-        <v>4.372608769107085E-38</v>
+        <v>9.073670782045024E-36</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -7575,25 +7574,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5512606720987971</v>
+        <v>0.54870911117405</v>
       </c>
       <c r="C31">
-        <v>0.5884508509236817</v>
+        <v>0.5877381581850419</v>
       </c>
       <c r="D31">
-        <v>0.6244718183977319</v>
+        <v>0.6267785053101191</v>
       </c>
       <c r="E31">
-        <v>0.5868972611098165</v>
+        <v>0.5864303588794142</v>
       </c>
       <c r="F31">
         <v>0.5424496875739521</v>
       </c>
       <c r="G31">
-        <v>24.70230519255835</v>
+        <v>24.12290222111916</v>
       </c>
       <c r="H31">
-        <v>1.55826171842898E-105</v>
+        <v>1.113186397768178E-101</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -7610,25 +7609,25 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>0.5353047742343129</v>
+        <v>0.5300992228070938</v>
       </c>
       <c r="C32">
-        <v>0.5937950465492634</v>
+        <v>0.5811776320481534</v>
       </c>
       <c r="D32">
-        <v>0.6410154466667209</v>
+        <v>0.6306202992377488</v>
       </c>
       <c r="E32">
-        <v>0.5895031488635923</v>
+        <v>0.5801645603658094</v>
       </c>
       <c r="F32">
         <v>0.6448379648051772</v>
       </c>
       <c r="G32">
-        <v>-23.55630126292326</v>
+        <v>-27.83334570370565</v>
       </c>
       <c r="H32">
-        <v>6.195959395100561E-98</v>
+        <v>1.120156490111435E-126</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -7645,25 +7644,25 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.5512606720987971</v>
+        <v>0.54870911117405</v>
       </c>
       <c r="C33">
-        <v>0.5884508509236817</v>
+        <v>0.5877381581850419</v>
       </c>
       <c r="D33">
-        <v>0.6244718183977319</v>
+        <v>0.6267785053101191</v>
       </c>
       <c r="E33">
-        <v>0.5868972611098165</v>
+        <v>0.5864303588794142</v>
       </c>
       <c r="F33">
         <v>0.5874720382032174</v>
       </c>
       <c r="G33">
-        <v>-0.3194396915148129</v>
+        <v>-0.5713493616170561</v>
       </c>
       <c r="H33">
-        <v>0.7494599025096167</v>
+        <v>0.5678913603572457</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
@@ -7680,25 +7679,25 @@
         <v>16</v>
       </c>
       <c r="B34">
-        <v>0.5353047742343129</v>
+        <v>0.5300992228070938</v>
       </c>
       <c r="C34">
-        <v>0.5937950465492634</v>
+        <v>0.5811776320481534</v>
       </c>
       <c r="D34">
-        <v>0.6410154466667209</v>
+        <v>0.6306202992377488</v>
       </c>
       <c r="E34">
-        <v>0.5895031488635923</v>
+        <v>0.5801645603658094</v>
       </c>
       <c r="F34">
         <v>0.5594034719220932</v>
       </c>
       <c r="G34">
-        <v>12.8135794053987</v>
+        <v>8.934902327291374</v>
       </c>
       <c r="H34">
-        <v>6.538317245524538E-35</v>
+        <v>1.925742595507788E-18</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -7760,25 +7759,25 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.1889654819059062</v>
+        <v>0.1454486599361891</v>
       </c>
       <c r="C2">
-        <v>0.2052503155520065</v>
+        <v>0.1622520727575124</v>
       </c>
       <c r="D2">
-        <v>0.2222480244179799</v>
+        <v>0.1793087068497178</v>
       </c>
       <c r="E2">
-        <v>0.2065800272791956</v>
+        <v>0.1643980059403297</v>
       </c>
       <c r="F2">
-        <v>0.2449082164706688</v>
+        <v>0.2055064962720105</v>
       </c>
       <c r="G2">
-        <v>-48.46000753379739</v>
+        <v>-48.31094026813834</v>
       </c>
       <c r="H2">
-        <v>1.486398445612107E-264</v>
+        <v>1.286491362811514E-263</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -7795,25 +7794,25 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.1916650106681843</v>
+        <v>0.1450485490321222</v>
       </c>
       <c r="C3">
-        <v>0.2067691775226424</v>
+        <v>0.1627725780571959</v>
       </c>
       <c r="D3">
-        <v>0.2214471213586941</v>
+        <v>0.1805627842110832</v>
       </c>
       <c r="E3">
-        <v>0.2077888557277124</v>
+        <v>0.1635865878174202</v>
       </c>
       <c r="F3">
-        <v>0.2160552426671331</v>
+        <v>0.1745498190198948</v>
       </c>
       <c r="G3">
-        <v>-11.00287191865508</v>
+        <v>-13.30141357430277</v>
       </c>
       <c r="H3">
-        <v>1.169431110833565E-26</v>
+        <v>2.746528805604003E-37</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -7830,25 +7829,25 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.1910809129082077</v>
+        <v>0.144501413209222</v>
       </c>
       <c r="C4">
-        <v>0.2068631198616035</v>
+        <v>0.1618139850840775</v>
       </c>
       <c r="D4">
-        <v>0.2239648627192355</v>
+        <v>0.1807461803110437</v>
       </c>
       <c r="E4">
-        <v>0.2075915009792096</v>
+        <v>0.1636147895748205</v>
       </c>
       <c r="F4">
-        <v>0.1979265387492695</v>
+        <v>0.1564091067452639</v>
       </c>
       <c r="G4">
-        <v>12.90452877877915</v>
+        <v>8.854886819523763</v>
       </c>
       <c r="H4">
-        <v>2.382766121922104E-35</v>
+        <v>3.754408740140642E-18</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -7865,25 +7864,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.1697328470106188</v>
+        <v>0.1298061627347817</v>
       </c>
       <c r="C5">
-        <v>0.1978966140831777</v>
+        <v>0.1602132268723965</v>
       </c>
       <c r="D5">
-        <v>0.2321994250723527</v>
+        <v>0.1979391085793673</v>
       </c>
       <c r="E5">
-        <v>0.2042729990915444</v>
+        <v>0.1667445749772245</v>
       </c>
       <c r="F5">
-        <v>0.2165534226398119</v>
+        <v>0.171969213760215</v>
       </c>
       <c r="G5">
-        <v>-8.138823655684702</v>
+        <v>-3.221232991764991</v>
       </c>
       <c r="H5">
-        <v>1.179661413671408E-15</v>
+        <v>0.001317630114558081</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -7900,25 +7899,25 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.1721957616586027</v>
+        <v>0.1292838823905794</v>
       </c>
       <c r="C6">
-        <v>0.2029234876162476</v>
+        <v>0.1581308776636685</v>
       </c>
       <c r="D6">
-        <v>0.235686216153696</v>
+        <v>0.1966205003207471</v>
       </c>
       <c r="E6">
-        <v>0.2070237761694762</v>
+        <v>0.1652850176622055</v>
       </c>
       <c r="F6">
-        <v>0.2468654112086321</v>
+        <v>0.2031465324603666</v>
       </c>
       <c r="G6">
-        <v>-27.34208157883828</v>
+        <v>-24.18341725358869</v>
       </c>
       <c r="H6">
-        <v>2.479580637961239E-123</v>
+        <v>4.41703671873217E-102</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -7935,28 +7934,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1589540275763151</v>
+        <v>0.1131142801130133</v>
       </c>
       <c r="C7">
-        <v>0.1960784281911412</v>
+        <v>0.1535611396046836</v>
       </c>
       <c r="D7">
-        <v>0.2409927538348212</v>
+        <v>0.204223801150881</v>
       </c>
       <c r="E7">
-        <v>0.206144301338361</v>
+        <v>0.1654630524395362</v>
       </c>
       <c r="F7">
-        <v>0.212088840429686</v>
+        <v>0.166068855538196</v>
       </c>
       <c r="G7">
-        <v>-2.916178904376312</v>
+        <v>-0.2700248625279945</v>
       </c>
       <c r="H7">
-        <v>0.003622695983655699</v>
+        <v>0.7871968952610052</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -7970,25 +7969,25 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.1683544963758357</v>
+        <v>0.1216093687437346</v>
       </c>
       <c r="C8">
-        <v>0.1999626388199319</v>
+        <v>0.1527059276871524</v>
       </c>
       <c r="D8">
-        <v>0.2385160667136115</v>
+        <v>0.190552246109605</v>
       </c>
       <c r="E8">
-        <v>0.2079041733108777</v>
+        <v>0.1610069918547075</v>
       </c>
       <c r="F8">
-        <v>0.2248019392334576</v>
+        <v>0.176467850490707</v>
       </c>
       <c r="G8">
-        <v>-9.602263205490287</v>
+        <v>-9.000251185613218</v>
       </c>
       <c r="H8">
-        <v>6.068691573469702E-21</v>
+        <v>1.112240535435946E-18</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -8002,28 +8001,28 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1697328470106188</v>
+        <v>0.1298061627347817</v>
       </c>
       <c r="C9">
-        <v>0.1978966140831777</v>
+        <v>0.1602132268723965</v>
       </c>
       <c r="D9">
-        <v>0.2321994250723527</v>
+        <v>0.1979391085793673</v>
       </c>
       <c r="E9">
-        <v>0.2042729990915444</v>
+        <v>0.1667445749772245</v>
       </c>
       <c r="F9">
-        <v>0.2499780651025285</v>
+        <v>0.2093164931047669</v>
       </c>
       <c r="G9">
-        <v>-30.29093182110209</v>
+        <v>-26.24756904565617</v>
       </c>
       <c r="H9">
-        <v>1.685535816869174E-143</v>
+        <v>6.528385606290001E-116</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -8037,28 +8036,28 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.1663389991660258</v>
+        <v>0.1174346287095252</v>
       </c>
       <c r="C10">
-        <v>0.197510148849797</v>
+        <v>0.1542089275846348</v>
       </c>
       <c r="D10">
-        <v>0.2423518884486456</v>
+        <v>0.2021210564518558</v>
       </c>
       <c r="E10">
-        <v>0.2082658865600348</v>
+        <v>0.1647260475866509</v>
       </c>
       <c r="F10">
-        <v>0.2748213769985365</v>
+        <v>0.2367056505987363</v>
       </c>
       <c r="G10">
-        <v>-35.96121113855007</v>
+        <v>-35.30474934643226</v>
       </c>
       <c r="H10">
-        <v>2.301528962360818E-182</v>
+        <v>6.899538562949501E-178</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -8075,25 +8074,25 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.1752204280779255</v>
+        <v>0.1289469566139932</v>
       </c>
       <c r="C11">
-        <v>0.2042030786737322</v>
+        <v>0.1593270383292794</v>
       </c>
       <c r="D11">
-        <v>0.2338222746115241</v>
+        <v>0.1933815415748035</v>
       </c>
       <c r="E11">
-        <v>0.2075605391735326</v>
+        <v>0.1652329955187612</v>
       </c>
       <c r="F11">
-        <v>0.2596975193863854</v>
+        <v>0.2217354054161929</v>
       </c>
       <c r="G11">
-        <v>-37.8156367989444</v>
+        <v>-36.88325699488689</v>
       </c>
       <c r="H11">
-        <v>5.980105422472185E-195</v>
+        <v>1.236532385863786E-188</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -8107,28 +8106,28 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0.1663389991660258</v>
+        <v>0.1174346287095252</v>
       </c>
       <c r="C12">
-        <v>0.197510148849797</v>
+        <v>0.1542089275846348</v>
       </c>
       <c r="D12">
-        <v>0.2423518884486456</v>
+        <v>0.2021210564518558</v>
       </c>
       <c r="E12">
-        <v>0.2082658865600348</v>
+        <v>0.1647260475866509</v>
       </c>
       <c r="F12">
-        <v>0.2709035802481154</v>
+        <v>0.2394649844532094</v>
       </c>
       <c r="G12">
-        <v>-33.84435022727782</v>
+        <v>-36.65815483935975</v>
       </c>
       <c r="H12">
-        <v>6.753145941467846E-168</v>
+        <v>4.176050338073127E-187</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -8142,28 +8141,28 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>0.1663389991660258</v>
+        <v>0.1174346287095252</v>
       </c>
       <c r="C13">
-        <v>0.197510148849797</v>
+        <v>0.1542089275846348</v>
       </c>
       <c r="D13">
-        <v>0.2423518884486456</v>
+        <v>0.2021210564518558</v>
       </c>
       <c r="E13">
-        <v>0.2082658865600348</v>
+        <v>0.1647260475866509</v>
       </c>
       <c r="F13">
-        <v>0.2755867511674016</v>
+        <v>0.2375538235399127</v>
       </c>
       <c r="G13">
-        <v>-36.37475751774749</v>
+        <v>-35.72076349262907</v>
       </c>
       <c r="H13">
-        <v>3.525003667037704E-185</v>
+        <v>1.001401949617771E-180</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -8180,25 +8179,25 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0.1697328470106188</v>
+        <v>0.1298061627347817</v>
       </c>
       <c r="C14">
-        <v>0.1978966140831777</v>
+        <v>0.1602132268723965</v>
       </c>
       <c r="D14">
-        <v>0.2321994250723527</v>
+        <v>0.1979391085793673</v>
       </c>
       <c r="E14">
-        <v>0.2042729990915444</v>
+        <v>0.1667445749772245</v>
       </c>
       <c r="F14">
-        <v>0.1296143985642725</v>
+        <v>0.07637580556467875</v>
       </c>
       <c r="G14">
-        <v>49.47982304383947</v>
+        <v>55.71655257863995</v>
       </c>
       <c r="H14">
-        <v>6.184521054033416E-271</v>
+        <v>9.628896730659563E-309</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -8212,28 +8211,28 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>0.1341984599059589</v>
+        <v>0.1008963001203798</v>
       </c>
       <c r="C15">
-        <v>0.1818651168375178</v>
+        <v>0.1354755413834011</v>
       </c>
       <c r="D15">
-        <v>0.2445645648569101</v>
+        <v>0.1988452189214477</v>
       </c>
       <c r="E15">
-        <v>0.2085219159990005</v>
+        <v>0.1633165877427045</v>
       </c>
       <c r="F15">
-        <v>0.1174410944857105</v>
+        <v>0.08668784818126071</v>
       </c>
       <c r="G15">
-        <v>28.97717199476755</v>
+        <v>25.70541884240177</v>
       </c>
       <c r="H15">
-        <v>1.715071914415774E-134</v>
+        <v>2.955376166762645E-112</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -8247,28 +8246,28 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>0.1341984599059589</v>
+        <v>0.1008963001203798</v>
       </c>
       <c r="C16">
-        <v>0.1818651168375178</v>
+        <v>0.1354755413834011</v>
       </c>
       <c r="D16">
-        <v>0.2445645648569101</v>
+        <v>0.1988452189214477</v>
       </c>
       <c r="E16">
-        <v>0.2085219159990005</v>
+        <v>0.1633165877427045</v>
       </c>
       <c r="F16">
-        <v>0.1202389644441416</v>
+        <v>0.08411131741840192</v>
       </c>
       <c r="G16">
-        <v>28.08703554609025</v>
+        <v>26.56972644812079</v>
       </c>
       <c r="H16">
-        <v>2.084115958838443E-128</v>
+        <v>4.323673907071699E-118</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -8282,28 +8281,28 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>0.1721957616586027</v>
+        <v>0.1292838823905794</v>
       </c>
       <c r="C17">
-        <v>0.2029234876162476</v>
+        <v>0.1581308776636685</v>
       </c>
       <c r="D17">
-        <v>0.235686216153696</v>
+        <v>0.1966205003207471</v>
       </c>
       <c r="E17">
-        <v>0.2070237761694762</v>
+        <v>0.1652850176622055</v>
       </c>
       <c r="F17">
-        <v>0.1721353402489685</v>
+        <v>0.1311878299238039</v>
       </c>
       <c r="G17">
-        <v>23.9428542568368</v>
+        <v>21.77901551608715</v>
       </c>
       <c r="H17">
-        <v>1.735344081173966E-100</v>
+        <v>2.317427532272647E-86</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -8317,28 +8316,28 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>0.1721957616586027</v>
+        <v>0.1292838823905794</v>
       </c>
       <c r="C18">
-        <v>0.2029234876162476</v>
+        <v>0.1581308776636685</v>
       </c>
       <c r="D18">
-        <v>0.235686216153696</v>
+        <v>0.1966205003207471</v>
       </c>
       <c r="E18">
-        <v>0.2070237761694762</v>
+        <v>0.1652850176622055</v>
       </c>
       <c r="F18">
-        <v>0.1773280698850933</v>
+        <v>0.1279984810117116</v>
       </c>
       <c r="G18">
-        <v>20.37924455085361</v>
+        <v>23.81615945815027</v>
       </c>
       <c r="H18">
-        <v>1.788422535494204E-77</v>
+        <v>1.194832699888805E-99</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -8355,25 +8354,25 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.1721957616586027</v>
+        <v>0.1292838823905794</v>
       </c>
       <c r="C19">
-        <v>0.2029234876162476</v>
+        <v>0.1581308776636685</v>
       </c>
       <c r="D19">
-        <v>0.235686216153696</v>
+        <v>0.1966205003207471</v>
       </c>
       <c r="E19">
-        <v>0.2070237761694762</v>
+        <v>0.1652850176622055</v>
       </c>
       <c r="F19">
-        <v>0.2048961797119428</v>
+        <v>0.1624995259848566</v>
       </c>
       <c r="G19">
-        <v>1.460103629069271</v>
+        <v>1.779186803508369</v>
       </c>
       <c r="H19">
-        <v>0.1445759897778335</v>
+        <v>0.07551312439048333</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -8390,25 +8389,25 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.1721957616586027</v>
+        <v>0.1292838823905794</v>
       </c>
       <c r="C20">
-        <v>0.2029234876162476</v>
+        <v>0.1581308776636685</v>
       </c>
       <c r="D20">
-        <v>0.235686216153696</v>
+        <v>0.1966205003207471</v>
       </c>
       <c r="E20">
-        <v>0.2070237761694762</v>
+        <v>0.1652850176622055</v>
       </c>
       <c r="F20">
-        <v>0.2606513204282891</v>
+        <v>0.214462818580943</v>
       </c>
       <c r="G20">
-        <v>-36.80292459273242</v>
+        <v>-31.41150811244115</v>
       </c>
       <c r="H20">
-        <v>4.340512573083297E-188</v>
+        <v>3.391964999550403E-151</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -8425,22 +8424,22 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>0.1589540275763151</v>
+        <v>0.1131142801130133</v>
       </c>
       <c r="C21">
-        <v>0.1960784281911412</v>
+        <v>0.1535611396046836</v>
       </c>
       <c r="D21">
-        <v>0.2409927538348212</v>
+        <v>0.204223801150881</v>
       </c>
       <c r="E21">
-        <v>0.206144301338361</v>
+        <v>0.1654630524395362</v>
       </c>
       <c r="F21">
-        <v>0.3953444551530629</v>
+        <v>0.355521366531194</v>
       </c>
       <c r="G21">
-        <v>-92.81484885251295</v>
+        <v>-84.71476994494273</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -8460,25 +8459,25 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>0.1541811205974327</v>
+        <v>0.1027117325901452</v>
       </c>
       <c r="C22">
-        <v>0.1937410829117491</v>
+        <v>0.1461362120822731</v>
       </c>
       <c r="D22">
-        <v>0.2446123750525966</v>
+        <v>0.2104013111481764</v>
       </c>
       <c r="E22">
-        <v>0.2092483436795895</v>
+        <v>0.1653115514445897</v>
       </c>
       <c r="F22">
-        <v>0.2753200957501928</v>
+        <v>0.230067866272783</v>
       </c>
       <c r="G22">
-        <v>-26.7906353113159</v>
+        <v>-24.74082612070942</v>
       </c>
       <c r="H22">
-        <v>1.377530783198046E-119</v>
+        <v>8.622316699768177E-106</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -8495,22 +8494,22 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>0.1589540275763151</v>
+        <v>0.1131142801130133</v>
       </c>
       <c r="C23">
-        <v>0.1960784281911412</v>
+        <v>0.1535611396046836</v>
       </c>
       <c r="D23">
-        <v>0.2409927538348212</v>
+        <v>0.204223801150881</v>
       </c>
       <c r="E23">
-        <v>0.206144301338361</v>
+        <v>0.1654630524395362</v>
       </c>
       <c r="F23">
-        <v>0.3283631281713466</v>
+        <v>0.3028235769788694</v>
       </c>
       <c r="G23">
-        <v>-59.95619829434588</v>
+        <v>-61.22576269015232</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -8530,25 +8529,25 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.1752204280779255</v>
+        <v>0.1289469566139932</v>
       </c>
       <c r="C24">
-        <v>0.2042030786737322</v>
+        <v>0.1593270383292794</v>
       </c>
       <c r="D24">
-        <v>0.2338222746115241</v>
+        <v>0.1933815415748035</v>
       </c>
       <c r="E24">
-        <v>0.2075605391735326</v>
+        <v>0.1652329955187612</v>
       </c>
       <c r="F24">
-        <v>0.2065073966987889</v>
+        <v>0.1630755759988241</v>
       </c>
       <c r="G24">
-        <v>0.7638580746307088</v>
+        <v>1.408305570400886</v>
       </c>
       <c r="H24">
-        <v>0.4451321884353364</v>
+        <v>0.159351731962988</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -8565,25 +8564,25 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>0.1683544963758357</v>
+        <v>0.1216093687437346</v>
       </c>
       <c r="C25">
-        <v>0.1999626388199319</v>
+        <v>0.1527059276871524</v>
       </c>
       <c r="D25">
-        <v>0.2385160667136115</v>
+        <v>0.190552246109605</v>
       </c>
       <c r="E25">
-        <v>0.2079041733108777</v>
+        <v>0.1610069918547075</v>
       </c>
       <c r="F25">
-        <v>0.1843382885031623</v>
+        <v>0.1418693874730246</v>
       </c>
       <c r="G25">
-        <v>13.39146426993463</v>
+        <v>11.14060031083794</v>
       </c>
       <c r="H25">
-        <v>9.848164624121523E-38</v>
+        <v>2.974251875130127E-27</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -8600,25 +8599,25 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>0.1541811205974327</v>
+        <v>0.1027117325901452</v>
       </c>
       <c r="C26">
-        <v>0.1937410829117491</v>
+        <v>0.1461362120822731</v>
       </c>
       <c r="D26">
-        <v>0.2446123750525966</v>
+        <v>0.2104013111481764</v>
       </c>
       <c r="E26">
-        <v>0.2092483436795895</v>
+        <v>0.1653115514445897</v>
       </c>
       <c r="F26">
-        <v>0.2035944181055696</v>
+        <v>0.1594409820310524</v>
       </c>
       <c r="G26">
-        <v>2.292541871283006</v>
+        <v>2.242912331796967</v>
       </c>
       <c r="H26">
-        <v>0.0220815296689214</v>
+        <v>0.02512105681889916</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -8635,25 +8634,25 @@
         <v>21</v>
       </c>
       <c r="B27">
-        <v>0.1721957616586027</v>
+        <v>0.1292838823905794</v>
       </c>
       <c r="C27">
-        <v>0.2029234876162476</v>
+        <v>0.1581308776636685</v>
       </c>
       <c r="D27">
-        <v>0.235686216153696</v>
+        <v>0.1966205003207471</v>
       </c>
       <c r="E27">
-        <v>0.2070237761694762</v>
+        <v>0.1652850176622055</v>
       </c>
       <c r="F27">
-        <v>0.2155139835550851</v>
+        <v>0.1746141133148062</v>
       </c>
       <c r="G27">
-        <v>-5.82656667404414</v>
+        <v>-5.958805768025991</v>
       </c>
       <c r="H27">
-        <v>7.626372931284561E-09</v>
+        <v>3.518361604931499E-09</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -8670,28 +8669,28 @@
         <v>16</v>
       </c>
       <c r="B28">
-        <v>0.1697328470106188</v>
+        <v>0.1298061627347817</v>
       </c>
       <c r="C28">
-        <v>0.1978966140831777</v>
+        <v>0.1602132268723965</v>
       </c>
       <c r="D28">
-        <v>0.2321994250723527</v>
+        <v>0.1979391085793673</v>
       </c>
       <c r="E28">
-        <v>0.2042729990915444</v>
+        <v>0.1667445749772245</v>
       </c>
       <c r="F28">
-        <v>0.2029274859640607</v>
+        <v>0.1634943581871217</v>
       </c>
       <c r="G28">
-        <v>0.891735861385977</v>
+        <v>2.003909933209718</v>
       </c>
       <c r="H28">
-        <v>0.3727492547787578</v>
+        <v>0.04534932290498674</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" t="s">
         <v>39</v>
@@ -8705,28 +8704,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1806229082424797</v>
+        <v>0.1312057307012375</v>
       </c>
       <c r="C29">
-        <v>0.2036804902246243</v>
+        <v>0.1570312092276685</v>
       </c>
       <c r="D29">
-        <v>0.2341959671283762</v>
+        <v>0.1889794145154804</v>
       </c>
       <c r="E29">
-        <v>0.2087477487032394</v>
+        <v>0.1619867505904014</v>
       </c>
       <c r="F29">
-        <v>0.2024413054130444</v>
+        <v>0.1656173528989139</v>
       </c>
       <c r="G29">
-        <v>4.992666869037911</v>
+        <v>-2.788248179495834</v>
       </c>
       <c r="H29">
-        <v>7.024032857643733E-07</v>
+        <v>0.005400000186662316</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J29" t="s">
         <v>40</v>
@@ -8740,25 +8739,25 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <v>0.1663389991660258</v>
+        <v>0.1174346287095252</v>
       </c>
       <c r="C30">
-        <v>0.197510148849797</v>
+        <v>0.1542089275846348</v>
       </c>
       <c r="D30">
-        <v>0.2423518884486456</v>
+        <v>0.2021210564518558</v>
       </c>
       <c r="E30">
-        <v>0.2082658865600348</v>
+        <v>0.1647260475866509</v>
       </c>
       <c r="F30">
-        <v>0.2705023640086577</v>
+        <v>0.2325874604205697</v>
       </c>
       <c r="G30">
-        <v>-33.62756537896115</v>
+        <v>-33.2848483478577</v>
       </c>
       <c r="H30">
-        <v>2.06786042598116E-166</v>
+        <v>4.634431096171723E-164</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -8775,22 +8774,22 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0.1795229162960688</v>
+        <v>0.133567237193411</v>
       </c>
       <c r="C31">
-        <v>0.2036988000938896</v>
+        <v>0.1578250813576478</v>
       </c>
       <c r="D31">
-        <v>0.2294868078965293</v>
+        <v>0.1874671401088377</v>
       </c>
       <c r="E31">
-        <v>0.2072930389456426</v>
+        <v>0.1628563769700817</v>
       </c>
       <c r="F31">
-        <v>0.2812918074938499</v>
+        <v>0.2379461053807387</v>
       </c>
       <c r="G31">
-        <v>-62.39655825225622</v>
+        <v>-58.93933939621992</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -8810,25 +8809,25 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <v>0.1697328470106188</v>
+        <v>0.1298061627347817</v>
       </c>
       <c r="C32">
-        <v>0.1978966140831777</v>
+        <v>0.1602132268723965</v>
       </c>
       <c r="D32">
-        <v>0.2321994250723527</v>
+        <v>0.1979391085793673</v>
       </c>
       <c r="E32">
-        <v>0.2042729990915444</v>
+        <v>0.1667445749772245</v>
       </c>
       <c r="F32">
-        <v>0.1850936648709256</v>
+        <v>0.1359846416577659</v>
       </c>
       <c r="G32">
-        <v>12.71106150708279</v>
+        <v>18.96493061983804</v>
       </c>
       <c r="H32">
-        <v>2.027610211087483E-34</v>
+        <v>9.598584451477729E-69</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -8845,25 +8844,25 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <v>0.1795229162960688</v>
+        <v>0.133567237193411</v>
       </c>
       <c r="C33">
-        <v>0.2036988000938896</v>
+        <v>0.1578250813576478</v>
       </c>
       <c r="D33">
-        <v>0.2294868078965293</v>
+        <v>0.1874671401088377</v>
       </c>
       <c r="E33">
-        <v>0.2072930389456426</v>
+        <v>0.1628563769700817</v>
       </c>
       <c r="F33">
-        <v>0.2385564054599597</v>
+        <v>0.1936562541203636</v>
       </c>
       <c r="G33">
-        <v>-26.36160720163068</v>
+        <v>-24.17540256364416</v>
       </c>
       <c r="H33">
-        <v>1.106694662103192E-116</v>
+        <v>4.992439329809293E-102</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -8877,28 +8876,28 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>0.1697328470106188</v>
+        <v>0.1298061627347817</v>
       </c>
       <c r="C34">
-        <v>0.1978966140831777</v>
+        <v>0.1602132268723965</v>
       </c>
       <c r="D34">
-        <v>0.2321994250723527</v>
+        <v>0.1979391085793673</v>
       </c>
       <c r="E34">
-        <v>0.2042729990915444</v>
+        <v>0.1667445749772245</v>
       </c>
       <c r="F34">
-        <v>0.2432757988467142</v>
+        <v>0.2132806418961098</v>
       </c>
       <c r="G34">
-        <v>-25.84901962360188</v>
+        <v>-28.69165128776472</v>
       </c>
       <c r="H34">
-        <v>3.189482098518275E-113</v>
+        <v>1.541748793003044E-132</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
@@ -8960,25 +8959,25 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.4906494544173675</v>
+        <v>0.4963609008980798</v>
       </c>
       <c r="C2">
-        <v>0.5227146963211327</v>
+        <v>0.5266176280666288</v>
       </c>
       <c r="D2">
-        <v>0.5569227801676391</v>
+        <v>0.5611321511205584</v>
       </c>
       <c r="E2">
-        <v>0.5253331526240047</v>
+        <v>0.5287524233741269</v>
       </c>
       <c r="F2">
         <v>0.5085893140995696</v>
       </c>
       <c r="G2">
-        <v>10.52618938390127</v>
+        <v>13.11950251332218</v>
       </c>
       <c r="H2">
-        <v>1.2068861340609E-24</v>
+        <v>2.149133071967752E-36</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -8995,25 +8994,25 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.4981903805991331</v>
+        <v>0.4921141302106483</v>
       </c>
       <c r="C3">
-        <v>0.5269935418810747</v>
+        <v>0.5254776959333205</v>
       </c>
       <c r="D3">
-        <v>0.560387108021263</v>
+        <v>0.5578190410292632</v>
       </c>
       <c r="E3">
-        <v>0.5290174281420058</v>
+        <v>0.5269245825423915</v>
       </c>
       <c r="F3">
         <v>0.4794581143942714</v>
       </c>
       <c r="G3">
-        <v>32.89239943524854</v>
+        <v>29.93232971423468</v>
       </c>
       <c r="H3">
-        <v>2.286259968807007E-161</v>
+        <v>4.872501486020449E-141</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -9030,25 +9029,25 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.4922202708350472</v>
+        <v>0.4972639672023549</v>
       </c>
       <c r="C4">
-        <v>0.521968938593746</v>
+        <v>0.5284799707649234</v>
       </c>
       <c r="D4">
-        <v>0.5557272062083438</v>
+        <v>0.5637013932137241</v>
       </c>
       <c r="E4">
-        <v>0.5245570914680658</v>
+        <v>0.5307366721312842</v>
       </c>
       <c r="F4">
         <v>0.4771982017985485</v>
       </c>
       <c r="G4">
-        <v>30.72977598337341</v>
+        <v>34.59204404045092</v>
       </c>
       <c r="H4">
-        <v>1.634834501829959E-146</v>
+        <v>5.124785934272874E-173</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -9544,651 +9543,6 @@
       </c>
       <c r="F34">
         <v>0.3882140942395901</v>
-      </c>
-      <c r="I34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>0.0004950550097853946</v>
-      </c>
-      <c r="C2">
-        <v>0.001038785005764709</v>
-      </c>
-      <c r="D2">
-        <v>0.002432697439892229</v>
-      </c>
-      <c r="E2">
-        <v>0.002164534791467442</v>
-      </c>
-      <c r="F2">
-        <v>0.005900657429699666</v>
-      </c>
-      <c r="G2">
-        <v>-35.38305747115661</v>
-      </c>
-      <c r="H2">
-        <v>2.015001344288231E-178</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>0.0005045896414735126</v>
-      </c>
-      <c r="C3">
-        <v>0.001099865897481432</v>
-      </c>
-      <c r="D3">
-        <v>0.002536687205607309</v>
-      </c>
-      <c r="E3">
-        <v>0.002183913056746719</v>
-      </c>
-      <c r="F3">
-        <v>0.006005780826492222</v>
-      </c>
-      <c r="G3">
-        <v>-40.01672653134014</v>
-      </c>
-      <c r="H3">
-        <v>9.607119279394715E-210</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>0.0006196061844284678</v>
-      </c>
-      <c r="C4">
-        <v>0.001215761136997126</v>
-      </c>
-      <c r="D4">
-        <v>0.002854657835995681</v>
-      </c>
-      <c r="E4">
-        <v>0.002297299152501594</v>
-      </c>
-      <c r="F4">
-        <v>0.005909751776700009</v>
-      </c>
-      <c r="G4">
-        <v>-39.00656743165477</v>
-      </c>
-      <c r="H4">
-        <v>5.632042058074068E-203</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>0.00237301827728971</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>0.00237301827728971</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>6.731966744084284E-05</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>0.0003365983372042142</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>0.004645057053418155</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>25</v>
-      </c>
-      <c r="F11">
-        <v>0.001287488639806119</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>0.000403918004645057</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>0.001144434346494328</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>0.0006664647076643441</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>19</v>
-      </c>
-      <c r="F17">
-        <v>0.003496415227708775</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>24</v>
-      </c>
-      <c r="F18">
-        <v>0.0001682991686021071</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1">
-        <v>22</v>
-      </c>
-      <c r="F19">
-        <v>0.002053249856945707</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1">
-        <v>21</v>
-      </c>
-      <c r="F20">
-        <v>0.00237301827728971</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1">
-        <v>26</v>
-      </c>
-      <c r="F24">
-        <v>0.0002288868692988656</v>
-      </c>
-      <c r="I24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1">
-        <v>11</v>
-      </c>
-      <c r="F25">
-        <v>0.0001682991686021071</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1">
-        <v>3</v>
-      </c>
-      <c r="I26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="F27">
-        <v>0.000737150358477229</v>
-      </c>
-      <c r="I27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1">
-        <v>13</v>
-      </c>
-      <c r="F28">
-        <v>0.1781783297990508</v>
-      </c>
-      <c r="I28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="F29">
-        <v>0.0005193231488293591</v>
-      </c>
-      <c r="I29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>0.0001346393348816857</v>
-      </c>
-      <c r="I30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1">
-        <v>28</v>
-      </c>
-      <c r="F31">
-        <v>0.0004443098051095627</v>
-      </c>
-      <c r="I31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1">
-        <v>18</v>
-      </c>
-      <c r="F32">
-        <v>0.0002423508027870342</v>
-      </c>
-      <c r="I32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="F33">
-        <v>0.0001817631020902757</v>
-      </c>
-      <c r="I33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1">
-        <v>16</v>
-      </c>
-      <c r="F34">
-        <v>0.0004291628799353731</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>

--- a/data/procon/threshold_100/group distribution statistic information.xlsx
+++ b/data/procon/threshold_100/group distribution statistic information.xlsx
@@ -13,7 +13,7 @@
     <sheet name="degree centrality" sheetId="4" r:id="rId4"/>
     <sheet name="betweenness centrality" sheetId="5" r:id="rId5"/>
     <sheet name="closeness centrality" sheetId="6" r:id="rId6"/>
-    <sheet name="average shortest length" sheetId="7" r:id="rId7"/>
+    <sheet name="shortest path length" sheetId="7" r:id="rId7"/>
     <sheet name="co-conservation" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7759,25 +7759,25 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.1454486599361891</v>
+        <v>0.8758970319761407</v>
       </c>
       <c r="C2">
-        <v>0.1622520727575124</v>
+        <v>0.9498616017991128</v>
       </c>
       <c r="D2">
-        <v>0.1793087068497178</v>
+        <v>1.021659216609922</v>
       </c>
       <c r="E2">
-        <v>0.1643980059403297</v>
+        <v>0.9575776925724472</v>
       </c>
       <c r="F2">
-        <v>0.2055064962720105</v>
+        <v>1.123959771136158</v>
       </c>
       <c r="G2">
-        <v>-48.31094026813834</v>
+        <v>-45.29555860042941</v>
       </c>
       <c r="H2">
-        <v>1.286491362811514E-263</v>
+        <v>2.061914574464136E-244</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -7794,25 +7794,25 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.1450485490321222</v>
+        <v>0.8723161531677792</v>
       </c>
       <c r="C3">
-        <v>0.1627725780571959</v>
+        <v>0.951411570366714</v>
       </c>
       <c r="D3">
-        <v>0.1805627842110832</v>
+        <v>1.026795463341972</v>
       </c>
       <c r="E3">
-        <v>0.1635865878174202</v>
+        <v>0.953924457764149</v>
       </c>
       <c r="F3">
-        <v>0.1745498190198948</v>
+        <v>0.9915445247219833</v>
       </c>
       <c r="G3">
-        <v>-13.30141357430277</v>
+        <v>-10.57115129478604</v>
       </c>
       <c r="H3">
-        <v>2.746528805604003E-37</v>
+        <v>7.846855882528151E-25</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -7829,25 +7829,25 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.144501413209222</v>
+        <v>0.8712117501784894</v>
       </c>
       <c r="C4">
-        <v>0.1618139850840775</v>
+        <v>0.9458143118017956</v>
       </c>
       <c r="D4">
-        <v>0.1807461803110437</v>
+        <v>1.028324662806458</v>
       </c>
       <c r="E4">
-        <v>0.1636147895748205</v>
+        <v>0.9542580008471837</v>
       </c>
       <c r="F4">
-        <v>0.1564091067452639</v>
+        <v>0.9083462792725192</v>
       </c>
       <c r="G4">
-        <v>8.854886819523763</v>
+        <v>13.03733874163368</v>
       </c>
       <c r="H4">
-        <v>3.754408740140642E-18</v>
+        <v>5.407789124429374E-36</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -7864,25 +7864,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.1298061627347817</v>
+        <v>0.8063122115469168</v>
       </c>
       <c r="C5">
-        <v>0.1602132268723965</v>
+        <v>0.9372692729918557</v>
       </c>
       <c r="D5">
-        <v>0.1979391085793673</v>
+        <v>1.102544166829774</v>
       </c>
       <c r="E5">
-        <v>0.1667445749772245</v>
+        <v>0.9674620621966543</v>
       </c>
       <c r="F5">
-        <v>0.171969213760215</v>
+        <v>0.9938308271423179</v>
       </c>
       <c r="G5">
-        <v>-3.221232991764991</v>
+        <v>-3.737391803586525</v>
       </c>
       <c r="H5">
-        <v>0.001317630114558081</v>
+        <v>0.0001964838673362682</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -7899,25 +7899,25 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.1292838823905794</v>
+        <v>0.808670053995864</v>
       </c>
       <c r="C6">
-        <v>0.1581308776636685</v>
+        <v>0.9377413113038149</v>
       </c>
       <c r="D6">
-        <v>0.1966205003207471</v>
+        <v>1.095271585580679</v>
       </c>
       <c r="E6">
-        <v>0.1652850176622055</v>
+        <v>0.9628120632249443</v>
       </c>
       <c r="F6">
-        <v>0.2031465324603666</v>
+        <v>1.132941944872307</v>
       </c>
       <c r="G6">
-        <v>-24.18341725358869</v>
+        <v>-25.09273986495125</v>
       </c>
       <c r="H6">
-        <v>4.41703671873217E-102</v>
+        <v>3.830967716944697E-108</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -7934,25 +7934,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1131142801130133</v>
+        <v>0.73545178808999</v>
       </c>
       <c r="C7">
-        <v>0.1535611396046836</v>
+        <v>0.9105364269970809</v>
       </c>
       <c r="D7">
-        <v>0.204223801150881</v>
+        <v>1.136409870733305</v>
       </c>
       <c r="E7">
-        <v>0.1654630524395362</v>
+        <v>0.9632039921764856</v>
       </c>
       <c r="F7">
-        <v>0.166068855538196</v>
+        <v>0.973341474553722</v>
       </c>
       <c r="G7">
-        <v>-0.2700248625279945</v>
+        <v>-1.030227299713375</v>
       </c>
       <c r="H7">
-        <v>0.7871968952610052</v>
+        <v>0.3031526729863639</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -7969,25 +7969,25 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.1216093687437346</v>
+        <v>0.7762725124600383</v>
       </c>
       <c r="C8">
-        <v>0.1527059276871524</v>
+        <v>0.9067769702746171</v>
       </c>
       <c r="D8">
-        <v>0.190552246109605</v>
+        <v>1.070299735906753</v>
       </c>
       <c r="E8">
-        <v>0.1610069918547075</v>
+        <v>0.9427657846349355</v>
       </c>
       <c r="F8">
-        <v>0.176467850490707</v>
+        <v>1.031685828319533</v>
       </c>
       <c r="G8">
-        <v>-9.000251185613218</v>
+        <v>-11.98879126680685</v>
       </c>
       <c r="H8">
-        <v>1.112240535435946E-18</v>
+        <v>4.888628694190928E-31</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -8001,28 +8001,28 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1298061627347817</v>
+        <v>0.8063122115469168</v>
       </c>
       <c r="C9">
-        <v>0.1602132268723965</v>
+        <v>0.9372692729918557</v>
       </c>
       <c r="D9">
-        <v>0.1979391085793673</v>
+        <v>1.102544166829774</v>
       </c>
       <c r="E9">
-        <v>0.1667445749772245</v>
+        <v>0.9674620621966543</v>
       </c>
       <c r="F9">
-        <v>0.2093164931047669</v>
+        <v>1.147226879075929</v>
       </c>
       <c r="G9">
-        <v>-26.24756904565617</v>
+        <v>-25.47906792609648</v>
       </c>
       <c r="H9">
-        <v>6.528385606290001E-116</v>
+        <v>9.827984240912329E-111</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -8036,28 +8036,28 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1174346287095252</v>
+        <v>0.7536694317031035</v>
       </c>
       <c r="C10">
-        <v>0.1542089275846348</v>
+        <v>0.9122959730744027</v>
       </c>
       <c r="D10">
-        <v>0.2021210564518558</v>
+        <v>1.122635521534521</v>
       </c>
       <c r="E10">
-        <v>0.1647260475866509</v>
+        <v>0.958319376005242</v>
       </c>
       <c r="F10">
-        <v>0.2367056505987363</v>
+        <v>1.261240543277536</v>
       </c>
       <c r="G10">
-        <v>-35.30474934643226</v>
+        <v>-34.33595117226105</v>
       </c>
       <c r="H10">
-        <v>6.899538562949501E-178</v>
+        <v>2.898937046884094E-171</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -8074,25 +8074,25 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.1289469566139932</v>
+        <v>0.8023392150341201</v>
       </c>
       <c r="C11">
-        <v>0.1593270383292794</v>
+        <v>0.9399580445847646</v>
       </c>
       <c r="D11">
-        <v>0.1933815415748035</v>
+        <v>1.087759542767883</v>
       </c>
       <c r="E11">
-        <v>0.1652329955187612</v>
+        <v>0.9611093168159223</v>
       </c>
       <c r="F11">
-        <v>0.2217354054161929</v>
+        <v>1.191832469569707</v>
       </c>
       <c r="G11">
-        <v>-36.88325699488689</v>
+        <v>-34.54622199356913</v>
       </c>
       <c r="H11">
-        <v>1.236532385863786E-188</v>
+        <v>1.054805864712953E-172</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -8106,28 +8106,28 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>0.1174346287095252</v>
+        <v>0.7536694317031035</v>
       </c>
       <c r="C12">
-        <v>0.1542089275846348</v>
+        <v>0.9122959730744027</v>
       </c>
       <c r="D12">
-        <v>0.2021210564518558</v>
+        <v>1.122635521534521</v>
       </c>
       <c r="E12">
-        <v>0.1647260475866509</v>
+        <v>0.958319376005242</v>
       </c>
       <c r="F12">
-        <v>0.2394649844532094</v>
+        <v>1.243260558765712</v>
       </c>
       <c r="G12">
-        <v>-36.65815483935975</v>
+        <v>-32.297929610958</v>
       </c>
       <c r="H12">
-        <v>4.176050338073127E-187</v>
+        <v>2.760737292678883E-157</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -8141,28 +8141,28 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>0.1174346287095252</v>
+        <v>0.7536694317031035</v>
       </c>
       <c r="C13">
-        <v>0.1542089275846348</v>
+        <v>0.9122959730744027</v>
       </c>
       <c r="D13">
-        <v>0.2021210564518558</v>
+        <v>1.122635521534521</v>
       </c>
       <c r="E13">
-        <v>0.1647260475866509</v>
+        <v>0.958319376005242</v>
       </c>
       <c r="F13">
-        <v>0.2375538235399127</v>
+        <v>1.264753082742598</v>
       </c>
       <c r="G13">
-        <v>-35.72076349262907</v>
+        <v>-34.73409562894935</v>
       </c>
       <c r="H13">
-        <v>1.001401949617771E-180</v>
+        <v>5.470883975330541E-174</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -8179,25 +8179,25 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>0.1298061627347817</v>
+        <v>0.8063122115469168</v>
       </c>
       <c r="C14">
-        <v>0.1602132268723965</v>
+        <v>0.9372692729918557</v>
       </c>
       <c r="D14">
-        <v>0.1979391085793673</v>
+        <v>1.102544166829774</v>
       </c>
       <c r="E14">
-        <v>0.1667445749772245</v>
+        <v>0.9674620621966543</v>
       </c>
       <c r="F14">
-        <v>0.07637580556467875</v>
+        <v>0.5948406788699871</v>
       </c>
       <c r="G14">
-        <v>55.71655257863995</v>
+        <v>52.81370237687918</v>
       </c>
       <c r="H14">
-        <v>9.628896730659563E-309</v>
+        <v>2.084995407862569E-291</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -8211,28 +8211,28 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>0.1008963001203798</v>
+        <v>0.6210579615178411</v>
       </c>
       <c r="C15">
-        <v>0.1354755413834011</v>
+        <v>0.8367531423125035</v>
       </c>
       <c r="D15">
-        <v>0.1988452189214477</v>
+        <v>1.106650979924942</v>
       </c>
       <c r="E15">
-        <v>0.1633165877427045</v>
+        <v>0.953769247036397</v>
       </c>
       <c r="F15">
-        <v>0.08668784818126071</v>
+        <v>0.5389736105319591</v>
       </c>
       <c r="G15">
-        <v>25.70541884240177</v>
+        <v>31.10798395075452</v>
       </c>
       <c r="H15">
-        <v>2.955376166762645E-112</v>
+        <v>4.127015914543601E-149</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -8246,28 +8246,28 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>0.1008963001203798</v>
+        <v>0.6210579615178411</v>
       </c>
       <c r="C16">
-        <v>0.1354755413834011</v>
+        <v>0.8367531423125035</v>
       </c>
       <c r="D16">
-        <v>0.1988452189214477</v>
+        <v>1.106650979924942</v>
       </c>
       <c r="E16">
-        <v>0.1633165877427045</v>
+        <v>0.953769247036397</v>
       </c>
       <c r="F16">
-        <v>0.08411131741840192</v>
+        <v>0.5518139036158931</v>
       </c>
       <c r="G16">
-        <v>26.56972644812079</v>
+        <v>30.1450142470611</v>
       </c>
       <c r="H16">
-        <v>4.323673907071699E-118</v>
+        <v>1.691621094726068E-142</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -8281,28 +8281,28 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>0.1292838823905794</v>
+        <v>0.808670053995864</v>
       </c>
       <c r="C17">
-        <v>0.1581308776636685</v>
+        <v>0.9377413113038149</v>
       </c>
       <c r="D17">
-        <v>0.1966205003207471</v>
+        <v>1.095271585580679</v>
       </c>
       <c r="E17">
-        <v>0.1652850176622055</v>
+        <v>0.9628120632249443</v>
       </c>
       <c r="F17">
-        <v>0.1311878299238039</v>
+        <v>0.7899824694278736</v>
       </c>
       <c r="G17">
-        <v>21.77901551608715</v>
+        <v>25.49092491055818</v>
       </c>
       <c r="H17">
-        <v>2.317427532272647E-86</v>
+        <v>8.181142713052413E-111</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -8316,28 +8316,28 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1292838823905794</v>
+        <v>0.808670053995864</v>
       </c>
       <c r="C18">
-        <v>0.1581308776636685</v>
+        <v>0.9377413113038149</v>
       </c>
       <c r="D18">
-        <v>0.1966205003207471</v>
+        <v>1.095271585580679</v>
       </c>
       <c r="E18">
-        <v>0.1652850176622055</v>
+        <v>0.9628120632249443</v>
       </c>
       <c r="F18">
-        <v>0.1279984810117116</v>
+        <v>0.8138135164115088</v>
       </c>
       <c r="G18">
-        <v>23.81615945815027</v>
+        <v>21.97604406258778</v>
       </c>
       <c r="H18">
-        <v>1.194832699888805E-99</v>
+        <v>1.249498057837654E-87</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -8354,28 +8354,28 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.1292838823905794</v>
+        <v>0.808670053995864</v>
       </c>
       <c r="C19">
-        <v>0.1581308776636685</v>
+        <v>0.9377413113038149</v>
       </c>
       <c r="D19">
-        <v>0.1966205003207471</v>
+        <v>1.095271585580679</v>
       </c>
       <c r="E19">
-        <v>0.1652850176622055</v>
+        <v>0.9628120632249443</v>
       </c>
       <c r="F19">
-        <v>0.1624995259848566</v>
+        <v>0.9403321234969235</v>
       </c>
       <c r="G19">
-        <v>1.779186803508369</v>
+        <v>3.315603786430721</v>
       </c>
       <c r="H19">
-        <v>0.07551312439048333</v>
+        <v>0.0009473617293182079</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" t="s">
         <v>30</v>
@@ -8389,25 +8389,25 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.1292838823905794</v>
+        <v>0.808670053995864</v>
       </c>
       <c r="C20">
-        <v>0.1581308776636685</v>
+        <v>0.9377413113038149</v>
       </c>
       <c r="D20">
-        <v>0.1966205003207471</v>
+        <v>1.095271585580679</v>
       </c>
       <c r="E20">
-        <v>0.1652850176622055</v>
+        <v>0.9628120632249443</v>
       </c>
       <c r="F20">
-        <v>0.214462818580943</v>
+        <v>1.196209758401484</v>
       </c>
       <c r="G20">
-        <v>-31.41150811244115</v>
+        <v>-34.42421515512096</v>
       </c>
       <c r="H20">
-        <v>3.391964999550403E-151</v>
+        <v>7.212373963431037E-172</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -8424,22 +8424,22 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>0.1131142801130133</v>
+        <v>0.73545178808999</v>
       </c>
       <c r="C21">
-        <v>0.1535611396046836</v>
+        <v>0.9105364269970809</v>
       </c>
       <c r="D21">
-        <v>0.204223801150881</v>
+        <v>1.136409870733305</v>
       </c>
       <c r="E21">
-        <v>0.1654630524395362</v>
+        <v>0.9632039921764856</v>
       </c>
       <c r="F21">
-        <v>0.355521366531194</v>
+        <v>1.814358332836917</v>
       </c>
       <c r="G21">
-        <v>-84.71476994494273</v>
+        <v>-86.49903451244867</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -8459,25 +8459,25 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>0.1027117325901452</v>
+        <v>0.7025284942713607</v>
       </c>
       <c r="C22">
-        <v>0.1461362120822731</v>
+        <v>0.8957397589404499</v>
       </c>
       <c r="D22">
-        <v>0.2104013111481764</v>
+        <v>1.146511685629753</v>
       </c>
       <c r="E22">
-        <v>0.1653115514445897</v>
+        <v>0.961509989873116</v>
       </c>
       <c r="F22">
-        <v>0.230067866272783</v>
+        <v>1.263529318321717</v>
       </c>
       <c r="G22">
-        <v>-24.74082612070942</v>
+        <v>-26.48211863876961</v>
       </c>
       <c r="H22">
-        <v>8.622316699768177E-106</v>
+        <v>1.693780842806571E-117</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -8494,25 +8494,25 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>0.1131142801130133</v>
+        <v>0.73545178808999</v>
       </c>
       <c r="C23">
-        <v>0.1535611396046836</v>
+        <v>0.9105364269970809</v>
       </c>
       <c r="D23">
-        <v>0.204223801150881</v>
+        <v>1.136409870733305</v>
       </c>
       <c r="E23">
-        <v>0.1654630524395362</v>
+        <v>0.9632039921764856</v>
       </c>
       <c r="F23">
-        <v>0.3028235769788694</v>
+        <v>1.506960247016541</v>
       </c>
       <c r="G23">
-        <v>-61.22576269015232</v>
+        <v>-55.25953262163311</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.81362194782138E-306</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -8529,28 +8529,28 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.1289469566139932</v>
+        <v>0.8023392150341201</v>
       </c>
       <c r="C24">
-        <v>0.1593270383292794</v>
+        <v>0.9399580445847646</v>
       </c>
       <c r="D24">
-        <v>0.1933815415748035</v>
+        <v>1.087759542767883</v>
       </c>
       <c r="E24">
-        <v>0.1652329955187612</v>
+        <v>0.9611093168159223</v>
       </c>
       <c r="F24">
-        <v>0.1630755759988241</v>
+        <v>0.9477264980176456</v>
       </c>
       <c r="G24">
-        <v>1.408305570400886</v>
+        <v>2.003812030075474</v>
       </c>
       <c r="H24">
-        <v>0.159351731962988</v>
+        <v>0.04535983184228964</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" t="s">
         <v>35</v>
@@ -8564,25 +8564,25 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>0.1216093687437346</v>
+        <v>0.7762725124600383</v>
       </c>
       <c r="C25">
-        <v>0.1527059276871524</v>
+        <v>0.9067769702746171</v>
       </c>
       <c r="D25">
-        <v>0.190552246109605</v>
+        <v>1.070299735906753</v>
       </c>
       <c r="E25">
-        <v>0.1610069918547075</v>
+        <v>0.9427657846349355</v>
       </c>
       <c r="F25">
-        <v>0.1418693874730246</v>
+        <v>0.8459855840829211</v>
       </c>
       <c r="G25">
-        <v>11.14060031083794</v>
+        <v>13.04854985556862</v>
       </c>
       <c r="H25">
-        <v>2.974251875130127E-27</v>
+        <v>4.76914511517546E-36</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -8599,25 +8599,25 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>0.1027117325901452</v>
+        <v>0.7025284942713607</v>
       </c>
       <c r="C26">
-        <v>0.1461362120822731</v>
+        <v>0.8957397589404499</v>
       </c>
       <c r="D26">
-        <v>0.2104013111481764</v>
+        <v>1.146511685629753</v>
       </c>
       <c r="E26">
-        <v>0.1653115514445897</v>
+        <v>0.961509989873116</v>
       </c>
       <c r="F26">
-        <v>0.1594409820310524</v>
+        <v>0.9343579357042153</v>
       </c>
       <c r="G26">
-        <v>2.242912331796967</v>
+        <v>2.380787757792448</v>
       </c>
       <c r="H26">
-        <v>0.02512105681889916</v>
+        <v>0.01746230149665006</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -8634,25 +8634,25 @@
         <v>21</v>
       </c>
       <c r="B27">
-        <v>0.1292838823905794</v>
+        <v>0.808670053995864</v>
       </c>
       <c r="C27">
-        <v>0.1581308776636685</v>
+        <v>0.9377413113038149</v>
       </c>
       <c r="D27">
-        <v>0.1966205003207471</v>
+        <v>1.095271585580679</v>
       </c>
       <c r="E27">
-        <v>0.1652850176622055</v>
+        <v>0.9628120632249443</v>
       </c>
       <c r="F27">
-        <v>0.1746141133148062</v>
+        <v>0.9890605187687749</v>
       </c>
       <c r="G27">
-        <v>-5.958805768025991</v>
+        <v>-3.871428466536448</v>
       </c>
       <c r="H27">
-        <v>3.518361604931499E-09</v>
+        <v>0.0001152289023049078</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -8669,25 +8669,25 @@
         <v>16</v>
       </c>
       <c r="B28">
-        <v>0.1298061627347817</v>
+        <v>0.8063122115469168</v>
       </c>
       <c r="C28">
-        <v>0.1602132268723965</v>
+        <v>0.9372692729918557</v>
       </c>
       <c r="D28">
-        <v>0.1979391085793673</v>
+        <v>1.102544166829774</v>
       </c>
       <c r="E28">
-        <v>0.1667445749772245</v>
+        <v>0.9674620621966543</v>
       </c>
       <c r="F28">
-        <v>0.1634943581871217</v>
+        <v>0.9312971772374882</v>
       </c>
       <c r="G28">
-        <v>2.003909933209718</v>
+        <v>5.125850410611105</v>
       </c>
       <c r="H28">
-        <v>0.04534932290498674</v>
+        <v>3.555279154994583E-07</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -8704,28 +8704,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1312057307012375</v>
+        <v>0.8138290316641124</v>
       </c>
       <c r="C29">
-        <v>0.1570312092276685</v>
+        <v>0.9257411037761902</v>
       </c>
       <c r="D29">
-        <v>0.1889794145154804</v>
+        <v>1.065827737372534</v>
       </c>
       <c r="E29">
-        <v>0.1619867505904014</v>
+        <v>0.9469957709699602</v>
       </c>
       <c r="F29">
-        <v>0.1656173528989139</v>
+        <v>0.9290659438851491</v>
       </c>
       <c r="G29">
-        <v>-2.788248179495834</v>
+        <v>3.166774833611174</v>
       </c>
       <c r="H29">
-        <v>0.005400000186662316</v>
+        <v>0.00158811648486056</v>
       </c>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J29" t="s">
         <v>40</v>
@@ -8739,25 +8739,25 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <v>0.1174346287095252</v>
+        <v>0.7536694317031035</v>
       </c>
       <c r="C30">
-        <v>0.1542089275846348</v>
+        <v>0.9122959730744027</v>
       </c>
       <c r="D30">
-        <v>0.2021210564518558</v>
+        <v>1.122635521534521</v>
       </c>
       <c r="E30">
-        <v>0.1647260475866509</v>
+        <v>0.958319376005242</v>
       </c>
       <c r="F30">
-        <v>0.2325874604205697</v>
+        <v>1.241419252993388</v>
       </c>
       <c r="G30">
-        <v>-33.2848483478577</v>
+        <v>-32.08921859329948</v>
       </c>
       <c r="H30">
-        <v>4.634431096171723E-164</v>
+        <v>7.492326899039872E-156</v>
       </c>
       <c r="I30" t="s">
         <v>10</v>
@@ -8774,22 +8774,22 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0.133567237193411</v>
+        <v>0.8224276744631035</v>
       </c>
       <c r="C31">
-        <v>0.1578250813576478</v>
+        <v>0.9310822452799874</v>
       </c>
       <c r="D31">
-        <v>0.1874671401088377</v>
+        <v>1.056768156636358</v>
       </c>
       <c r="E31">
-        <v>0.1628563769700817</v>
+        <v>0.9503786635943035</v>
       </c>
       <c r="F31">
-        <v>0.2379461053807387</v>
+        <v>1.290935355821875</v>
       </c>
       <c r="G31">
-        <v>-58.93933939621992</v>
+        <v>-61.65479599148845</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -8809,25 +8809,25 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <v>0.1298061627347817</v>
+        <v>0.8063122115469168</v>
       </c>
       <c r="C32">
-        <v>0.1602132268723965</v>
+        <v>0.9372692729918557</v>
       </c>
       <c r="D32">
-        <v>0.1979391085793673</v>
+        <v>1.102544166829774</v>
       </c>
       <c r="E32">
-        <v>0.1667445749772245</v>
+        <v>0.9674620621966543</v>
       </c>
       <c r="F32">
-        <v>0.1359846416577659</v>
+        <v>0.8494522405376039</v>
       </c>
       <c r="G32">
-        <v>18.96493061983804</v>
+        <v>16.72618877372848</v>
       </c>
       <c r="H32">
-        <v>9.598584451477729E-69</v>
+        <v>1.483991031145629E-55</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -8844,25 +8844,25 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <v>0.133567237193411</v>
+        <v>0.8224276744631035</v>
       </c>
       <c r="C33">
-        <v>0.1578250813576478</v>
+        <v>0.9310822452799874</v>
       </c>
       <c r="D33">
-        <v>0.1874671401088377</v>
+        <v>1.056768156636358</v>
       </c>
       <c r="E33">
-        <v>0.1628563769700817</v>
+        <v>0.9503786635943035</v>
       </c>
       <c r="F33">
-        <v>0.1936562541203636</v>
+        <v>1.094809340200118</v>
       </c>
       <c r="G33">
-        <v>-24.17540256364416</v>
+        <v>-26.14790460524454</v>
       </c>
       <c r="H33">
-        <v>4.992439329809293E-102</v>
+        <v>3.075653947999153E-115</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -8876,28 +8876,28 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>0.1298061627347817</v>
+        <v>0.8063122115469168</v>
       </c>
       <c r="C34">
-        <v>0.1602132268723965</v>
+        <v>0.9372692729918557</v>
       </c>
       <c r="D34">
-        <v>0.1979391085793673</v>
+        <v>1.102544166829774</v>
       </c>
       <c r="E34">
-        <v>0.1667445749772245</v>
+        <v>0.9674620621966543</v>
       </c>
       <c r="F34">
-        <v>0.2132806418961098</v>
+        <v>1.11646810031572</v>
       </c>
       <c r="G34">
-        <v>-28.69165128776472</v>
+        <v>-21.11945503320518</v>
       </c>
       <c r="H34">
-        <v>1.541748793003044E-132</v>
+        <v>3.807140826399548E-82</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>

--- a/data/procon/threshold_100/group distribution statistic information.xlsx
+++ b/data/procon/threshold_100/group distribution statistic information.xlsx
@@ -53,7 +53,7 @@
     <t>index</t>
   </si>
   <si>
-    <t>Yes. Right.</t>
+    <t>Yes. Smaller.</t>
   </si>
   <si>
     <t>BA.1(Omicron)</t>
@@ -158,7 +158,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Yes. Left.</t>
+    <t>Yes. Bigger.</t>
   </si>
 </sst>
 </file>

--- a/data/procon/threshold_100/group distribution statistic information.xlsx
+++ b/data/procon/threshold_100/group distribution statistic information.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="I" sheetId="1" r:id="rId1"/>
-    <sheet name="MI" sheetId="2" r:id="rId2"/>
-    <sheet name="K" sheetId="3" r:id="rId3"/>
+    <sheet name="CS" sheetId="1" r:id="rId1"/>
+    <sheet name="CCS" sheetId="2" r:id="rId2"/>
+    <sheet name="Kw" sheetId="3" r:id="rId3"/>
     <sheet name="P" sheetId="4" r:id="rId4"/>
     <sheet name="D" sheetId="5" r:id="rId5"/>
     <sheet name="B" sheetId="6" r:id="rId6"/>
